--- a/data/performance_sheets/Full Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/Full Overall Model Peformance Results.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="805" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Option 1 - LR1 - DN1 (70-30)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Option 1 - LR1 - DN2 (70-30)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Option 1 - LR2 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Option 1 - LR2 - DN2 (70-30)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Option 1 - NLR1 - DN1 (70-30)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Option 1 - NLR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Option 1 - NLR2 - DN1 (70-30)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Option 1 - NLR2 - DN2 (70-30)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (70-30)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (70-30)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (70-30)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (70-30)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (70-30)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (70-30)" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -626,7 +626,7 @@
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -790,25 +790,61 @@
           <t>Support Vector Regressor</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.04790870791870223</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.1453895507847598</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>33754417082983</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.2188805791263862</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>31.50803293535174</v>
+      </c>
       <c r="I8" s="10" t="inlineStr">
         <is>
           <t>Support Vector Regressor</t>
         </is>
       </c>
-      <c r="J8" s="9" t="n"/>
-      <c r="K8" s="9" t="n"/>
-      <c r="L8" s="9" t="n"/>
-      <c r="M8" s="9" t="n"/>
-      <c r="N8" s="9" t="n"/>
-      <c r="O8" s="9" t="n"/>
-      <c r="P8" s="9" t="n"/>
+      <c r="J8" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K8" s="9" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
+        </is>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>0.04800150932363142</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>0.1447756229328443</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>34243083539602.04</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>0.2190924675191537</v>
+      </c>
+      <c r="P8" s="9" t="n">
+        <v>31.46523591075433</v>
+      </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -816,25 +852,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="14" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="14" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06948263558220943</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2050106697773112</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>33095416056113.94</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2635955909764225</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>40.91079691392724</v>
+      </c>
       <c r="I9" s="10" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="9" t="n"/>
-      <c r="K9" s="9" t="n"/>
-      <c r="L9" s="9" t="n"/>
-      <c r="M9" s="9" t="n"/>
-      <c r="N9" s="9" t="n"/>
-      <c r="O9" s="9" t="n"/>
-      <c r="P9" s="9" t="n"/>
+      <c r="J9" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="9" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>0.06948263558220943</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>0.2050106697773112</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>33095416056113.94</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>0.2635955909764225</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>40.91079691392724</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -842,25 +914,61 @@
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.05197720832452909</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1531997460134655</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>36616621946777.34</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.2279851054883391</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>32.03799066824725</v>
+      </c>
       <c r="I10" s="10" t="inlineStr">
         <is>
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="J10" s="9" t="n"/>
-      <c r="K10" s="9" t="n"/>
-      <c r="L10" s="9" t="n"/>
-      <c r="M10" s="9" t="n"/>
-      <c r="N10" s="9" t="n"/>
-      <c r="O10" s="9" t="n"/>
-      <c r="P10" s="9" t="n"/>
+      <c r="J10" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K10" s="9" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+        </is>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0.04941150951880954</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0.1534981079045966</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>34246324508831.76</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>0.2222869980876289</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>32.53469098298371</v>
+      </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -868,25 +976,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.04366883638073185</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1504063283274805</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>27022134356372.79</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2089708984062897</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>33.99067635029024</v>
+      </c>
       <c r="I11" s="10" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="9" t="n"/>
-      <c r="K11" s="9" t="n"/>
-      <c r="L11" s="9" t="n"/>
-      <c r="M11" s="9" t="n"/>
-      <c r="N11" s="9" t="n"/>
-      <c r="O11" s="9" t="n"/>
-      <c r="P11" s="9" t="n"/>
+      <c r="J11" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="9" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>0.05655441876416235</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>0.1765266458722918</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <v>31819654621706.96</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <v>0.2378117296605917</v>
+      </c>
+      <c r="P11" s="9" t="n">
+        <v>36.67532059844952</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
@@ -976,25 +1120,61 @@
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 200}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.04574260724261252</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1546164507530542</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>28982518762902.01</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.2138752141848431</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>33.8624634769936</v>
+      </c>
       <c r="I13" s="10" t="inlineStr">
         <is>
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="9" t="n"/>
-      <c r="L13" s="9" t="n"/>
-      <c r="M13" s="9" t="n"/>
-      <c r="N13" s="9" t="n"/>
-      <c r="O13" s="9" t="n"/>
-      <c r="P13" s="9" t="n"/>
+      <c r="J13" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="9" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 200}</t>
+        </is>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>0.0459245688358537</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>0.1590984279759493</v>
+      </c>
+      <c r="N13" s="9" t="n">
+        <v>30281920813604.98</v>
+      </c>
+      <c r="O13" s="9" t="n">
+        <v>0.2143001839379838</v>
+      </c>
+      <c r="P13" s="9" t="n">
+        <v>34.58877209807775</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -1002,25 +1182,61 @@
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.0666218695268989</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.2042446637943182</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>30531350632046.93</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.2581121258811738</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>41.478975421393</v>
+      </c>
       <c r="I14" s="10" t="inlineStr">
         <is>
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="9" t="n"/>
-      <c r="L14" s="9" t="n"/>
-      <c r="M14" s="9" t="n"/>
-      <c r="N14" s="9" t="n"/>
-      <c r="O14" s="9" t="n"/>
-      <c r="P14" s="9" t="n"/>
+      <c r="J14" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="9" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>0.0792262551661031</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>0.2266582563401547</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <v>32579334798389.31</v>
+      </c>
+      <c r="O14" s="9" t="n">
+        <v>0.2814715885593129</v>
+      </c>
+      <c r="P14" s="9" t="n">
+        <v>44.35901471361777</v>
+      </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
@@ -1028,25 +1244,61 @@
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.04858035594790138</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.1728145375122602</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>24577540019586.82</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.2204095187325207</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>37.47328815470511</v>
+      </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="9" t="n"/>
-      <c r="L15" s="9" t="n"/>
-      <c r="M15" s="9" t="n"/>
-      <c r="N15" s="9" t="n"/>
-      <c r="O15" s="9" t="n"/>
-      <c r="P15" s="9" t="n"/>
+      <c r="J15" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>0.05758746314668718</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>0.1806752379602056</v>
+      </c>
+      <c r="N15" s="9" t="n">
+        <v>31281609761679.57</v>
+      </c>
+      <c r="O15" s="9" t="n">
+        <v>0.2399738801342496</v>
+      </c>
+      <c r="P15" s="9" t="n">
+        <v>37.47727745956479</v>
+      </c>
     </row>
     <row r="16" ht="121.5" customHeight="1">
       <c r="A16" s="6" t="inlineStr">
@@ -1056,35 +1308,59 @@
       </c>
       <c r="B16" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> estimators
- max_depth
-    min_samples_split                min_samples_leaf</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="C16" s="14" t="inlineStr">
         <is>
-          <t>randomforest__n_estimators': 50, 'randomforest__min_samples_split': 10, 'randomforest__min_samples_leaf': 2, 'randomforest__max_depth': 10</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.000105676110575295</v>
-      </c>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="5" t="n"/>
+        <v>0.05477605499104927</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.1780503417586267</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>37307080517367.85</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.2340428486218908</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>37.58186036425847</v>
+      </c>
       <c r="I16" s="10" t="inlineStr">
         <is>
           <t>Random Forest Regressor</t>
         </is>
       </c>
-      <c r="J16" s="9" t="n"/>
-      <c r="K16" s="9" t="n"/>
-      <c r="L16" s="9" t="n"/>
-      <c r="M16" s="9" t="n"/>
-      <c r="N16" s="9" t="n"/>
-      <c r="O16" s="9" t="n"/>
-      <c r="P16" s="9" t="n"/>
+      <c r="J16" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K16" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="L16" s="9" t="n">
+        <v>0.05041585527171599</v>
+      </c>
+      <c r="M16" s="9" t="n">
+        <v>0.1724131123083537</v>
+      </c>
+      <c r="N16" s="9" t="n">
+        <v>40367033909192.88</v>
+      </c>
+      <c r="O16" s="9" t="n">
+        <v>0.2245347529263922</v>
+      </c>
+      <c r="P16" s="9" t="n">
+        <v>37.11261776125593</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
@@ -1118,25 +1394,61 @@
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 130, 'max_samples': 0.8, 'max_features': 0.6}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.05439066098328241</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.1699986217875706</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>31493617347458.67</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.2332180545825782</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>35.61158469206799</v>
+      </c>
       <c r="I18" s="10" t="inlineStr">
         <is>
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="J18" s="9" t="n"/>
-      <c r="K18" s="9" t="n"/>
-      <c r="L18" s="9" t="n"/>
-      <c r="M18" s="9" t="n"/>
-      <c r="N18" s="9" t="n"/>
-      <c r="O18" s="9" t="n"/>
-      <c r="P18" s="9" t="n"/>
+      <c r="J18" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 160, 'max_samples': 0.7000000000000001, 'max_features': 0.8}</t>
+        </is>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>0.05257417202267191</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>0.1644433658838213</v>
+      </c>
+      <c r="N18" s="9" t="n">
+        <v>31310083815468.23</v>
+      </c>
+      <c r="O18" s="9" t="n">
+        <v>0.229290584243383</v>
+      </c>
+      <c r="P18" s="9" t="n">
+        <v>34.83410839825803</v>
+      </c>
     </row>
     <row r="19" ht="121.5" customHeight="1">
       <c r="A19" s="6" t="inlineStr">
@@ -1146,33 +1458,59 @@
       </c>
       <c r="B19" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">n_estimators': , 'min_samples_split': , 'min_samples_leaf': , 'max_depth': </t>
+          <t>Random</t>
         </is>
       </c>
       <c r="C19" s="14" t="inlineStr">
         <is>
-          <t>extratrees__n_estimators': 50, 'extratrees__min_samples_split': 10, 'extratrees__min_samples_leaf': 2, 'extratrees__max_depth': 20</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.000101060203005843</v>
-      </c>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
+        <v>0.05202140058831407</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.162196994355189</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>28163248197836.67</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.2280820040869382</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>34.36155420388864</v>
+      </c>
       <c r="I19" s="10" t="inlineStr">
         <is>
           <t>ExtraTreesRegressor</t>
         </is>
       </c>
-      <c r="J19" s="9" t="n"/>
-      <c r="K19" s="9" t="n"/>
-      <c r="L19" s="9" t="n"/>
-      <c r="M19" s="9" t="n"/>
-      <c r="N19" s="9" t="n"/>
-      <c r="O19" s="9" t="n"/>
-      <c r="P19" s="9" t="n"/>
+      <c r="J19" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
+        </is>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>0.05257300274133259</v>
+      </c>
+      <c r="M19" s="9" t="n">
+        <v>0.1622394609100563</v>
+      </c>
+      <c r="N19" s="9" t="n">
+        <v>33335862674565.77</v>
+      </c>
+      <c r="O19" s="9" t="n">
+        <v>0.2292880344486659</v>
+      </c>
+      <c r="P19" s="9" t="n">
+        <v>34.38170048926527</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
@@ -1180,25 +1518,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05643893669031864</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1817373709128455</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>29672692327571.98</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2375688041185514</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>38.37507451538855</v>
+      </c>
       <c r="I20" s="10" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="9" t="n"/>
-      <c r="K20" s="9" t="n"/>
-      <c r="L20" s="9" t="n"/>
-      <c r="M20" s="9" t="n"/>
-      <c r="N20" s="9" t="n"/>
-      <c r="O20" s="9" t="n"/>
-      <c r="P20" s="9" t="n"/>
+      <c r="J20" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>0.05569520035331584</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>0.1755320837707603</v>
+      </c>
+      <c r="N20" s="9" t="n">
+        <v>35180735427536.91</v>
+      </c>
+      <c r="O20" s="9" t="n">
+        <v>0.2359983058272153</v>
+      </c>
+      <c r="P20" s="9" t="n">
+        <v>36.75324451145596</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="13" t="inlineStr">
@@ -1288,25 +1662,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1109362319111824</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2511145174503326</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>42180651515904</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3330709112354041</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>45.91739177703857</v>
+      </c>
       <c r="I22" s="10" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="9" t="n"/>
-      <c r="K22" s="9" t="n"/>
-      <c r="L22" s="9" t="n"/>
-      <c r="M22" s="9" t="n"/>
-      <c r="N22" s="9" t="n"/>
-      <c r="O22" s="9" t="n"/>
-      <c r="P22" s="9" t="n"/>
+      <c r="J22" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>0.1125179678201675</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>0.2597800195217133</v>
+      </c>
+      <c r="N22" s="9" t="n">
+        <v>45847173660672</v>
+      </c>
+      <c r="O22" s="9" t="n">
+        <v>0.3354369804004436</v>
+      </c>
+      <c r="P22" s="9" t="n">
+        <v>46.15036249160767</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -1314,25 +1724,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05987662449479103</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1875183135271072</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1.534429907798767</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2446970054879933</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>37.42221295833588</v>
+      </c>
       <c r="I23" s="10" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="9" t="n"/>
-      <c r="K23" s="9" t="n"/>
-      <c r="L23" s="9" t="n"/>
-      <c r="M23" s="9" t="n"/>
-      <c r="N23" s="9" t="n"/>
-      <c r="O23" s="9" t="n"/>
-      <c r="P23" s="9" t="n"/>
+      <c r="J23" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>0.06115349009633064</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>0.1782332360744476</v>
+      </c>
+      <c r="N23" s="9" t="n">
+        <v>1.609959125518799</v>
+      </c>
+      <c r="O23" s="9" t="n">
+        <v>0.2472923170992796</v>
+      </c>
+      <c r="P23" s="9" t="n">
+        <v>37.60097920894623</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -1340,25 +1786,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.09368893504142761</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1946379393339157</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>38048347717632</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3060864829446534</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>36.5424782037735</v>
+      </c>
       <c r="I24" s="10" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="9" t="n"/>
-      <c r="K24" s="9" t="n"/>
-      <c r="L24" s="9" t="n"/>
-      <c r="M24" s="9" t="n"/>
-      <c r="N24" s="9" t="n"/>
-      <c r="O24" s="9" t="n"/>
-      <c r="P24" s="9" t="n"/>
+      <c r="J24" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="9" t="n">
+        <v>0.1209307610988617</v>
+      </c>
+      <c r="M24" s="9" t="n">
+        <v>0.2427517622709274</v>
+      </c>
+      <c r="N24" s="9" t="n">
+        <v>39040615186432</v>
+      </c>
+      <c r="O24" s="9" t="n">
+        <v>0.3477510044541377</v>
+      </c>
+      <c r="P24" s="9" t="n">
+        <v>42.41117238998413</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1425,7 +1907,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
     </row>
@@ -1589,25 +2071,61 @@
           <t>Support Vector Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'gamma': 0.01, 'C': 10}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.130904282498525</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4437884817066439</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.4105382032401434</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.063439834921809</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>21.40362109777979</v>
+      </c>
       <c r="I9" s="10" t="inlineStr">
         <is>
           <t>Support Vector Regressor</t>
         </is>
       </c>
-      <c r="J9" s="9" t="n"/>
-      <c r="K9" s="9" t="n"/>
-      <c r="L9" s="9" t="n"/>
-      <c r="M9" s="9" t="n"/>
-      <c r="N9" s="9" t="n"/>
-      <c r="O9" s="9" t="n"/>
-      <c r="P9" s="9" t="n"/>
+      <c r="J9" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="9" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
+        </is>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>1.165855503263535</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>0.4909941967291475</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>0.4337791193721656</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>1.079747888751599</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>23.14952117670684</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -1615,25 +2133,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.17587392319595</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.542134936855122</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.4493539452130127</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.084377205217792</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>25.16624985601378</v>
+      </c>
       <c r="I10" s="10" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J10" s="9" t="n"/>
-      <c r="K10" s="9" t="n"/>
-      <c r="L10" s="9" t="n"/>
-      <c r="M10" s="9" t="n"/>
-      <c r="N10" s="9" t="n"/>
-      <c r="O10" s="9" t="n"/>
-      <c r="P10" s="9" t="n"/>
+      <c r="J10" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K10" s="9" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>1.17587392319595</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0.542134936855122</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>0.4493539452130127</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>1.084377205217792</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>25.16624985601378</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
@@ -1641,25 +2195,61 @@
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.9569747602495362</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5268067431980986</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3917447569910641</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.9782508677479086</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>25.89795971369337</v>
+      </c>
       <c r="I11" s="10" t="inlineStr">
         <is>
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="J11" s="9" t="n"/>
-      <c r="K11" s="9" t="n"/>
-      <c r="L11" s="9" t="n"/>
-      <c r="M11" s="9" t="n"/>
-      <c r="N11" s="9" t="n"/>
-      <c r="O11" s="9" t="n"/>
-      <c r="P11" s="9" t="n"/>
+      <c r="J11" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="9" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+        </is>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>0.9706975168837414</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>0.5440797010572664</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <v>0.3977218966443951</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <v>0.9852398270896997</v>
+      </c>
+      <c r="P11" s="9" t="n">
+        <v>26.52235946415572</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
@@ -1667,25 +2257,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="5" t="n"/>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="5" t="n"/>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.081698203688613</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.6184552845970829</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.439452950185602</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.040047212240201</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>28.97577147699427</v>
+      </c>
       <c r="I12" s="10" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J12" s="9" t="n"/>
-      <c r="K12" s="9" t="n"/>
-      <c r="L12" s="9" t="n"/>
-      <c r="M12" s="9" t="n"/>
-      <c r="N12" s="9" t="n"/>
-      <c r="O12" s="9" t="n"/>
-      <c r="P12" s="9" t="n"/>
+      <c r="J12" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K12" s="9" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L12" s="9" t="n">
+        <v>1.081538008949465</v>
+      </c>
+      <c r="M12" s="9" t="n">
+        <v>0.6184742585908347</v>
+      </c>
+      <c r="N12" s="9" t="n">
+        <v>0.4394225125756885</v>
+      </c>
+      <c r="O12" s="9" t="n">
+        <v>1.039970196183268</v>
+      </c>
+      <c r="P12" s="9" t="n">
+        <v>28.97775448284857</v>
+      </c>
     </row>
     <row r="13" ht="45.75" customHeight="1">
       <c r="A13" s="13" t="inlineStr">
@@ -1775,25 +2401,61 @@
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.9403149069695131</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.5500469110278071</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3900569333681942</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.9696983587536452</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>27.20632824961854</v>
+      </c>
       <c r="I14" s="10" t="inlineStr">
         <is>
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="9" t="n"/>
-      <c r="L14" s="9" t="n"/>
-      <c r="M14" s="9" t="n"/>
-      <c r="N14" s="9" t="n"/>
-      <c r="O14" s="9" t="n"/>
-      <c r="P14" s="9" t="n"/>
+      <c r="J14" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="9" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>0.9587068466961158</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>0.5719455935434048</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <v>0.3891201691918971</v>
+      </c>
+      <c r="O14" s="9" t="n">
+        <v>0.9791357652011879</v>
+      </c>
+      <c r="P14" s="9" t="n">
+        <v>28.36935967190319</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
@@ -1801,25 +2463,61 @@
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.164859218254028</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.4782691979690125</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.4257936979033987</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.079286439391336</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>22.58600832401563</v>
+      </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="9" t="n"/>
-      <c r="L15" s="9" t="n"/>
-      <c r="M15" s="9" t="n"/>
-      <c r="N15" s="9" t="n"/>
-      <c r="O15" s="9" t="n"/>
-      <c r="P15" s="9" t="n"/>
+      <c r="J15" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="9" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>1.075665092266695</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>0.4790265388023112</v>
+      </c>
+      <c r="N15" s="9" t="n">
+        <v>0.4150903979035701</v>
+      </c>
+      <c r="O15" s="9" t="n">
+        <v>1.037142754044348</v>
+      </c>
+      <c r="P15" s="9" t="n">
+        <v>23.03398150167169</v>
+      </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
       <c r="A16" s="6" t="inlineStr">
@@ -1827,25 +2525,61 @@
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="B16" s="5" t="n"/>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="5" t="n"/>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.9945575943618327</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.5932308618893616</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.4263003720516071</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.9972750845989449</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>28.38594845675544</v>
+      </c>
       <c r="I16" s="10" t="inlineStr">
         <is>
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="J16" s="9" t="n"/>
-      <c r="K16" s="9" t="n"/>
-      <c r="L16" s="9" t="n"/>
-      <c r="M16" s="9" t="n"/>
-      <c r="N16" s="9" t="n"/>
-      <c r="O16" s="9" t="n"/>
-      <c r="P16" s="9" t="n"/>
+      <c r="J16" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K16" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="L16" s="9" t="n">
+        <v>1.041436387563332</v>
+      </c>
+      <c r="M16" s="9" t="n">
+        <v>0.6085733989883543</v>
+      </c>
+      <c r="N16" s="9" t="n">
+        <v>0.4319400500489951</v>
+      </c>
+      <c r="O16" s="9" t="n">
+        <v>1.0205079066638</v>
+      </c>
+      <c r="P16" s="9" t="n">
+        <v>28.79701708619751</v>
+      </c>
     </row>
     <row r="17" ht="60.75" customHeight="1">
       <c r="A17" s="6" t="inlineStr">
@@ -1855,35 +2589,59 @@
       </c>
       <c r="B17" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> estimators
- max_depth
-    min_samples_split                min_samples_leaf</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="C17" s="14" t="inlineStr">
         <is>
-          <t>n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.895834350568731</v>
-      </c>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="5" t="n"/>
+        <v>1.039401289035992</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.5411816446996572</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0.4044999661789511</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>1.019510318258718</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>26.2069975237687</v>
+      </c>
       <c r="I17" s="10" t="inlineStr">
         <is>
           <t>Random Forest Regressor</t>
         </is>
       </c>
-      <c r="J17" s="9" t="n"/>
-      <c r="K17" s="9" t="n"/>
-      <c r="L17" s="9" t="n"/>
-      <c r="M17" s="9" t="n"/>
-      <c r="N17" s="9" t="n"/>
-      <c r="O17" s="9" t="n"/>
-      <c r="P17" s="9" t="n"/>
+      <c r="J17" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K17" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+        </is>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>1.062987373662085</v>
+      </c>
+      <c r="M17" s="9" t="n">
+        <v>0.5576374568168149</v>
+      </c>
+      <c r="N17" s="9" t="n">
+        <v>0.4063928659054855</v>
+      </c>
+      <c r="O17" s="9" t="n">
+        <v>1.031012790251452</v>
+      </c>
+      <c r="P17" s="9" t="n">
+        <v>26.82088751199044</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
@@ -1917,25 +2675,61 @@
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="B19" s="5" t="n"/>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1.06770078811332</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.6107885836806204</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.437339334451594</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>1.03329607959835</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>28.90179086298496</v>
+      </c>
       <c r="I19" s="10" t="inlineStr">
         <is>
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="J19" s="9" t="n"/>
-      <c r="K19" s="9" t="n"/>
-      <c r="L19" s="9" t="n"/>
-      <c r="M19" s="9" t="n"/>
-      <c r="N19" s="9" t="n"/>
-      <c r="O19" s="9" t="n"/>
-      <c r="P19" s="9" t="n"/>
+      <c r="J19" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>1.083949653302063</v>
+      </c>
+      <c r="M19" s="9" t="n">
+        <v>0.6260830487814083</v>
+      </c>
+      <c r="N19" s="9" t="n">
+        <v>0.4397748187436201</v>
+      </c>
+      <c r="O19" s="9" t="n">
+        <v>1.041129028171851</v>
+      </c>
+      <c r="P19" s="9" t="n">
+        <v>29.46115557094499</v>
+      </c>
     </row>
     <row r="20" ht="60.75" customHeight="1">
       <c r="A20" s="6" t="inlineStr">
@@ -1945,33 +2739,59 @@
       </c>
       <c r="B20" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">n_estimators': , 'min_samples_split': , 'min_samples_leaf': , 'max_depth': </t>
+          <t>Random</t>
         </is>
       </c>
       <c r="C20" s="14" t="inlineStr">
         <is>
-          <t>n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.767402871439211</v>
-      </c>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+        <v>0.9828892698692978</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.5335626299650944</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3981500318472815</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.9914077213080892</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>26.04941697079651</v>
+      </c>
       <c r="I20" s="10" t="inlineStr">
         <is>
           <t>ExtraTreesRegressor</t>
         </is>
       </c>
-      <c r="J20" s="9" t="n"/>
-      <c r="K20" s="9" t="n"/>
-      <c r="L20" s="9" t="n"/>
-      <c r="M20" s="9" t="n"/>
-      <c r="N20" s="9" t="n"/>
-      <c r="O20" s="9" t="n"/>
-      <c r="P20" s="9" t="n"/>
+      <c r="J20" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>1.021170547031419</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>0.5948458125116771</v>
+      </c>
+      <c r="N20" s="9" t="n">
+        <v>0.4258979923377278</v>
+      </c>
+      <c r="O20" s="9" t="n">
+        <v>1.010529834805197</v>
+      </c>
+      <c r="P20" s="9" t="n">
+        <v>28.95287653286861</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
@@ -1979,25 +2799,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B21" s="5" t="n"/>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="5" t="n"/>
-      <c r="E21" s="5" t="n"/>
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="5" t="n"/>
-      <c r="H21" s="5" t="n"/>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.9623461032507321</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.550887190712376</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0.4017448459373358</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.9809924073359243</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>27.51332349646541</v>
+      </c>
       <c r="I21" s="10" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J21" s="9" t="n"/>
-      <c r="K21" s="9" t="n"/>
-      <c r="L21" s="9" t="n"/>
-      <c r="M21" s="9" t="n"/>
-      <c r="N21" s="9" t="n"/>
-      <c r="O21" s="9" t="n"/>
-      <c r="P21" s="9" t="n"/>
+      <c r="J21" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K21" s="9" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L21" s="9" t="n">
+        <v>1.082395165797368</v>
+      </c>
+      <c r="M21" s="9" t="n">
+        <v>0.5665773918272808</v>
+      </c>
+      <c r="N21" s="9" t="n">
+        <v>0.4163995926594141</v>
+      </c>
+      <c r="O21" s="9" t="n">
+        <v>1.040382221011762</v>
+      </c>
+      <c r="P21" s="9" t="n">
+        <v>27.3821357147846</v>
+      </c>
     </row>
     <row r="22" ht="45.75" customHeight="1">
       <c r="A22" s="13" t="inlineStr">
@@ -2087,25 +2943,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1.562433838844299</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.6915273070335388</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.5574319362640381</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>1.249973535257567</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>29.48063313961029</v>
+      </c>
       <c r="I23" s="10" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J23" s="9" t="n"/>
-      <c r="K23" s="9" t="n"/>
-      <c r="L23" s="9" t="n"/>
-      <c r="M23" s="9" t="n"/>
-      <c r="N23" s="9" t="n"/>
-      <c r="O23" s="9" t="n"/>
-      <c r="P23" s="9" t="n"/>
+      <c r="J23" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>1.546039938926697</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>0.6856864094734192</v>
+      </c>
+      <c r="N23" s="9" t="n">
+        <v>0.5536273121833801</v>
+      </c>
+      <c r="O23" s="9" t="n">
+        <v>1.243398543881525</v>
+      </c>
+      <c r="P23" s="9" t="n">
+        <v>29.28182482719421</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -2113,25 +3005,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.6615538597106934</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.4542336761951447</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3668562471866608</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.8133596127855706</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>20.65409421920776</v>
+      </c>
       <c r="I24" s="10" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J24" s="9" t="n"/>
-      <c r="K24" s="9" t="n"/>
-      <c r="L24" s="9" t="n"/>
-      <c r="M24" s="9" t="n"/>
-      <c r="N24" s="9" t="n"/>
-      <c r="O24" s="9" t="n"/>
-      <c r="P24" s="9" t="n"/>
+      <c r="J24" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L24" s="9" t="n">
+        <v>0.6384634971618652</v>
+      </c>
+      <c r="M24" s="9" t="n">
+        <v>0.4540310502052307</v>
+      </c>
+      <c r="N24" s="9" t="n">
+        <v>0.3624594211578369</v>
+      </c>
+      <c r="O24" s="9" t="n">
+        <v>0.7990391086560564</v>
+      </c>
+      <c r="P24" s="9" t="n">
+        <v>20.5717146396637</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1">
       <c r="A25" s="6" t="inlineStr">
@@ -2139,25 +3067,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B25" s="5" t="n"/>
-      <c r="C25" s="5" t="n"/>
-      <c r="D25" s="5" t="n"/>
-      <c r="E25" s="5" t="n"/>
-      <c r="F25" s="5" t="n"/>
-      <c r="G25" s="5" t="n"/>
-      <c r="H25" s="5" t="n"/>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>1.297836542129517</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>0.5435773730278015</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0.4763951599597931</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>1.13922629101049</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>24.72577095031738</v>
+      </c>
       <c r="I25" s="10" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J25" s="9" t="n"/>
-      <c r="K25" s="9" t="n"/>
-      <c r="L25" s="9" t="n"/>
-      <c r="M25" s="9" t="n"/>
-      <c r="N25" s="9" t="n"/>
-      <c r="O25" s="9" t="n"/>
-      <c r="P25" s="9" t="n"/>
+      <c r="J25" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K25" s="9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L25" s="9" t="n">
+        <v>1.44813334941864</v>
+      </c>
+      <c r="M25" s="9" t="n">
+        <v>0.619047999382019</v>
+      </c>
+      <c r="N25" s="9" t="n">
+        <v>0.5194792747497559</v>
+      </c>
+      <c r="O25" s="9" t="n">
+        <v>1.203384123801972</v>
+      </c>
+      <c r="P25" s="9" t="n">
+        <v>26.99968814849854</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2381,25 +3345,61 @@
           <t>Support Vector Regressor</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>{'kernel': 'linear', 'gamma': 0.001, 'C': 10}</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>26.11248682795847</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>3.561338687310512</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>5.711580457232468</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>5.110037849953605</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>33.35997272317783</v>
+      </c>
       <c r="I8" s="10" t="inlineStr">
         <is>
           <t>Support Vector Regressor</t>
         </is>
       </c>
-      <c r="J8" s="9" t="n"/>
-      <c r="K8" s="9" t="n"/>
-      <c r="L8" s="9" t="n"/>
-      <c r="M8" s="9" t="n"/>
-      <c r="N8" s="9" t="n"/>
-      <c r="O8" s="9" t="n"/>
-      <c r="P8" s="9" t="n"/>
+      <c r="J8" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K8" s="9" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
+        </is>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>36.95107740526482</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>4.682720459285983</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>6.527820467980193</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>6.078739787592887</v>
+      </c>
+      <c r="P8" s="9" t="n">
+        <v>40.07034590260032</v>
+      </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -2407,25 +3407,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>37.93491059635357</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.790246422</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.534068425374052</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>6.159132292486789</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>40.77113724021233</v>
+      </c>
       <c r="I9" s="10" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="9" t="n"/>
-      <c r="K9" s="9" t="n"/>
-      <c r="L9" s="9" t="n"/>
-      <c r="M9" s="9" t="n"/>
-      <c r="N9" s="9" t="n"/>
-      <c r="O9" s="9" t="n"/>
-      <c r="P9" s="9" t="n"/>
+      <c r="J9" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="9" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>37.93491059635357</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>4.790246422</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>6.534068425374052</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>6.159132292486789</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>40.77113724021233</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -2433,25 +3469,61 @@
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>{'weights': 'distance', 'n_neighbors': 8}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>28.39929049793695</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.015154254610752</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>5.203320169370525</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>5.329098469529058</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>36.63206211284042</v>
+      </c>
       <c r="I10" s="10" t="inlineStr">
         <is>
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="J10" s="9" t="n"/>
-      <c r="K10" s="9" t="n"/>
-      <c r="L10" s="9" t="n"/>
-      <c r="M10" s="9" t="n"/>
-      <c r="N10" s="9" t="n"/>
-      <c r="O10" s="9" t="n"/>
-      <c r="P10" s="9" t="n"/>
+      <c r="J10" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K10" s="9" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 5}</t>
+        </is>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>29.77687386254787</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>3.974233548778572</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>4.415819819983638</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>5.456819024170389</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>35.97128897790859</v>
+      </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -2459,25 +3531,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>24.38213373168102</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>3.721259967419118</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>4.910374278031714</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>4.937826822771433</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>36.15463364887827</v>
+      </c>
       <c r="I11" s="10" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="9" t="n"/>
-      <c r="K11" s="9" t="n"/>
-      <c r="L11" s="9" t="n"/>
-      <c r="M11" s="9" t="n"/>
-      <c r="N11" s="9" t="n"/>
-      <c r="O11" s="9" t="n"/>
-      <c r="P11" s="9" t="n"/>
+      <c r="J11" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="9" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>25.25243460792232</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>3.826807555099092</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <v>5.077508371075622</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <v>5.025180057263851</v>
+      </c>
+      <c r="P11" s="9" t="n">
+        <v>37.1867988572913</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
@@ -2567,25 +3675,61 @@
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>27.41774110224774</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.952685511410621</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.584053967617194</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>5.236195288780561</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>35.98082234734337</v>
+      </c>
       <c r="I13" s="10" t="inlineStr">
         <is>
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="9" t="n"/>
-      <c r="L13" s="9" t="n"/>
-      <c r="M13" s="9" t="n"/>
-      <c r="N13" s="9" t="n"/>
-      <c r="O13" s="9" t="n"/>
-      <c r="P13" s="9" t="n"/>
+      <c r="J13" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="9" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>26.80824575915016</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>3.882486114131463</v>
+      </c>
+      <c r="N13" s="9" t="n">
+        <v>6.339120212219036</v>
+      </c>
+      <c r="O13" s="9" t="n">
+        <v>5.177667984638466</v>
+      </c>
+      <c r="P13" s="9" t="n">
+        <v>35.59787593492813</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -2593,25 +3737,61 @@
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>32.04879547023896</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.260859215433762</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>6.346018981242646</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>5.661165557571953</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>37.31686185340079</v>
+      </c>
       <c r="I14" s="10" t="inlineStr">
         <is>
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="9" t="n"/>
-      <c r="L14" s="9" t="n"/>
-      <c r="M14" s="9" t="n"/>
-      <c r="N14" s="9" t="n"/>
-      <c r="O14" s="9" t="n"/>
-      <c r="P14" s="9" t="n"/>
+      <c r="J14" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="9" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>31.91034607274687</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>4.162260353991712</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <v>6.543326091527682</v>
+      </c>
+      <c r="O14" s="9" t="n">
+        <v>5.648924328821096</v>
+      </c>
+      <c r="P14" s="9" t="n">
+        <v>36.80060909880642</v>
+      </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
@@ -2619,25 +3799,61 @@
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>31.36810672624518</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.341778960513132</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.718005327206847</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>5.600723768071871</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>38.51947497566906</v>
+      </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="9" t="n"/>
-      <c r="L15" s="9" t="n"/>
-      <c r="M15" s="9" t="n"/>
-      <c r="N15" s="9" t="n"/>
-      <c r="O15" s="9" t="n"/>
-      <c r="P15" s="9" t="n"/>
+      <c r="J15" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>35.19506398922938</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>4.620753953244325</v>
+      </c>
+      <c r="N15" s="9" t="n">
+        <v>5.907285070770412</v>
+      </c>
+      <c r="O15" s="9" t="n">
+        <v>5.932542792869628</v>
+      </c>
+      <c r="P15" s="9" t="n">
+        <v>40.16624843997424</v>
+      </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
       <c r="A16" s="6" t="inlineStr">
@@ -2645,25 +3861,61 @@
           <t>Random Forest Regressor</t>
         </is>
       </c>
-      <c r="B16" s="5" t="n"/>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="5" t="n"/>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 200, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>30.97836378294555</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>4.339585066708834</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>5.568001908407693</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>5.565821034038513</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>38.78468156859243</v>
+      </c>
       <c r="I16" s="10" t="inlineStr">
         <is>
           <t>Random Forest Regressor</t>
         </is>
       </c>
-      <c r="J16" s="9" t="n"/>
-      <c r="K16" s="9" t="n"/>
-      <c r="L16" s="9" t="n"/>
-      <c r="M16" s="9" t="n"/>
-      <c r="N16" s="9" t="n"/>
-      <c r="O16" s="9" t="n"/>
-      <c r="P16" s="9" t="n"/>
+      <c r="J16" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K16" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="L16" s="9" t="n">
+        <v>36.86978470875032</v>
+      </c>
+      <c r="M16" s="9" t="n">
+        <v>4.77038192436572</v>
+      </c>
+      <c r="N16" s="9" t="n">
+        <v>7.397298749854768</v>
+      </c>
+      <c r="O16" s="9" t="n">
+        <v>6.072049465275322</v>
+      </c>
+      <c r="P16" s="9" t="n">
+        <v>41.46176355469647</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
@@ -2697,25 +3949,61 @@
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 50, 'max_samples': 0.7000000000000001, 'max_features': 0.9}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>31.39712571509215</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>4.391701058106904</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>4.62951315624832</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>5.603313815510617</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>39.56475222122406</v>
+      </c>
       <c r="I18" s="10" t="inlineStr">
         <is>
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="J18" s="9" t="n"/>
-      <c r="K18" s="9" t="n"/>
-      <c r="L18" s="9" t="n"/>
-      <c r="M18" s="9" t="n"/>
-      <c r="N18" s="9" t="n"/>
-      <c r="O18" s="9" t="n"/>
-      <c r="P18" s="9" t="n"/>
+      <c r="J18" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>36.66935339727089</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>4.687389158444522</v>
+      </c>
+      <c r="N18" s="9" t="n">
+        <v>6.230414981585129</v>
+      </c>
+      <c r="O18" s="9" t="n">
+        <v>6.0555225536093</v>
+      </c>
+      <c r="P18" s="9" t="n">
+        <v>40.59662508643596</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
@@ -2723,25 +4011,61 @@
           <t>ExtraTreesRegressor</t>
         </is>
       </c>
-      <c r="B19" s="5" t="n"/>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>31.3517183468809</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>4.228061083600325</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>5.998907882557015</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>5.599260517861345</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>37.48916657974199</v>
+      </c>
       <c r="I19" s="10" t="inlineStr">
         <is>
           <t>ExtraTreesRegressor</t>
         </is>
       </c>
-      <c r="J19" s="9" t="n"/>
-      <c r="K19" s="9" t="n"/>
-      <c r="L19" s="9" t="n"/>
-      <c r="M19" s="9" t="n"/>
-      <c r="N19" s="9" t="n"/>
-      <c r="O19" s="9" t="n"/>
-      <c r="P19" s="9" t="n"/>
+      <c r="J19" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>29.61842709611444</v>
+      </c>
+      <c r="M19" s="9" t="n">
+        <v>4.177275906434674</v>
+      </c>
+      <c r="N19" s="9" t="n">
+        <v>6.128951318322025</v>
+      </c>
+      <c r="O19" s="9" t="n">
+        <v>5.442281423825346</v>
+      </c>
+      <c r="P19" s="9" t="n">
+        <v>37.88836425301415</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
@@ -2749,25 +4073,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>31.32515383308551</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>4.252490032766125</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>5.23774143593945</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>5.596887870333433</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>38.11177781562695</v>
+      </c>
       <c r="I20" s="10" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="9" t="n"/>
-      <c r="K20" s="9" t="n"/>
-      <c r="L20" s="9" t="n"/>
-      <c r="M20" s="9" t="n"/>
-      <c r="N20" s="9" t="n"/>
-      <c r="O20" s="9" t="n"/>
-      <c r="P20" s="9" t="n"/>
+      <c r="J20" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>30.9822853905176</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>4.33117769020645</v>
+      </c>
+      <c r="N20" s="9" t="n">
+        <v>6.423935038527309</v>
+      </c>
+      <c r="O20" s="9" t="n">
+        <v>5.566173316607883</v>
+      </c>
+      <c r="P20" s="9" t="n">
+        <v>39.07496519051355</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="13" t="inlineStr">
@@ -2857,25 +4217,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>73.36890411376953</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>6.678519248962402</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>9.125569343566895</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>8.565565020112189</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>48.13028872013092</v>
+      </c>
       <c r="I22" s="10" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="9" t="n"/>
-      <c r="K22" s="9" t="n"/>
-      <c r="L22" s="9" t="n"/>
-      <c r="M22" s="9" t="n"/>
-      <c r="N22" s="9" t="n"/>
-      <c r="O22" s="9" t="n"/>
-      <c r="P22" s="9" t="n"/>
+      <c r="J22" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 100, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>71.57781982421875</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>6.582306861877441</v>
+      </c>
+      <c r="N22" s="9" t="n">
+        <v>9.049236297607422</v>
+      </c>
+      <c r="O22" s="9" t="n">
+        <v>8.460367593918054</v>
+      </c>
+      <c r="P22" s="9" t="n">
+        <v>47.75717854499817</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -2883,25 +4279,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>48.10995864868164</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>5.429325580596924</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1.67991304397583</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>6.936134272682561</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>39.67654705047607</v>
+      </c>
       <c r="I23" s="10" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="9" t="n"/>
-      <c r="K23" s="9" t="n"/>
-      <c r="L23" s="9" t="n"/>
-      <c r="M23" s="9" t="n"/>
-      <c r="N23" s="9" t="n"/>
-      <c r="O23" s="9" t="n"/>
-      <c r="P23" s="9" t="n"/>
+      <c r="J23" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>48.45773696899414</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>5.430630683898926</v>
+      </c>
+      <c r="N23" s="9" t="n">
+        <v>1.68404233455658</v>
+      </c>
+      <c r="O23" s="9" t="n">
+        <v>6.961159168485816</v>
+      </c>
+      <c r="P23" s="9" t="n">
+        <v>39.59405124187469</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -2909,25 +4341,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>41.40003204345703</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>4.927115917205811</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>7.108656406402588</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>6.434285666914163</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>40.87631702423096</v>
+      </c>
       <c r="I24" s="10" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="9" t="n"/>
-      <c r="K24" s="9" t="n"/>
-      <c r="L24" s="9" t="n"/>
-      <c r="M24" s="9" t="n"/>
-      <c r="N24" s="9" t="n"/>
-      <c r="O24" s="9" t="n"/>
-      <c r="P24" s="9" t="n"/>
+      <c r="J24" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="9" t="n">
+        <v>61.05758285522461</v>
+      </c>
+      <c r="M24" s="9" t="n">
+        <v>6.008540630340576</v>
+      </c>
+      <c r="N24" s="9" t="n">
+        <v>8.550191879272461</v>
+      </c>
+      <c r="O24" s="9" t="n">
+        <v>7.81393517091258</v>
+      </c>
+      <c r="P24" s="9" t="n">
+        <v>45.38855850696564</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3151,25 +4619,61 @@
           <t>Support Vector Regressor</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>{'kernel': 'linear', 'gamma': 0.001, 'C': 10}</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>27.38316309232836</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>3.601315379740997</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>5.985627829643017</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>5.232892421245478</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>33.23641646609207</v>
+      </c>
       <c r="I8" s="10" t="inlineStr">
         <is>
           <t>Support Vector Regressor</t>
         </is>
       </c>
-      <c r="J8" s="9" t="n"/>
-      <c r="K8" s="9" t="n"/>
-      <c r="L8" s="9" t="n"/>
-      <c r="M8" s="9" t="n"/>
-      <c r="N8" s="9" t="n"/>
-      <c r="O8" s="9" t="n"/>
-      <c r="P8" s="9" t="n"/>
+      <c r="J8" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K8" s="9" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
+        </is>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>37.02413305875007</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>4.691134621129287</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>6.532851167981763</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>6.084745932144585</v>
+      </c>
+      <c r="P8" s="9" t="n">
+        <v>40.12099701609962</v>
+      </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -3177,25 +4681,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>37.93491059635357</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.790246422</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.534068425374052</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>6.159132292486789</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>40.77113724021233</v>
+      </c>
       <c r="I9" s="10" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="9" t="n"/>
-      <c r="K9" s="9" t="n"/>
-      <c r="L9" s="9" t="n"/>
-      <c r="M9" s="9" t="n"/>
-      <c r="N9" s="9" t="n"/>
-      <c r="O9" s="9" t="n"/>
-      <c r="P9" s="9" t="n"/>
+      <c r="J9" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="9" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>37.93491059635357</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>4.790246422</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>6.534068425374052</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>6.159132292486789</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>40.77113724021233</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -3203,25 +4743,61 @@
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 5}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>33.7948868741673</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.362683432240477</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>5.701938009230512</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>5.813336982677617</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>38.60000846567332</v>
+      </c>
       <c r="I10" s="10" t="inlineStr">
         <is>
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="J10" s="9" t="n"/>
-      <c r="K10" s="9" t="n"/>
-      <c r="L10" s="9" t="n"/>
-      <c r="M10" s="9" t="n"/>
-      <c r="N10" s="9" t="n"/>
-      <c r="O10" s="9" t="n"/>
-      <c r="P10" s="9" t="n"/>
+      <c r="J10" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K10" s="9" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 5}</t>
+        </is>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>31.60625994721762</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>4.156675442721428</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>5.639877398017348</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>5.621944498767096</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>37.15675416759371</v>
+      </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -3229,25 +4805,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>26.08678667294616</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>3.841660823080328</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>5.095655727192264</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>5.107522557262588</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>36.74038292325999</v>
+      </c>
       <c r="I11" s="10" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="9" t="n"/>
-      <c r="K11" s="9" t="n"/>
-      <c r="L11" s="9" t="n"/>
-      <c r="M11" s="9" t="n"/>
-      <c r="N11" s="9" t="n"/>
-      <c r="O11" s="9" t="n"/>
-      <c r="P11" s="9" t="n"/>
+      <c r="J11" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="9" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>26.70174071466694</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>3.918958172525036</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <v>5.018379852234511</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <v>5.16737270909182</v>
+      </c>
+      <c r="P11" s="9" t="n">
+        <v>37.82820569305358</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
@@ -3337,25 +4949,61 @@
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>27.87914484952181</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.047071092595024</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.427605759803264</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>5.280070534521467</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>36.79249463820467</v>
+      </c>
       <c r="I13" s="10" t="inlineStr">
         <is>
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="9" t="n"/>
-      <c r="L13" s="9" t="n"/>
-      <c r="M13" s="9" t="n"/>
-      <c r="N13" s="9" t="n"/>
-      <c r="O13" s="9" t="n"/>
-      <c r="P13" s="9" t="n"/>
+      <c r="J13" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="9" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>29.20603551068569</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>4.147026924210634</v>
+      </c>
+      <c r="N13" s="9" t="n">
+        <v>5.689666099644039</v>
+      </c>
+      <c r="O13" s="9" t="n">
+        <v>5.404260866268919</v>
+      </c>
+      <c r="P13" s="9" t="n">
+        <v>37.65906961853243</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -3363,25 +5011,61 @@
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>32.42763916135767</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.224415096282679</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>6.809624177703693</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>5.694527123594871</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>37.02703507159434</v>
+      </c>
       <c r="I14" s="10" t="inlineStr">
         <is>
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="9" t="n"/>
-      <c r="L14" s="9" t="n"/>
-      <c r="M14" s="9" t="n"/>
-      <c r="N14" s="9" t="n"/>
-      <c r="O14" s="9" t="n"/>
-      <c r="P14" s="9" t="n"/>
+      <c r="J14" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="9" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>37.07755175031112</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>4.448584720154662</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <v>6.730244588138894</v>
+      </c>
+      <c r="O14" s="9" t="n">
+        <v>6.089133908062059</v>
+      </c>
+      <c r="P14" s="9" t="n">
+        <v>38.16033384788638</v>
+      </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
@@ -3389,25 +5073,61 @@
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>36.96797253833843</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.758707154598017</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.261014675583874</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>6.080129319211758</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>40.98128717716027</v>
+      </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="9" t="n"/>
-      <c r="L15" s="9" t="n"/>
-      <c r="M15" s="9" t="n"/>
-      <c r="N15" s="9" t="n"/>
-      <c r="O15" s="9" t="n"/>
-      <c r="P15" s="9" t="n"/>
+      <c r="J15" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>37.61644661572125</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>4.831897393287324</v>
+      </c>
+      <c r="N15" s="9" t="n">
+        <v>6.159094959137863</v>
+      </c>
+      <c r="O15" s="9" t="n">
+        <v>6.13322481372738</v>
+      </c>
+      <c r="P15" s="9" t="n">
+        <v>41.5659194518093</v>
+      </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
       <c r="A16" s="6" t="inlineStr">
@@ -3415,25 +5135,61 @@
           <t>Random Forest Regressor</t>
         </is>
       </c>
-      <c r="B16" s="5" t="n"/>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="5" t="n"/>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 200, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>35.98475212520386</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>4.816424685161666</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>5.014092747271918</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>5.998729209191215</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>42.46372887369515</v>
+      </c>
       <c r="I16" s="10" t="inlineStr">
         <is>
           <t>Random Forest Regressor</t>
         </is>
       </c>
-      <c r="J16" s="9" t="n"/>
-      <c r="K16" s="9" t="n"/>
-      <c r="L16" s="9" t="n"/>
-      <c r="M16" s="9" t="n"/>
-      <c r="N16" s="9" t="n"/>
-      <c r="O16" s="9" t="n"/>
-      <c r="P16" s="9" t="n"/>
+      <c r="J16" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K16" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
+        </is>
+      </c>
+      <c r="L16" s="9" t="n">
+        <v>35.93253824061456</v>
+      </c>
+      <c r="M16" s="9" t="n">
+        <v>4.763812963591763</v>
+      </c>
+      <c r="N16" s="9" t="n">
+        <v>5.427943490711338</v>
+      </c>
+      <c r="O16" s="9" t="n">
+        <v>5.994375550515213</v>
+      </c>
+      <c r="P16" s="9" t="n">
+        <v>42.36829986490164</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
@@ -3467,25 +5223,61 @@
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>38.08579031739394</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>4.895792680052698</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>6.023110215334791</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>6.171368593545028</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>42.30560264433257</v>
+      </c>
       <c r="I18" s="10" t="inlineStr">
         <is>
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="J18" s="9" t="n"/>
-      <c r="K18" s="9" t="n"/>
-      <c r="L18" s="9" t="n"/>
-      <c r="M18" s="9" t="n"/>
-      <c r="N18" s="9" t="n"/>
-      <c r="O18" s="9" t="n"/>
-      <c r="P18" s="9" t="n"/>
+      <c r="J18" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>39.38661598458956</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>5.024389781379286</v>
+      </c>
+      <c r="N18" s="9" t="n">
+        <v>6.373407275779682</v>
+      </c>
+      <c r="O18" s="9" t="n">
+        <v>6.27587571455885</v>
+      </c>
+      <c r="P18" s="9" t="n">
+        <v>43.33565922799993</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
@@ -3493,25 +5285,61 @@
           <t>ExtraTreesRegressor</t>
         </is>
       </c>
-      <c r="B19" s="5" t="n"/>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>34.53795091386883</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>4.557471903888275</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>5.498126282307611</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>5.876899770616207</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>40.05748920114723</v>
+      </c>
       <c r="I19" s="10" t="inlineStr">
         <is>
           <t>ExtraTreesRegressor</t>
         </is>
       </c>
-      <c r="J19" s="9" t="n"/>
-      <c r="K19" s="9" t="n"/>
-      <c r="L19" s="9" t="n"/>
-      <c r="M19" s="9" t="n"/>
-      <c r="N19" s="9" t="n"/>
-      <c r="O19" s="9" t="n"/>
-      <c r="P19" s="9" t="n"/>
+      <c r="J19" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>33.25397836801335</v>
+      </c>
+      <c r="M19" s="9" t="n">
+        <v>4.498437986624465</v>
+      </c>
+      <c r="N19" s="9" t="n">
+        <v>5.935324168366484</v>
+      </c>
+      <c r="O19" s="9" t="n">
+        <v>5.766626255273819</v>
+      </c>
+      <c r="P19" s="9" t="n">
+        <v>40.15673934322928</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
@@ -3519,25 +5347,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>31.80433902875639</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>4.437280335858217</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>4.292398740791193</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>5.63953358255418</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>39.82995602443007</v>
+      </c>
       <c r="I20" s="10" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="9" t="n"/>
-      <c r="K20" s="9" t="n"/>
-      <c r="L20" s="9" t="n"/>
-      <c r="M20" s="9" t="n"/>
-      <c r="N20" s="9" t="n"/>
-      <c r="O20" s="9" t="n"/>
-      <c r="P20" s="9" t="n"/>
+      <c r="J20" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>41.7734795832568</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>5.021124214643955</v>
+      </c>
+      <c r="N20" s="9" t="n">
+        <v>6.559898667383125</v>
+      </c>
+      <c r="O20" s="9" t="n">
+        <v>6.46324064098319</v>
+      </c>
+      <c r="P20" s="9" t="n">
+        <v>43.13147677483455</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="13" t="inlineStr">
@@ -3627,25 +5491,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>37.68510437011719</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>4.817421913146973</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>6.329471588134766</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>6.138819460622472</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>41.20846688747406</v>
+      </c>
       <c r="I22" s="10" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="9" t="n"/>
-      <c r="K22" s="9" t="n"/>
-      <c r="L22" s="9" t="n"/>
-      <c r="M22" s="9" t="n"/>
-      <c r="N22" s="9" t="n"/>
-      <c r="O22" s="9" t="n"/>
-      <c r="P22" s="9" t="n"/>
+      <c r="J22" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>37.68503189086914</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>4.817483901977539</v>
+      </c>
+      <c r="N22" s="9" t="n">
+        <v>6.329084873199463</v>
+      </c>
+      <c r="O22" s="9" t="n">
+        <v>6.138813557265698</v>
+      </c>
+      <c r="P22" s="9" t="n">
+        <v>41.20936989784241</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -3653,25 +5553,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>48.09633255004883</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>5.384337425231934</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1.684502482414246</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>6.935151948591237</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>39.53240513801575</v>
+      </c>
       <c r="I23" s="10" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="9" t="n"/>
-      <c r="K23" s="9" t="n"/>
-      <c r="L23" s="9" t="n"/>
-      <c r="M23" s="9" t="n"/>
-      <c r="N23" s="9" t="n"/>
-      <c r="O23" s="9" t="n"/>
-      <c r="P23" s="9" t="n"/>
+      <c r="J23" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>48.58042144775391</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>5.427604198455811</v>
+      </c>
+      <c r="N23" s="9" t="n">
+        <v>1.693634748458862</v>
+      </c>
+      <c r="O23" s="9" t="n">
+        <v>6.969965670486039</v>
+      </c>
+      <c r="P23" s="9" t="n">
+        <v>39.79962766170502</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -3679,25 +5615,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>67.08761596679688</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>6.351630210876465</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>8.802148818969727</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>8.190703020302767</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>46.807461977005</v>
+      </c>
       <c r="I24" s="10" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="9" t="n"/>
-      <c r="K24" s="9" t="n"/>
-      <c r="L24" s="9" t="n"/>
-      <c r="M24" s="9" t="n"/>
-      <c r="N24" s="9" t="n"/>
-      <c r="O24" s="9" t="n"/>
-      <c r="P24" s="9" t="n"/>
+      <c r="J24" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="9" t="n">
+        <v>75.9508056640625</v>
+      </c>
+      <c r="M24" s="9" t="n">
+        <v>6.833060264587402</v>
+      </c>
+      <c r="N24" s="9" t="n">
+        <v>9.139909744262695</v>
+      </c>
+      <c r="O24" s="9" t="n">
+        <v>8.714975941680075</v>
+      </c>
+      <c r="P24" s="9" t="n">
+        <v>48.78953397274017</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3921,25 +5893,61 @@
           <t>Support Vector Regressor</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'gamma': 0.01, 'C': 10}</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.06320203279082202</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.1892243802955266</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>12591819318918.93</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.2514001447708852</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>38.71215334847732</v>
+      </c>
       <c r="I8" s="10" t="inlineStr">
         <is>
           <t>Support Vector Regressor</t>
         </is>
       </c>
-      <c r="J8" s="9" t="n"/>
-      <c r="K8" s="9" t="n"/>
-      <c r="L8" s="9" t="n"/>
-      <c r="M8" s="9" t="n"/>
-      <c r="N8" s="9" t="n"/>
-      <c r="O8" s="9" t="n"/>
-      <c r="P8" s="9" t="n"/>
+      <c r="J8" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K8" s="9" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'gamma': 0.01, 'C': 10}</t>
+        </is>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>0.06320203279082202</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>0.1892243802955266</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>12591819318918.93</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>0.2514001447708852</v>
+      </c>
+      <c r="P8" s="9" t="n">
+        <v>38.71215334847732</v>
+      </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -3947,25 +5955,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06978205587224372</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2086064782488956</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>13365456484201.6</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2641629343269864</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>41.7905138828171</v>
+      </c>
       <c r="I9" s="10" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="9" t="n"/>
-      <c r="K9" s="9" t="n"/>
-      <c r="L9" s="9" t="n"/>
-      <c r="M9" s="9" t="n"/>
-      <c r="N9" s="9" t="n"/>
-      <c r="O9" s="9" t="n"/>
-      <c r="P9" s="9" t="n"/>
+      <c r="J9" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="9" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>0.06978205587224372</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>0.2086064782488956</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>13365456484201.6</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>0.2641629343269864</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>41.7905138828171</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -3973,25 +6017,61 @@
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.06135020691832409</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1958214421793141</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>8984211354743.141</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.2476897392269694</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>41.1099314222748</v>
+      </c>
       <c r="I10" s="10" t="inlineStr">
         <is>
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="J10" s="9" t="n"/>
-      <c r="K10" s="9" t="n"/>
-      <c r="L10" s="9" t="n"/>
-      <c r="M10" s="9" t="n"/>
-      <c r="N10" s="9" t="n"/>
-      <c r="O10" s="9" t="n"/>
-      <c r="P10" s="9" t="n"/>
+      <c r="J10" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K10" s="9" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+        </is>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0.06135020691832409</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0.1958214421793141</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>8984211354743.141</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>0.2476897392269694</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>41.1099314222748</v>
+      </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -3999,25 +6079,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.06880470405569329</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2088670127563496</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>12876656678452.67</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2623065078409098</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>42.11389917320971</v>
+      </c>
       <c r="I11" s="10" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="9" t="n"/>
-      <c r="K11" s="9" t="n"/>
-      <c r="L11" s="9" t="n"/>
-      <c r="M11" s="9" t="n"/>
-      <c r="N11" s="9" t="n"/>
-      <c r="O11" s="9" t="n"/>
-      <c r="P11" s="9" t="n"/>
+      <c r="J11" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="9" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>0.06880470405569329</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>0.2088670127563496</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <v>12876656678452.67</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <v>0.2623065078409098</v>
+      </c>
+      <c r="P11" s="9" t="n">
+        <v>42.11389917320971</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
@@ -4107,25 +6223,61 @@
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.06222075108968406</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1983605816591399</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>9768678391955.055</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.2494408769421806</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>41.75945942616405</v>
+      </c>
       <c r="I13" s="10" t="inlineStr">
         <is>
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="9" t="n"/>
-      <c r="L13" s="9" t="n"/>
-      <c r="M13" s="9" t="n"/>
-      <c r="N13" s="9" t="n"/>
-      <c r="O13" s="9" t="n"/>
-      <c r="P13" s="9" t="n"/>
+      <c r="J13" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="9" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>0.06222075108968406</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>0.1983605816591399</v>
+      </c>
+      <c r="N13" s="9" t="n">
+        <v>9768678391955.055</v>
+      </c>
+      <c r="O13" s="9" t="n">
+        <v>0.2494408769421806</v>
+      </c>
+      <c r="P13" s="9" t="n">
+        <v>41.75945942616405</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -4133,25 +6285,61 @@
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearRegression()}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.06681354163001434</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.1978063541518567</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>12683376750133.75</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.2584831554086539</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>40.34680971895116</v>
+      </c>
       <c r="I14" s="10" t="inlineStr">
         <is>
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="9" t="n"/>
-      <c r="L14" s="9" t="n"/>
-      <c r="M14" s="9" t="n"/>
-      <c r="N14" s="9" t="n"/>
-      <c r="O14" s="9" t="n"/>
-      <c r="P14" s="9" t="n"/>
+      <c r="J14" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="9" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearRegression()}</t>
+        </is>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>0.06681354163001434</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>0.1978063541518567</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <v>12683376750133.75</v>
+      </c>
+      <c r="O14" s="9" t="n">
+        <v>0.2584831554086539</v>
+      </c>
+      <c r="P14" s="9" t="n">
+        <v>40.34680971895116</v>
+      </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
@@ -4159,25 +6347,61 @@
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.06897546997040649</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.2092647386364577</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>12900451311376.42</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.2626318144673385</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>42.17415635637794</v>
+      </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="9" t="n"/>
-      <c r="L15" s="9" t="n"/>
-      <c r="M15" s="9" t="n"/>
-      <c r="N15" s="9" t="n"/>
-      <c r="O15" s="9" t="n"/>
-      <c r="P15" s="9" t="n"/>
+      <c r="J15" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>0.06897546997040649</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>0.2092647386364577</v>
+      </c>
+      <c r="N15" s="9" t="n">
+        <v>12900451311376.42</v>
+      </c>
+      <c r="O15" s="9" t="n">
+        <v>0.2626318144673385</v>
+      </c>
+      <c r="P15" s="9" t="n">
+        <v>42.17415635637794</v>
+      </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
       <c r="A16" s="6" t="inlineStr">
@@ -4185,25 +6409,61 @@
           <t>Random Forest Regressor</t>
         </is>
       </c>
-      <c r="B16" s="5" t="n"/>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="5" t="n"/>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.0653150364006324</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.2052922348589666</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>9293277183477.449</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.2555680660814891</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>43.0592601423314</v>
+      </c>
       <c r="I16" s="10" t="inlineStr">
         <is>
           <t>Random Forest Regressor</t>
         </is>
       </c>
-      <c r="J16" s="9" t="n"/>
-      <c r="K16" s="9" t="n"/>
-      <c r="L16" s="9" t="n"/>
-      <c r="M16" s="9" t="n"/>
-      <c r="N16" s="9" t="n"/>
-      <c r="O16" s="9" t="n"/>
-      <c r="P16" s="9" t="n"/>
+      <c r="J16" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K16" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+        </is>
+      </c>
+      <c r="L16" s="9" t="n">
+        <v>0.0653150364006324</v>
+      </c>
+      <c r="M16" s="9" t="n">
+        <v>0.2052922348589666</v>
+      </c>
+      <c r="N16" s="9" t="n">
+        <v>9293277183477.449</v>
+      </c>
+      <c r="O16" s="9" t="n">
+        <v>0.2555680660814891</v>
+      </c>
+      <c r="P16" s="9" t="n">
+        <v>43.0592601423314</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
@@ -4237,25 +6497,61 @@
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.06499670279363966</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.2030153822571324</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>10471550533875.67</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.2549445092439522</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>41.72159817588313</v>
+      </c>
       <c r="I18" s="10" t="inlineStr">
         <is>
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="J18" s="9" t="n"/>
-      <c r="K18" s="9" t="n"/>
-      <c r="L18" s="9" t="n"/>
-      <c r="M18" s="9" t="n"/>
-      <c r="N18" s="9" t="n"/>
-      <c r="O18" s="9" t="n"/>
-      <c r="P18" s="9" t="n"/>
+      <c r="J18" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>0.06499670279363966</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>0.2030153822571324</v>
+      </c>
+      <c r="N18" s="9" t="n">
+        <v>10471550533875.67</v>
+      </c>
+      <c r="O18" s="9" t="n">
+        <v>0.2549445092439522</v>
+      </c>
+      <c r="P18" s="9" t="n">
+        <v>41.72159817588313</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
@@ -4263,25 +6559,61 @@
           <t>ExtraTreesRegressor</t>
         </is>
       </c>
-      <c r="B19" s="5" t="n"/>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.06141670432011632</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.1917763367932405</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>10498256310012.34</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.2478239381498816</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>39.7902195619598</v>
+      </c>
       <c r="I19" s="10" t="inlineStr">
         <is>
           <t>ExtraTreesRegressor</t>
         </is>
       </c>
-      <c r="J19" s="9" t="n"/>
-      <c r="K19" s="9" t="n"/>
-      <c r="L19" s="9" t="n"/>
-      <c r="M19" s="9" t="n"/>
-      <c r="N19" s="9" t="n"/>
-      <c r="O19" s="9" t="n"/>
-      <c r="P19" s="9" t="n"/>
+      <c r="J19" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>0.06141670432011632</v>
+      </c>
+      <c r="M19" s="9" t="n">
+        <v>0.1917763367932405</v>
+      </c>
+      <c r="N19" s="9" t="n">
+        <v>10498256310012.34</v>
+      </c>
+      <c r="O19" s="9" t="n">
+        <v>0.2478239381498816</v>
+      </c>
+      <c r="P19" s="9" t="n">
+        <v>39.7902195619598</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
@@ -4289,25 +6621,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.06431166498650674</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2000688177809297</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>10879819377745.03</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2535974467271048</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>41.05758714074354</v>
+      </c>
       <c r="I20" s="10" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="9" t="n"/>
-      <c r="K20" s="9" t="n"/>
-      <c r="L20" s="9" t="n"/>
-      <c r="M20" s="9" t="n"/>
-      <c r="N20" s="9" t="n"/>
-      <c r="O20" s="9" t="n"/>
-      <c r="P20" s="9" t="n"/>
+      <c r="J20" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>0.06431166498650674</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>0.2000688177809297</v>
+      </c>
+      <c r="N20" s="9" t="n">
+        <v>10879819377745.03</v>
+      </c>
+      <c r="O20" s="9" t="n">
+        <v>0.2535974467271048</v>
+      </c>
+      <c r="P20" s="9" t="n">
+        <v>41.05758714074354</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="13" t="inlineStr">
@@ -4397,25 +6765,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.08111489564180374</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2199536263942719</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>15092487815168</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2848067689536254</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>42.48289167881012</v>
+      </c>
       <c r="I22" s="10" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="9" t="n"/>
-      <c r="K22" s="9" t="n"/>
-      <c r="L22" s="9" t="n"/>
-      <c r="M22" s="9" t="n"/>
-      <c r="N22" s="9" t="n"/>
-      <c r="O22" s="9" t="n"/>
-      <c r="P22" s="9" t="n"/>
+      <c r="J22" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>0.08314470201730728</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>0.2235376238822937</v>
+      </c>
+      <c r="N22" s="9" t="n">
+        <v>15265838399488</v>
+      </c>
+      <c r="O22" s="9" t="n">
+        <v>0.2883482304736883</v>
+      </c>
+      <c r="P22" s="9" t="n">
+        <v>42.57968664169312</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -4423,25 +6827,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.09624429792165756</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2397306561470032</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>17029842075648</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.31023265128232</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>43.15407574176788</v>
+      </c>
       <c r="I23" s="10" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="9" t="n"/>
-      <c r="K23" s="9" t="n"/>
-      <c r="L23" s="9" t="n"/>
-      <c r="M23" s="9" t="n"/>
-      <c r="N23" s="9" t="n"/>
-      <c r="O23" s="9" t="n"/>
-      <c r="P23" s="9" t="n"/>
+      <c r="J23" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>0.09883222728967667</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>0.2436980456113815</v>
+      </c>
+      <c r="N23" s="9" t="n">
+        <v>17085142925312</v>
+      </c>
+      <c r="O23" s="9" t="n">
+        <v>0.3143759330637074</v>
+      </c>
+      <c r="P23" s="9" t="n">
+        <v>43.36159229278564</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -4691,25 +7131,61 @@
           <t>Support Vector Regressor</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.9407298729370719</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.4987524745664352</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.68863664434336</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.9699123016732347</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>24.27512292299575</v>
+      </c>
       <c r="I8" s="10" t="inlineStr">
         <is>
           <t>Support Vector Regressor</t>
         </is>
       </c>
-      <c r="J8" s="9" t="n"/>
-      <c r="K8" s="9" t="n"/>
-      <c r="L8" s="9" t="n"/>
-      <c r="M8" s="9" t="n"/>
-      <c r="N8" s="9" t="n"/>
-      <c r="O8" s="9" t="n"/>
-      <c r="P8" s="9" t="n"/>
+      <c r="J8" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K8" s="9" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+        </is>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>0.9407298729370719</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>0.4987524745664352</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>0.68863664434336</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>0.9699123016732347</v>
+      </c>
+      <c r="P8" s="9" t="n">
+        <v>24.27512292299575</v>
+      </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -4717,25 +7193,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.014884610201941</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.5328656952955062</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6846378880106736</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.007414815357577</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>25.26781857307111</v>
+      </c>
       <c r="I9" s="10" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="9" t="n"/>
-      <c r="K9" s="9" t="n"/>
-      <c r="L9" s="9" t="n"/>
-      <c r="M9" s="9" t="n"/>
-      <c r="N9" s="9" t="n"/>
-      <c r="O9" s="9" t="n"/>
-      <c r="P9" s="9" t="n"/>
+      <c r="J9" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="9" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>1.014884610201941</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>0.5328656952955062</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>0.6846378880106736</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>1.007414815357577</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>25.26781857307111</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -4743,25 +7255,61 @@
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.9922040408970931</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.6564377337255369</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.6434484177833509</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.9960943935677448</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>31.84918869680577</v>
+      </c>
       <c r="I10" s="10" t="inlineStr">
         <is>
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="J10" s="9" t="n"/>
-      <c r="K10" s="9" t="n"/>
-      <c r="L10" s="9" t="n"/>
-      <c r="M10" s="9" t="n"/>
-      <c r="N10" s="9" t="n"/>
-      <c r="O10" s="9" t="n"/>
-      <c r="P10" s="9" t="n"/>
+      <c r="J10" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K10" s="9" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+        </is>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0.9922040408970931</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0.6564377337255369</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>0.6434484177833509</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>0.9960943935677448</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>31.84918869680577</v>
+      </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -4769,25 +7317,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>6.843083788903978</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.529263352748517</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.040835711074039</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.615928857768112</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>189.4723383632694</v>
+      </c>
       <c r="I11" s="10" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="9" t="n"/>
-      <c r="K11" s="9" t="n"/>
-      <c r="L11" s="9" t="n"/>
-      <c r="M11" s="9" t="n"/>
-      <c r="N11" s="9" t="n"/>
-      <c r="O11" s="9" t="n"/>
-      <c r="P11" s="9" t="n"/>
+      <c r="J11" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="9" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>6.843083788903978</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>2.529263352748517</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <v>1.040835711074039</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <v>2.615928857768112</v>
+      </c>
+      <c r="P11" s="9" t="n">
+        <v>189.4723383632694</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
@@ -4877,25 +7461,61 @@
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.000391939536133</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.6404273383497538</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.6166687121868125</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.000195950569754</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>31.30317715077548</v>
+      </c>
       <c r="I13" s="10" t="inlineStr">
         <is>
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="9" t="n"/>
-      <c r="L13" s="9" t="n"/>
-      <c r="M13" s="9" t="n"/>
-      <c r="N13" s="9" t="n"/>
-      <c r="O13" s="9" t="n"/>
-      <c r="P13" s="9" t="n"/>
+      <c r="J13" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="9" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>1.000391939536133</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>0.6404273383497538</v>
+      </c>
+      <c r="N13" s="9" t="n">
+        <v>0.6166687121868125</v>
+      </c>
+      <c r="O13" s="9" t="n">
+        <v>1.000195950569754</v>
+      </c>
+      <c r="P13" s="9" t="n">
+        <v>31.30317715077548</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -4903,25 +7523,61 @@
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.393349652388181</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.8124508693280121</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.7402008504429526</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>1.180402326492193</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>36.51955171581541</v>
+      </c>
       <c r="I14" s="10" t="inlineStr">
         <is>
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="9" t="n"/>
-      <c r="L14" s="9" t="n"/>
-      <c r="M14" s="9" t="n"/>
-      <c r="N14" s="9" t="n"/>
-      <c r="O14" s="9" t="n"/>
-      <c r="P14" s="9" t="n"/>
+      <c r="J14" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="9" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>1.393349652388181</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>0.8124508693280121</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <v>0.7402008504429526</v>
+      </c>
+      <c r="O14" s="9" t="n">
+        <v>1.180402326492193</v>
+      </c>
+      <c r="P14" s="9" t="n">
+        <v>36.51955171581541</v>
+      </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
@@ -4929,25 +7585,61 @@
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.9176162306668983</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.5990065530362677</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.6258025171380375</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.9579228730262673</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>28.78067823812552</v>
+      </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="9" t="n"/>
-      <c r="L15" s="9" t="n"/>
-      <c r="M15" s="9" t="n"/>
-      <c r="N15" s="9" t="n"/>
-      <c r="O15" s="9" t="n"/>
-      <c r="P15" s="9" t="n"/>
+      <c r="J15" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>0.9176162306668983</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>0.5990065530362677</v>
+      </c>
+      <c r="N15" s="9" t="n">
+        <v>0.6258025171380375</v>
+      </c>
+      <c r="O15" s="9" t="n">
+        <v>0.9579228730262673</v>
+      </c>
+      <c r="P15" s="9" t="n">
+        <v>28.78067823812552</v>
+      </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
       <c r="A16" s="6" t="inlineStr">
@@ -4955,25 +7647,61 @@
           <t>Random Forest Regressor</t>
         </is>
       </c>
-      <c r="B16" s="5" t="n"/>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="5" t="n"/>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.043530121909486</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.6672107990891119</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.6268419267679851</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>1.021533221148234</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>32.91951205065263</v>
+      </c>
       <c r="I16" s="10" t="inlineStr">
         <is>
           <t>Random Forest Regressor</t>
         </is>
       </c>
-      <c r="J16" s="9" t="n"/>
-      <c r="K16" s="9" t="n"/>
-      <c r="L16" s="9" t="n"/>
-      <c r="M16" s="9" t="n"/>
-      <c r="N16" s="9" t="n"/>
-      <c r="O16" s="9" t="n"/>
-      <c r="P16" s="9" t="n"/>
+      <c r="J16" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K16" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="L16" s="9" t="n">
+        <v>1.043530121909486</v>
+      </c>
+      <c r="M16" s="9" t="n">
+        <v>0.6672107990891119</v>
+      </c>
+      <c r="N16" s="9" t="n">
+        <v>0.6268419267679851</v>
+      </c>
+      <c r="O16" s="9" t="n">
+        <v>1.021533221148234</v>
+      </c>
+      <c r="P16" s="9" t="n">
+        <v>32.91951205065263</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
@@ -5007,25 +7735,61 @@
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.9133798672003332</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.6330555020794588</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.6188581694458599</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.9557090913035897</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>30.65193189170767</v>
+      </c>
       <c r="I18" s="10" t="inlineStr">
         <is>
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="J18" s="9" t="n"/>
-      <c r="K18" s="9" t="n"/>
-      <c r="L18" s="9" t="n"/>
-      <c r="M18" s="9" t="n"/>
-      <c r="N18" s="9" t="n"/>
-      <c r="O18" s="9" t="n"/>
-      <c r="P18" s="9" t="n"/>
+      <c r="J18" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>0.9133798672003332</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>0.6330555020794588</v>
+      </c>
+      <c r="N18" s="9" t="n">
+        <v>0.6188581694458599</v>
+      </c>
+      <c r="O18" s="9" t="n">
+        <v>0.9557090913035897</v>
+      </c>
+      <c r="P18" s="9" t="n">
+        <v>30.65193189170767</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
@@ -5033,25 +7797,61 @@
           <t>ExtraTreesRegressor</t>
         </is>
       </c>
-      <c r="B19" s="5" t="n"/>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.9329817106748439</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.627002140820047</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.6412122028814206</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.9659097839212749</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>30.31546330448895</v>
+      </c>
       <c r="I19" s="10" t="inlineStr">
         <is>
           <t>ExtraTreesRegressor</t>
         </is>
       </c>
-      <c r="J19" s="9" t="n"/>
-      <c r="K19" s="9" t="n"/>
-      <c r="L19" s="9" t="n"/>
-      <c r="M19" s="9" t="n"/>
-      <c r="N19" s="9" t="n"/>
-      <c r="O19" s="9" t="n"/>
-      <c r="P19" s="9" t="n"/>
+      <c r="J19" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
+        </is>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>0.9329817106748439</v>
+      </c>
+      <c r="M19" s="9" t="n">
+        <v>0.627002140820047</v>
+      </c>
+      <c r="N19" s="9" t="n">
+        <v>0.6412122028814206</v>
+      </c>
+      <c r="O19" s="9" t="n">
+        <v>0.9659097839212749</v>
+      </c>
+      <c r="P19" s="9" t="n">
+        <v>30.31546330448895</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
@@ -5059,25 +7859,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1.125925495175252</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.6771029281246997</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.5992032556202651</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.061096364697972</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>34.59336978304947</v>
+      </c>
       <c r="I20" s="10" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="9" t="n"/>
-      <c r="K20" s="9" t="n"/>
-      <c r="L20" s="9" t="n"/>
-      <c r="M20" s="9" t="n"/>
-      <c r="N20" s="9" t="n"/>
-      <c r="O20" s="9" t="n"/>
-      <c r="P20" s="9" t="n"/>
+      <c r="J20" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>1.125925495175252</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>0.6771029281246997</v>
+      </c>
+      <c r="N20" s="9" t="n">
+        <v>0.5992032556202651</v>
+      </c>
+      <c r="O20" s="9" t="n">
+        <v>1.061096364697972</v>
+      </c>
+      <c r="P20" s="9" t="n">
+        <v>34.59336978304947</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="13" t="inlineStr">
@@ -5167,25 +8003,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.108166098594666</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.5762944221496582</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.7276604771614075</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>1.052694684414558</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>26.33912563323975</v>
+      </c>
       <c r="I22" s="10" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="9" t="n"/>
-      <c r="K22" s="9" t="n"/>
-      <c r="L22" s="9" t="n"/>
-      <c r="M22" s="9" t="n"/>
-      <c r="N22" s="9" t="n"/>
-      <c r="O22" s="9" t="n"/>
-      <c r="P22" s="9" t="n"/>
+      <c r="J22" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>1.12003493309021</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>0.5722652077674866</v>
+      </c>
+      <c r="N22" s="9" t="n">
+        <v>0.7395175099372864</v>
+      </c>
+      <c r="O22" s="9" t="n">
+        <v>1.058317028630934</v>
+      </c>
+      <c r="P22" s="9" t="n">
+        <v>26.13821029663086</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -5193,25 +8065,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.9841788411140442</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.5804234743118286</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.6726970672607422</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.9920578819373617</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>30.07673919200897</v>
+      </c>
       <c r="I23" s="10" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="9" t="n"/>
-      <c r="K23" s="9" t="n"/>
-      <c r="L23" s="9" t="n"/>
-      <c r="M23" s="9" t="n"/>
-      <c r="N23" s="9" t="n"/>
-      <c r="O23" s="9" t="n"/>
-      <c r="P23" s="9" t="n"/>
+      <c r="J23" s="9" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>0.9843953847885132</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>0.6145375370979309</v>
+      </c>
+      <c r="N23" s="9" t="n">
+        <v>0.6696038246154785</v>
+      </c>
+      <c r="O23" s="9" t="n">
+        <v>0.992167014563835</v>
+      </c>
+      <c r="P23" s="9" t="n">
+        <v>31.20512366294861</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -5443,13 +8351,31 @@
           <t>Support Vector Regressor</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.06323965773288302</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.1833404429786894</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>33845995584856.39</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.2514749644256521</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>37.24429458690015</v>
+      </c>
       <c r="I8" s="10" t="inlineStr">
         <is>
           <t>Support Vector Regressor</t>
@@ -5469,13 +8395,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06948263558220943</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2050106697773112</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>33095416056113.94</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2635955909764225</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>40.91079691392724</v>
+      </c>
       <c r="I9" s="10" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -5495,13 +8439,31 @@
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>{'weights': 'distance', 'n_neighbors': 8}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.06130308306567974</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1633224671043212</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>42473023687418.09</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.247594594177013</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>33.25302308445133</v>
+      </c>
       <c r="I10" s="10" t="inlineStr">
         <is>
           <t>K-Neighbors Regressor</t>
@@ -5521,13 +8483,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.05327685934808465</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.161904173527909</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>33007876512564.94</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2308178055265335</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>34.18290558503932</v>
+      </c>
       <c r="I11" s="10" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -5629,13 +8609,31 @@
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.05562644416060003</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1615372215039299</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>34255120740651.42</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.2358525898958924</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>33.89089708436352</v>
+      </c>
       <c r="I13" s="10" t="inlineStr">
         <is>
           <t>Voting Regressor</t>
@@ -5655,13 +8653,31 @@
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.07204773772395509</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.21605062198786</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>31841837427356.44</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.2684170965567489</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>43.57394503363967</v>
+      </c>
       <c r="I14" s="10" t="inlineStr">
         <is>
           <t>Stacking Regressor</t>
@@ -5681,13 +8697,31 @@
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.06130318249317522</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.1747297246912408</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>34423350312161.12</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.2475947949638183</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>35.61097898148502</v>
+      </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
           <t>Gradient Boosting Regressor</t>
@@ -5707,13 +8741,31 @@
           <t>Random Forest Regressor</t>
         </is>
       </c>
-      <c r="B16" s="5" t="n"/>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="5" t="n"/>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'max_depth': None}</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.0596377625184414</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.163586498959502</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>33124345740735.58</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.2442084407190738</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>33.79915792333563</v>
+      </c>
       <c r="I16" s="10" t="inlineStr">
         <is>
           <t>Random Forest Regressor</t>
@@ -5759,13 +8811,31 @@
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 160, 'max_samples': 0.7000000000000001, 'max_features': 0.8}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.0628825381226684</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.1707954134629075</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>35616379584006.57</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.2507639091310159</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>34.77801803568956</v>
+      </c>
       <c r="I18" s="10" t="inlineStr">
         <is>
           <t>BaggingRegressor</t>
@@ -5785,13 +8855,31 @@
           <t>ExtraTreesRegressor</t>
         </is>
       </c>
-      <c r="B19" s="5" t="n"/>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.05921898331354238</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.1685597728771494</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>38625168888239.79</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.2433495085541419</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>34.84470009050903</v>
+      </c>
       <c r="I19" s="10" t="inlineStr">
         <is>
           <t>ExtraTreesRegressor</t>
@@ -5811,13 +8899,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05636631898939258</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1747578597998107</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>36166567835357.09</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2374159198314059</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>36.68179864270525</v>
+      </c>
       <c r="I20" s="10" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -5919,13 +9025,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1171570047736168</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2649316191673279</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>43339516739584</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3422820544136324</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>46.16690278053284</v>
+      </c>
       <c r="I22" s="10" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -5945,13 +9069,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.07234924286603928</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2090852558612823</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1.64731228351593</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2689781457033996</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>40.47194719314575</v>
+      </c>
       <c r="I23" s="10" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -5971,13 +9113,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.08716041594743729</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2148170918226242</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>33832726167552</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2952294293383322</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>40.61010777950287</v>
+      </c>
       <c r="I24" s="10" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -6195,13 +9355,31 @@
           <t>Support Vector Regressor</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.167827614564859</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.540021022428758</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.4469644998761303</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>1.080660730555552</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>25.11656011300492</v>
+      </c>
       <c r="I8" s="10" t="inlineStr">
         <is>
           <t>Support Vector Regressor</t>
@@ -6221,13 +9399,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.17587392319595</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.542134936855122</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.4493539452130127</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.084377205217792</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>25.16624985601378</v>
+      </c>
       <c r="I9" s="10" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -6247,13 +9443,31 @@
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.102639985887534</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5319045304145834</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.3979017255737941</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.050066657830604</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>25.5959682191905</v>
+      </c>
       <c r="I10" s="10" t="inlineStr">
         <is>
           <t>K-Neighbors Regressor</t>
@@ -6273,13 +9487,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.080108590753542</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.6148052494187312</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.4380937314893226</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>1.039282728978762</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>28.82760396585649</v>
+      </c>
       <c r="I11" s="10" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -6381,13 +9613,31 @@
           <t>Voting Regressor</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.128295155423699</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.59273279604583</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4143091028192301</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.062212387154141</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>29.75957075016512</v>
+      </c>
       <c r="I13" s="10" t="inlineStr">
         <is>
           <t>Voting Regressor</t>
@@ -6407,13 +9657,31 @@
           <t>Stacking Regressor</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.165669199813934</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.5469205958537712</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.444664031514663</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>1.079661613568776</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>25.4118012906352</v>
+      </c>
       <c r="I14" s="10" t="inlineStr">
         <is>
           <t>Stacking Regressor</t>
@@ -6433,13 +9701,31 @@
           <t>Gradient Boosting Regressor</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.095655428429501</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.6341885634742831</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.4475681349298185</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.04673560579045</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>29.63128109204586</v>
+      </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
           <t>Gradient Boosting Regressor</t>
@@ -6459,13 +9745,31 @@
           <t>Random Forest Regressor</t>
         </is>
       </c>
-      <c r="B16" s="5" t="n"/>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="5" t="n"/>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.11710496447926</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.561217144246869</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.4150006843508494</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>1.056931863688128</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>26.88975415630022</v>
+      </c>
       <c r="I16" s="10" t="inlineStr">
         <is>
           <t>Random Forest Regressor</t>
@@ -6511,13 +9815,31 @@
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.117151734827882</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.6029666928846444</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.425215619242725</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1.056953988983382</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>28.53510643108222</v>
+      </c>
       <c r="I18" s="10" t="inlineStr">
         <is>
           <t>BaggingRegressor</t>
@@ -6537,13 +9859,31 @@
           <t>ExtraTreesRegressor</t>
         </is>
       </c>
-      <c r="B19" s="5" t="n"/>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1.059655997743231</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.5586886715977453</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.4127959583718232</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>1.029395938277994</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>26.68748288173441</v>
+      </c>
       <c r="I19" s="10" t="inlineStr">
         <is>
           <t>ExtraTreesRegressor</t>
@@ -6563,13 +9903,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.9491755323195121</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.5374986896915198</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.416179418936312</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.9742563996810656</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>26.34455816776537</v>
+      </c>
       <c r="I20" s="10" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -6671,13 +10029,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.575385332107544</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.6951332688331604</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5588234663009644</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>1.255143550398736</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>29.68664467334747</v>
+      </c>
       <c r="I22" s="10" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -6697,13 +10073,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.5861623883247375</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.4161742925643921</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.3413492143154144</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.7656124269659796</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>19.84121352434158</v>
+      </c>
       <c r="I23" s="10" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -6723,13 +10117,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.242554068565369</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.5575347542762756</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.4657532870769501</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.114699093282743</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>25.42407810688019</v>
+      </c>
       <c r="I24" s="10" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>

--- a/data/performance_sheets/Full Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/Full Overall Model Peformance Results.xlsx
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.07170309606401425</v>
+        <v>0.04180204996434749</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.186292336975765</v>
+        <v>0.1469308526689246</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.456033923310312</v>
+        <v>1.177135830069593</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2677743379489794</v>
+        <v>0.2044554962928302</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>41.18218322329804</v>
+        <v>33.70085857368343</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -800,19 +800,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.08189086093339405</v>
+        <v>0.0459376292302027</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.2045413624390392</v>
+        <v>0.1620516360251901</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.72274655042239</v>
+        <v>1.231588138292955</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2861657927380455</v>
+        <v>0.2143306539676551</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>44.16749192075862</v>
+        <v>35.0134136225083</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -2084,19 +2084,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>224.1674839411998</v>
+        <v>141.5362316266686</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13.68001563405001</v>
+        <v>11.01275009449259</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42.34785977017865</v>
+        <v>5.71965316487491</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>14.97222374736631</v>
+        <v>11.89690008475605</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>182.9974054215934</v>
+        <v>136.2363541620644</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -2114,19 +2114,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>229.0288486751149</v>
+        <v>140.3716090807916</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>13.60253792883092</v>
+        <v>10.92981211225258</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>40.87184629998021</v>
+        <v>5.732792202029215</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>15.13369910745932</v>
+        <v>11.84785250924367</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>179.8795705216952</v>
+        <v>135.5992891315403</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -3396,19 +3396,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>155.1159635610918</v>
+        <v>26.82733086324243</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11.25363907279669</v>
+        <v>3.855991404700138</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.292135772446135</v>
+        <v>4.926075397773062</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>12.45455593592529</v>
+        <v>5.179510677973589</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>136.3498302907346</v>
+        <v>37.28669918490311</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -3426,19 +3426,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>145.5107082302829</v>
+        <v>27.81114770944109</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>10.6674178031528</v>
+        <v>3.952034506486674</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>4.904539737636824</v>
+        <v>5.023522842854302</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>12.06278194407422</v>
+        <v>5.273627566432909</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>128.4071917291414</v>
+        <v>38.4773717282704</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -4708,19 +4708,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>223.8795324170097</v>
+        <v>0.04473019354145603</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13.64991077201485</v>
+        <v>0.1526527368590588</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9204451719720371</v>
+        <v>1.218743916143894</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>14.96260446636914</v>
+        <v>0.2114951383400007</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>174.3664989276996</v>
+        <v>34.74409635439205</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -4738,19 +4738,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>224.1747196110271</v>
+        <v>0.04757955911263314</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>13.66895480473618</v>
+        <v>0.1517664541288593</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.943431768184124</v>
+        <v>1.200314066357696</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>14.97246538186103</v>
+        <v>0.2181273919356144</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>179.483085501089</v>
+        <v>34.36722748734257</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -6007,25 +6007,61 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.06174908347153276</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.192308527661559</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>18195541472415.09</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.248493628633679</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>40.17779523924031</v>
+      </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="J7" s="8" t="n"/>
-      <c r="K7" s="8" t="n"/>
-      <c r="L7" s="8" t="n"/>
-      <c r="M7" s="8" t="n"/>
-      <c r="N7" s="8" t="n"/>
-      <c r="O7" s="8" t="n"/>
-      <c r="P7" s="8" t="n"/>
+      <c r="J7" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K7" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>0.0585481076542865</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v>0.1870059521267173</v>
+      </c>
+      <c r="N7" s="8" t="n">
+        <v>17734163436222.64</v>
+      </c>
+      <c r="O7" s="8" t="n">
+        <v>0.2419671623470559</v>
+      </c>
+      <c r="P7" s="8" t="n">
+        <v>39.45670889551841</v>
+      </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
@@ -7202,19 +7238,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0564659096743711</v>
+        <v>0.06074000608804839</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1806374684935386</v>
+        <v>0.1894361328630519</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22972839564223.58</v>
+        <v>10495979358718.85</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2376255661210954</v>
+        <v>0.2464548763730359</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>37.8091717418089</v>
+        <v>39.47296784898715</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -7232,19 +7268,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.0564659096743711</v>
+        <v>0.05510913421459315</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1806374684935386</v>
+        <v>0.1785946414155181</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>22972839564223.58</v>
+        <v>10855327285601.75</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2376255661210954</v>
+        <v>0.2347533476110472</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>37.8091717418089</v>
+        <v>37.97161387076248</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -8494,19 +8530,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0564659096743711</v>
+        <v>0.05933420239925919</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1806374684935386</v>
+        <v>0.1867756425119486</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22972839564223.58</v>
+        <v>12661804949245.79</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2376255661210954</v>
+        <v>0.2435861293244326</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>37.8091717418089</v>
+        <v>39.3098518130661</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -8524,19 +8560,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.0564659096743711</v>
+        <v>0.05438132238028465</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1806374684935386</v>
+        <v>0.1758791348672096</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>22972839564223.58</v>
+        <v>13058902768974.6</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2376255661210954</v>
+        <v>0.2331980325394806</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>37.8091717418089</v>
+        <v>37.58283355562038</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -9775,25 +9811,61 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.015750082796976</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.6066558687788515</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.5862300275166973</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.007844275072779</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>28.81050230021024</v>
+      </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="J7" s="8" t="n"/>
-      <c r="K7" s="8" t="n"/>
-      <c r="L7" s="8" t="n"/>
-      <c r="M7" s="8" t="n"/>
-      <c r="N7" s="8" t="n"/>
-      <c r="O7" s="8" t="n"/>
-      <c r="P7" s="8" t="n"/>
+      <c r="J7" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K7" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>1.017063913528057</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v>0.6129706079333996</v>
+      </c>
+      <c r="N7" s="8" t="n">
+        <v>0.5843050751585862</v>
+      </c>
+      <c r="O7" s="8" t="n">
+        <v>1.008495866886948</v>
+      </c>
+      <c r="P7" s="8" t="n">
+        <v>29.11321109480811</v>
+      </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
@@ -10970,19 +11042,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.025726045133048</v>
+        <v>0.9299373279473178</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5965767843143749</v>
+        <v>0.6143814748811495</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6125056140382089</v>
+        <v>0.622566671639823</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.012781341224772</v>
+        <v>0.9643325816062204</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>28.03458784180085</v>
+        <v>29.60913265656649</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -11000,19 +11072,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.025726045133048</v>
+        <v>0.9225593677435714</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.5965767843143749</v>
+        <v>0.6133061986154063</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.6125056140382089</v>
+        <v>0.621546978829426</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.012781341224772</v>
+        <v>0.9604995407305364</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>28.03458784180085</v>
+        <v>29.63340560839874</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -12251,25 +12323,61 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.9041241945196498</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.5937398066447039</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.4840646949103243</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.9508544549612469</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>29.04698560837562</v>
+      </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="J7" s="8" t="n"/>
-      <c r="K7" s="8" t="n"/>
-      <c r="L7" s="8" t="n"/>
-      <c r="M7" s="8" t="n"/>
-      <c r="N7" s="8" t="n"/>
-      <c r="O7" s="8" t="n"/>
-      <c r="P7" s="8" t="n"/>
+      <c r="J7" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K7" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>0.9041241945196498</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v>0.5937398066447039</v>
+      </c>
+      <c r="N7" s="8" t="n">
+        <v>0.4840646949103243</v>
+      </c>
+      <c r="O7" s="8" t="n">
+        <v>0.9508544549612469</v>
+      </c>
+      <c r="P7" s="8" t="n">
+        <v>29.04698560837562</v>
+      </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
@@ -13435,13 +13543,31 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.05052782969167098</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.1624172591297472</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.794523049578858</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.2247839622652626</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>34.68927307588384</v>
+      </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
@@ -14414,19 +14540,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05212064523221056</v>
+        <v>0.03878055070760416</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1474769538499733</v>
+        <v>0.1497556766612493</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.458587577220513</v>
+        <v>17383729199883.64</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2282994639332527</v>
+        <v>0.1969277804363929</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>33.128422439755</v>
+        <v>35.68708648325236</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -14444,19 +14570,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05372609952304652</v>
+        <v>0.04631136927508245</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1657192252358889</v>
+        <v>0.1652757338810492</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.411404403341891</v>
+        <v>18503380240394.22</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2317889115618919</v>
+        <v>0.2152007650429767</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>36.31889687159806</v>
+        <v>40.13846824709307</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -15724,19 +15850,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.4294384111078768</v>
+        <v>0.05496740162214878</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5187946743211793</v>
+        <v>0.1657466531150157</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.876475190047705</v>
+        <v>34329550012733.26</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.6553155050110419</v>
+        <v>0.2344512777148992</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>77.23363865710085</v>
+        <v>35.27105327071621</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -16735,13 +16861,31 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.05841414776653768</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.1646975188479305</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>28654665884416.16</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.2416901896365214</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>34.75719173132239</v>
+      </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
@@ -17703,13 +17847,31 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.7803443797134253</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.5823454911668006</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.4930591964139933</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.8833710317377548</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>28.9744117242939</v>
+      </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
@@ -18682,19 +18844,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>7.37069434997466</v>
+        <v>1.470020027974552</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.536193477550144</v>
+        <v>0.7395286854159366</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.232177656974466</v>
+        <v>0.4675739030043003</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>2.714902272637941</v>
+        <v>1.212443824667581</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>47.25990391674981</v>
+        <v>36.68930731157798</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -19693,13 +19855,31 @@
           <t>Linear Regressor</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.148311627741018</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.6815249650959869</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.6162643161834105</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.071593032704589</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>32.35785555894986</v>
+      </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
           <t>Linear Regressor</t>
@@ -20672,19 +20852,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05107518501818602</v>
+        <v>0.04794549653750067</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1411135151931689</v>
+        <v>0.16542504827841</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.629103238468468</v>
+        <v>24492690175167.77</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2259981969356968</v>
+        <v>0.2189646011059794</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>32.75030408043421</v>
+        <v>38.36005599539084</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -20702,19 +20882,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05878970149033991</v>
+        <v>0.04913568958329359</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1599121708056201</v>
+        <v>0.1748143074882959</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.805127560762998</v>
+        <v>24203194385659.63</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2424658769607383</v>
+        <v>0.2216657158500015</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>35.48766046527</v>
+        <v>40.33313792301576</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -21985,19 +22165,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7251027128430018</v>
+        <v>0.6175990542214279</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5854098318913584</v>
+        <v>0.5345202865946196</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4325432641101764</v>
+        <v>0.3819845933091867</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8515296312184337</v>
+        <v>0.7858747064395366</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>30.60342864762472</v>
+        <v>28.82034050562289</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -22015,19 +22195,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.6133607290226011</v>
+        <v>0.5516014345423169</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.5839077175462739</v>
+        <v>0.5388880502326573</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.3805789482373465</v>
+        <v>0.3551463410390374</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.7831734986722936</v>
+        <v>0.7426987508689623</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>31.9284412239871</v>
+        <v>29.66016262342469</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -23298,19 +23478,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6612258207487424</v>
+        <v>0.7363540193860955</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5600757950868516</v>
+        <v>0.5621709804857132</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4480600826031109</v>
+        <v>0.5000679184189233</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8131579310003331</v>
+        <v>0.8581107267632164</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>28.87149778622366</v>
+        <v>28.54219044095766</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -23328,19 +23508,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.8683025062912475</v>
+        <v>0.6968446655853712</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.7040932480537432</v>
+        <v>0.5772212176136085</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.480864130196735</v>
+        <v>0.4320189437533469</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.9318275088723489</v>
+        <v>0.8347722237744685</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>35.24670787676123</v>
+        <v>31.70685088436507</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -24611,19 +24791,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7245242636518847</v>
+        <v>0.8873264005245699</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.553589665257585</v>
+        <v>0.6106639990334619</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4481368171205169</v>
+        <v>0.3817227310242577</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8511899104500034</v>
+        <v>0.9419800425298669</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>28.78373952402107</v>
+        <v>31.10194309037255</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -24641,19 +24821,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.7398949711337037</v>
+        <v>0.8327055955248536</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.5977392290146721</v>
+        <v>0.6272444215126058</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.4195608739169494</v>
+        <v>0.3678989231806067</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.8601714777494681</v>
+        <v>0.9125270382431709</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>32.8196775600078</v>
+        <v>32.96816965015525</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -25923,19 +26103,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>223.9356730861122</v>
+        <v>0.04263727621626891</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13.64745995574642</v>
+        <v>0.1493110932552756</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.913588348989489</v>
+        <v>1.05808749478244</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>14.96448038142695</v>
+        <v>0.2064879565889229</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>173.3034872293751</v>
+        <v>34.6849641987104</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -25953,19 +26133,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>223.8058861443396</v>
+        <v>0.04426560827091585</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>13.64354821182386</v>
+        <v>0.1547393030874839</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.9136043920115666</v>
+        <v>1.187346924443937</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>14.96014325280141</v>
+        <v>0.2103939359176396</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>173.3479373381381</v>
+        <v>35.51556409265755</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -27237,19 +27417,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>208.0932959243308</v>
+        <v>135.9346469517838</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13.31867999251359</v>
+        <v>10.89536756394294</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46.55228556417578</v>
+        <v>5.601132127067783</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>14.42543919346412</v>
+        <v>11.65910146416883</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>182.2698618253632</v>
+        <v>136.9043234404868</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -27267,19 +27447,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>220.8066486399369</v>
+        <v>133.4414482152786</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>13.46330233097094</v>
+        <v>10.73303233055834</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>41.95065002947821</v>
+        <v>5.627145492404884</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>14.85956421433472</v>
+        <v>11.55168594687713</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>181.7230175726124</v>
+        <v>135.207967748131</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -28549,19 +28729,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>168.6872491478568</v>
+        <v>25.03955135000773</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12.0801770609241</v>
+        <v>3.808925971238635</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.80141004897118</v>
+        <v>4.710779737499142</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>12.98796555076494</v>
+        <v>5.003953571927674</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>141.4283819067617</v>
+        <v>38.00595456002282</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -28579,19 +28759,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>175.3876559484463</v>
+        <v>26.21559803950856</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>12.1362341986298</v>
+        <v>3.881525484817878</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>5.650894614402512</v>
+        <v>4.909595691963985</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>13.24340046772151</v>
+        <v>5.120116994709063</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>140.0434783690048</v>
+        <v>38.2384604632736</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">

--- a/data/performance_sheets/Full Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/Full Overall Model Peformance Results.xlsx
@@ -7029,13 +7029,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1570189.125</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>935.0435180664062</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>3.879845821939712e+16</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1253.071875432531</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>199.3383169174194</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -7052,19 +7070,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.08975948393344879</v>
+        <v>0.08536615967750549</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2255030572414398</v>
+        <v>0.2218408435583115</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>27430702022656</v>
+        <v>26596777918464</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2995988717159142</v>
+        <v>0.2921748785873034</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>42.64373779296875</v>
+        <v>42.37925112247467</v>
       </c>
     </row>
   </sheetData>
@@ -8321,13 +8339,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1155563294887543</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2544458508491516</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>16896940310528</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3399357725935214</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>45.32595276832581</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -8344,19 +8380,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.06869344413280487</v>
+        <v>0.07367836683988571</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2037288397550583</v>
+        <v>0.2085064202547073</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>12899449831424</v>
+        <v>13986382741504</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2620943420465327</v>
+        <v>0.271437592900994</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>40.91872870922089</v>
+        <v>41.18896722793579</v>
       </c>
     </row>
   </sheetData>
@@ -9613,13 +9649,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.07078304886817932</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2053147405385971</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>15195095171072</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2660508388789243</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>41.10348224639893</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -9636,19 +9690,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.07360314577817917</v>
+        <v>0.09402531385421753</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2070824503898621</v>
+        <v>0.2319244742393494</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>15669574762496</v>
+        <v>18342733676544</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2712989970091654</v>
+        <v>0.3066354739005543</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>41.10778868198395</v>
+        <v>43.39045286178589</v>
       </c>
     </row>
   </sheetData>
@@ -10833,13 +10887,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.123035907745361</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.556629657745361</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.077254891395569</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>2.030526017500234</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>72.51974940299988</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -10856,19 +10928,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>2.712408065795898</v>
+        <v>8.478296279907227</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.349240899085999</v>
+        <v>2.092322587966919</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.7770938873291016</v>
+        <v>1.43266499042511</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.646938998808365</v>
+        <v>2.911751411076712</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>69.30338740348816</v>
+        <v>68.86172890663147</v>
       </c>
     </row>
   </sheetData>
@@ -12125,13 +12197,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.522502899169922</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.523539066314697</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.179890871047974</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>2.126617713452496</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>64.43526148796082</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -12148,19 +12238,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>5.22138500213623</v>
+        <v>5.57439136505127</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.802246332168579</v>
+        <v>1.935131311416626</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.442797780036926</v>
+        <v>1.047253727912903</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>2.285035011140142</v>
+        <v>2.36101490148861</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>61.21090650558472</v>
+        <v>107.0792078971863</v>
       </c>
     </row>
   </sheetData>
@@ -13345,13 +13435,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>143627.140625</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>275.3651123046875</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>139.6608734130859</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>378.9817154230531</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>195.7808613777161</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -13368,19 +13476,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>83303.1796875</v>
+        <v>98386</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>250.2394256591797</v>
+        <v>255.7977447509766</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>124.7283020019531</v>
+        <v>152.7552795410156</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>288.6229022227793</v>
+        <v>313.6654268484176</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>199.3212699890137</v>
+        <v>194.7170972824097</v>
       </c>
     </row>
   </sheetData>

--- a/data/performance_sheets/Full Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/Full Overall Model Peformance Results.xlsx
@@ -6018,19 +6018,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06174908347153276</v>
+        <v>0.05253967776280825</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.192308527661559</v>
+        <v>0.1699220639573905</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18195541472415.09</v>
+        <v>24051490087825.99</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.248493628633679</v>
+        <v>0.2292153523715378</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>40.17779523924031</v>
+        <v>36.07764476855518</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -6048,19 +6048,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.0585481076542865</v>
+        <v>0.0548553804278931</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1870059521267173</v>
+        <v>0.1748786460326634</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>17734163436222.64</v>
+        <v>23019230509547.93</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2419671623470559</v>
+        <v>0.2342122550762302</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>39.45670889551841</v>
+        <v>36.75540799449104</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -6076,53 +6076,53 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.06588760284681425</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.2036718796810998</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>22308494956307.67</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.2566858056979666</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>41.63703888019884</v>
+      </c>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>Support Vector Regressor</t>
+        </is>
+      </c>
+      <c r="J8" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K8" s="8" t="inlineStr">
+        <is>
           <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>0.07001295440570909</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>0.2080968474260523</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>23310476053402.05</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>0.2645996114995431</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>41.62522207798619</v>
-      </c>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>Support Vector Regressor</t>
-        </is>
-      </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K8" s="8" t="inlineStr">
-        <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
-        </is>
-      </c>
       <c r="L8" s="8" t="n">
-        <v>0.07001295440570909</v>
+        <v>0.05643121587813288</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.2080968474260523</v>
+        <v>0.1673050332671004</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>23310476053402.05</v>
+        <v>23572003775217.44</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2645996114995431</v>
+        <v>0.2375525539288788</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>41.62522207798619</v>
+        <v>35.09650115132249</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -6138,23 +6138,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0712915219945261</v>
+        <v>0.06941764983212015</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2091504123057637</v>
+        <v>0.2076496524564732</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23820157658679.84</v>
+        <v>23265884979376.27</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.267004722794422</v>
+        <v>0.2634722942400589</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>41.61081967385951</v>
+        <v>41.69122791166897</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -6168,23 +6168,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.0712915219945261</v>
+        <v>0.06941764983212015</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2091504123057637</v>
+        <v>0.2076496524564732</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>23820157658679.84</v>
+        <v>23265884979376.27</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.267004722794422</v>
+        <v>0.2634722942400589</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>41.61081967385951</v>
+        <v>41.69122791166897</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -6193,25 +6193,61 @@
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>{'weights': 'distance', 'n_neighbors': 7}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.05094735283568413</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.165721024291073</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>25789556645734.67</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.2257152029343264</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>35.61459110981368</v>
+      </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="J10" s="8" t="n"/>
-      <c r="K10" s="8" t="n"/>
-      <c r="L10" s="8" t="n"/>
-      <c r="M10" s="8" t="n"/>
-      <c r="N10" s="8" t="n"/>
-      <c r="O10" s="8" t="n"/>
-      <c r="P10" s="8" t="n"/>
+      <c r="J10" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K10" s="8" t="inlineStr">
+        <is>
+          <t>{'weights': 'distance', 'n_neighbors': 8}</t>
+        </is>
+      </c>
+      <c r="L10" s="8" t="n">
+        <v>0.05304560143027154</v>
+      </c>
+      <c r="M10" s="8" t="n">
+        <v>0.168055052661964</v>
+      </c>
+      <c r="N10" s="8" t="n">
+        <v>25516569297431.65</v>
+      </c>
+      <c r="O10" s="8" t="n">
+        <v>0.2303163073476812</v>
+      </c>
+      <c r="P10" s="8" t="n">
+        <v>36.08161153028549</v>
+      </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -6226,23 +6262,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0687784602569871</v>
+        <v>0.4071685252083867</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2076922608086926</v>
+        <v>0.5977965455980159</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22597307924610.59</v>
+        <v>2539126614438.93</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2622564780076694</v>
+        <v>0.6380975828260022</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>41.80499058068589</v>
+        <v>175.6993525143543</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -6256,23 +6292,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.0687784602569871</v>
+        <v>0.4317270802952906</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.2076922608086926</v>
+        <v>0.6155312466810084</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>22597307924610.59</v>
+        <v>305116696643.8648</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2622564780076694</v>
+        <v>0.6570594191511834</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>41.80499058068589</v>
+        <v>180.5237669354352</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -6374,19 +6410,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.07119919823823639</v>
+        <v>0.0549870842980941</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2025918399353073</v>
+        <v>0.1670005533702875</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20920963751403.14</v>
+        <v>24430960220267.93</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2668317789136751</v>
+        <v>0.234493250005398</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>40.91251359452151</v>
+        <v>35.55248782425399</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -6400,23 +6436,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.07119919823823639</v>
+        <v>0.05449537718144689</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2025918399353073</v>
+        <v>0.1626326345631527</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>20920963751403.14</v>
+        <v>24623249046951.65</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2668317789136751</v>
+        <v>0.2334424493990904</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>40.91251359452151</v>
+        <v>35.01410814257676</v>
       </c>
     </row>
     <row r="14">
@@ -6432,53 +6468,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.07198560876908359</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.2098676069714729</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>19643473954661.26</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.2683013394843261</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>42.46657750109907</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>0.06704228989372039</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.2010164231783535</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>22911594737037.9</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.2589252592809755</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>40.64724937051418</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>0.06704228989372039</v>
+        <v>0.06666238788706405</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2010164231783535</v>
+        <v>0.1853426304505489</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>22911594737037.9</v>
+        <v>25218221760220.82</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2589252592809755</v>
+        <v>0.2581906037931359</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>40.64724937051418</v>
+        <v>37.49862511485526</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -6494,23 +6530,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0867574684126429</v>
+        <v>0.06877041895116603</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2323551412630106</v>
+        <v>0.2079724546318016</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20763339771301.88</v>
+        <v>22741728982788.67</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2945462076018684</v>
+        <v>0.2622411465639327</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>47.63430226067496</v>
+        <v>41.92446627920992</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -6524,23 +6560,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.0867574684126429</v>
+        <v>0.07331716143433538</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.2323551412630106</v>
+        <v>0.1869855793101609</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>20763339771301.88</v>
+        <v>31890060239229.74</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2945462076018684</v>
+        <v>0.2707714191607662</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>47.63430226067496</v>
+        <v>43.16320252781824</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -6556,23 +6592,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.074372333225477</v>
+        <v>0.0656044781082953</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2002136780225424</v>
+        <v>0.1861987785821253</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21310110089734.93</v>
+        <v>22741746093678.11</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2727129135656708</v>
+        <v>0.2561337113858605</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>40.24294806395582</v>
+        <v>39.06825762582704</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -6586,23 +6622,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.074372333225477</v>
+        <v>0.06445616494912365</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.2002136780225424</v>
+        <v>0.1775876350613758</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>21310110089734.93</v>
+        <v>24365394159767.64</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2727129135656708</v>
+        <v>0.2538821871442021</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>40.24294806395582</v>
+        <v>37.3396871143453</v>
       </c>
     </row>
     <row r="17">
@@ -6673,25 +6709,61 @@
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.0626827838182481</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.1909757640009747</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>24468852857692.6</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.2503653007472244</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>39.09707087277256</v>
+      </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="J18" s="8" t="n"/>
-      <c r="K18" s="8" t="n"/>
-      <c r="L18" s="8" t="n"/>
-      <c r="M18" s="8" t="n"/>
-      <c r="N18" s="8" t="n"/>
-      <c r="O18" s="8" t="n"/>
-      <c r="P18" s="8" t="n"/>
+      <c r="J18" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="8" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="L18" s="8" t="n">
+        <v>0.06353237494212084</v>
+      </c>
+      <c r="M18" s="8" t="n">
+        <v>0.1924126671246724</v>
+      </c>
+      <c r="N18" s="8" t="n">
+        <v>25200935097033.93</v>
+      </c>
+      <c r="O18" s="8" t="n">
+        <v>0.2520562932007865</v>
+      </c>
+      <c r="P18" s="8" t="n">
+        <v>39.2920128251878</v>
+      </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
       <c r="A19" s="6" t="inlineStr">
@@ -6706,23 +6778,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.06690302014215389</v>
+        <v>0.05693477310678818</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.1971537240452923</v>
+        <v>0.1736884309603478</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22129359378779.39</v>
+        <v>23701165638493.09</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.2586561813337427</v>
+        <v>0.2386100859284623</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>39.91373680825029</v>
+        <v>36.9172240926133</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -6736,23 +6808,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>0.06690302014215389</v>
+        <v>0.0551270389387325</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.1971537240452923</v>
+        <v>0.1740449039198513</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>22129359378779.39</v>
+        <v>24134269318240.45</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>0.2586561813337427</v>
+        <v>0.2347914796979066</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>39.91373680825029</v>
+        <v>37.13818717184359</v>
       </c>
     </row>
     <row r="20">
@@ -6772,19 +6844,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06361566152830569</v>
+        <v>0.06430551672038304</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1909349698631081</v>
+        <v>0.1863814011900243</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20469512420159.59</v>
+        <v>24353816854050.33</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2522214533466687</v>
+        <v>0.2535853243395269</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>39.07983097211618</v>
+        <v>39.31364039297026</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -6798,23 +6870,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.06361566152830569</v>
+        <v>0.05243185160563125</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1909349698631081</v>
+        <v>0.1667884294028937</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>20469512420159.59</v>
+        <v>29970865835159.99</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2522214533466687</v>
+        <v>0.2289800244685795</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>39.07983097211618</v>
+        <v>36.23183920292782</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -6916,19 +6988,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09830854</v>
+        <v>0.09018891304731369</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.24577032</v>
+        <v>0.2348652929067612</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20876863000000</v>
+        <v>24012996476928</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3135419284253385</v>
+        <v>0.3003146900291654</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>47.11275398731232</v>
+        <v>43.71979534626007</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -6942,23 +7014,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.086269364</v>
+        <v>0.08012377470731735</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.23781684</v>
+        <v>0.2221615463495255</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>28833594000000</v>
+        <v>28620254871552</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2937164683175735</v>
+        <v>0.2830614327444086</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>45.33587396144867</v>
+        <v>42.7346795797348</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -6974,23 +7046,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07687679</v>
+        <v>0.08270551264286041</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2196623</v>
+        <v>0.2333091497421265</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19159788000000</v>
+        <v>14124090130432</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2772666394131038</v>
+        <v>0.2875856613999739</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>48.72972667217255</v>
+        <v>56.91015124320984</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -7008,19 +7080,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.075978294</v>
+        <v>0.04509448260068893</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.20845337</v>
+        <v>0.1606129258871078</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>20299990000000</v>
+        <v>25560468160512</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2756416042888495</v>
+        <v>0.2123546152092978</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>53.40813994407654</v>
+        <v>46.16995751857758</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7040,19 +7112,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1570189.125</v>
+        <v>8.987408638000488</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>935.0435180664062</v>
+        <v>2.218357086181641</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.879845821939712e+16</v>
+        <v>65250258845696</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1253.071875432531</v>
+        <v>2.997900705160277</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>199.3383169174194</v>
+        <v>144.3406820297241</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7070,19 +7142,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.08536615967750549</v>
+        <v>0.118128277361393</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2218408435583115</v>
+        <v>0.2831460535526276</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>26596777918464</v>
+        <v>15399434321920</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2921748785873034</v>
+        <v>0.3436979449478756</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>42.37925112247467</v>
+        <v>61.36322617530823</v>
       </c>
     </row>
   </sheetData>
@@ -7256,19 +7328,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06074000608804839</v>
+        <v>0.05443918733772966</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1894361328630519</v>
+        <v>0.1751891967885389</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10495979358718.85</v>
+        <v>14202488282397.36</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2464548763730359</v>
+        <v>0.2333220678327056</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>39.47296784898715</v>
+        <v>36.9312452091748</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -7286,19 +7358,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05510913421459315</v>
+        <v>0.05265624867925615</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1785946414155181</v>
+        <v>0.1730078906911544</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>10855327285601.75</v>
+        <v>13708855453089.93</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2347533476110472</v>
+        <v>0.2294694940057526</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>37.97161387076248</v>
+        <v>36.46365337007336</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -7314,23 +7386,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.01, 'C': 10}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.063202032790822</v>
+        <v>0.05280819208792005</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1892243802955265</v>
+        <v>0.1558867725270163</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12591819318918.93</v>
+        <v>14425843525271.91</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2514001447708852</v>
+        <v>0.2298003309134259</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>38.71215334847732</v>
+        <v>33.16556655853873</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -7344,23 +7416,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.01, 'C': 10}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.063202032790822</v>
+        <v>0.0527230752140582</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1892243802955265</v>
+        <v>0.1569086436890882</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>12591819318918.93</v>
+        <v>14288158622321.66</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2514001447708852</v>
+        <v>0.2296150587702344</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>38.71215334847732</v>
+        <v>33.35219881522092</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -7380,10 +7452,10 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0697820558722437</v>
+        <v>0.06978205587224372</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2086064782488955</v>
+        <v>0.2086064782488956</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>13365456484201.6</v>
@@ -7410,10 +7482,10 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.0697820558722437</v>
+        <v>0.06978205587224372</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2086064782488955</v>
+        <v>0.2086064782488956</v>
       </c>
       <c r="N9" s="8" t="n">
         <v>13365456484201.6</v>
@@ -7442,19 +7514,19 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.061350206918324</v>
+        <v>0.05523683206232659</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1958214421793141</v>
+        <v>0.1742563751050502</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8984211354743.141</v>
+        <v>12368500992738.4</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.2476897392269693</v>
+        <v>0.2350251732524127</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>41.1099314222748</v>
+        <v>36.85344580200847</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -7468,23 +7540,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 5}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.061350206918324</v>
+        <v>0.05251456904841247</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.1958214421793141</v>
+        <v>0.1664231961000436</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>8984211354743.141</v>
+        <v>10527129858450.39</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.2476897392269693</v>
+        <v>0.2291605748125372</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>41.1099314222748</v>
+        <v>35.91610978601727</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -7500,23 +7572,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06880470405569319</v>
+        <v>0.06054999521891014</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2088670127563496</v>
+        <v>0.1923453789798529</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12876656678452.67</v>
+        <v>12723335114857.87</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2623065078409098</v>
+        <v>0.2460690862723519</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>42.11389917320971</v>
+        <v>41.44639080240289</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -7530,23 +7602,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.06880470405569319</v>
+        <v>0.05891154264569035</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.2088670127563496</v>
+        <v>0.1913226711311966</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>12876656678452.67</v>
+        <v>12203275820952.18</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2623065078409098</v>
+        <v>0.242717001146789</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>42.11389917320971</v>
+        <v>41.29030756144646</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -7644,23 +7716,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.062220751089684</v>
+        <v>0.05210595928908156</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1983605816591399</v>
+        <v>0.1645517016631779</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9768678391955.057</v>
+        <v>13222991763598.73</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2494408769421805</v>
+        <v>0.2282672978967455</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>41.75945942616405</v>
+        <v>35.18905018883268</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -7674,23 +7746,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.062220751089684</v>
+        <v>0.05137658338919855</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1983605816591399</v>
+        <v>0.1634323796562357</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>9768678391955.057</v>
+        <v>12677193943371.94</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2494408769421805</v>
+        <v>0.2266640319706648</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>41.75945942616405</v>
+        <v>34.98461742836965</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -7706,23 +7778,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearRegression()}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06681354163001429</v>
+        <v>0.07282082177511878</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1978063541518566</v>
+        <v>0.2018864355631759</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12683376750133.75</v>
+        <v>13596413590103.04</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2584831554086539</v>
+        <v>0.2698533338225022</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>40.34680971895117</v>
+        <v>41.65347074048167</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -7736,23 +7808,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearRegression()}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.06681354163001429</v>
+        <v>0.06154785999748098</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1978063541518566</v>
+        <v>0.1771408501036135</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>12683376750133.75</v>
+        <v>14506233491107.32</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2584831554086539</v>
+        <v>0.2480884116549602</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>40.34680971895117</v>
+        <v>36.3807546758239</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -7768,23 +7840,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06897546997040641</v>
+        <v>0.05402170852783912</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2092647386364577</v>
+        <v>0.1696005565132164</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12900451311376.42</v>
+        <v>12541648486214.27</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2626318144673384</v>
+        <v>0.2324257053938723</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>42.17415635637794</v>
+        <v>36.49208629997641</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -7798,23 +7870,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.06897546997040641</v>
+        <v>0.05392483579068001</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.2092647386364577</v>
+        <v>0.1644905739064693</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>12900451311376.42</v>
+        <v>13717903212900.3</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2626318144673384</v>
+        <v>0.2322172168265738</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>42.17415635637794</v>
+        <v>35.61226744845732</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -7830,23 +7902,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.0653150364006324</v>
+        <v>0.06239447283710839</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2052922348589666</v>
+        <v>0.1802008609410759</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9293277183477.449</v>
+        <v>14132464283092.76</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2555680660814891</v>
+        <v>0.2497888565110709</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>43.05926014233141</v>
+        <v>37.93702373911515</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -7860,23 +7932,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.0653150364006324</v>
+        <v>0.06200776750952683</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.2052922348589666</v>
+        <v>0.1803737076767393</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>9293277183477.449</v>
+        <v>14132464283092.76</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2555680660814891</v>
+        <v>0.2490135890057545</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>43.05926014233141</v>
+        <v>37.96396195760606</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -7954,23 +8026,23 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+          <t>{'n_estimators': 30, 'max_samples': 0.9, 'max_features': 0.7000000000000001}</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0649967027936396</v>
+        <v>0.05904332740584625</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2030153822571324</v>
+        <v>0.1792647649604842</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10471550533875.67</v>
+        <v>12504514537551</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2549445092439522</v>
+        <v>0.2429883277152346</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>41.72159817588313</v>
+        <v>37.80383312514954</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -7984,23 +8056,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+          <t>{'n_estimators': 30, 'max_samples': 0.9, 'max_features': 0.7000000000000001}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.0649967027936396</v>
+        <v>0.05882209355200674</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.2030153822571324</v>
+        <v>0.1782284947872332</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>10471550533875.67</v>
+        <v>12231609061603.71</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2549445092439522</v>
+        <v>0.2425326649175462</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>41.72159817588313</v>
+        <v>37.50908976812512</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -8016,23 +8088,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.0614167043201163</v>
+        <v>0.05300325575432811</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.1917763367932404</v>
+        <v>0.1689724614618462</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10498256310012.34</v>
+        <v>12207029487493.38</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.2478239381498815</v>
+        <v>0.2302243596023846</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>39.7902195619598</v>
+        <v>35.95661230910368</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -8046,23 +8118,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>0.0614167043201163</v>
+        <v>0.05368393818451605</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.1917763367932404</v>
+        <v>0.1653500145266465</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>10498256310012.34</v>
+        <v>12241993869896.44</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>0.2478239381498815</v>
+        <v>0.23169794600841</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>39.7902195619598</v>
+        <v>35.33323757350401</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -8078,23 +8150,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0643116649865067</v>
+        <v>0.05908531620144157</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2000688177809297</v>
+        <v>0.1795249098829797</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10879819377745.03</v>
+        <v>12498336763591.29</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2535974467271047</v>
+        <v>0.2430747132085968</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>41.05758714074354</v>
+        <v>37.51034205668206</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -8108,23 +8180,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.0643116649865067</v>
+        <v>0.05949439586097059</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2000688177809297</v>
+        <v>0.1817989215446924</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>10879819377745.03</v>
+        <v>13242083654422.06</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2535974467271047</v>
+        <v>0.2439147307174591</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>41.05758714074354</v>
+        <v>37.9466085371561</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -8222,23 +8294,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.08111489600000001</v>
+        <v>0.0996219739317894</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.21995363</v>
+        <v>0.2400808036327362</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15092488000000</v>
+        <v>12124043608064</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2848067689536254</v>
+        <v>0.3156294883748814</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>42.48289167881012</v>
+        <v>45.71013450622559</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8252,23 +8324,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0831447</v>
+        <v>0.07513701170682907</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.22353762</v>
+        <v>0.220344603061676</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>15265838000000</v>
+        <v>15935236734976</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2883482304736883</v>
+        <v>0.2741113126210392</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>42.57968664169312</v>
+        <v>43.14911067485809</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8288,19 +8360,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0962443</v>
+        <v>0.05047447979450226</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.23973066</v>
+        <v>0.1669769883155823</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17029842000000</v>
+        <v>14142641537024</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3102326512823199</v>
+        <v>0.2246652616549836</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>43.15407574176788</v>
+        <v>50.45967102050781</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8314,23 +8386,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.09883222999999999</v>
+        <v>0.05187646672129631</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.24369805</v>
+        <v>0.1606882810592651</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>17085143000000</v>
+        <v>14563838787584</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3143759330637074</v>
+        <v>0.227764059327402</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>43.36159229278564</v>
+        <v>44.58121061325073</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8350,19 +8422,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1155563294887543</v>
+        <v>0.1268691569566727</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2544458508491516</v>
+        <v>0.2969693839550018</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16896940310528</v>
+        <v>9573719080960</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3399357725935214</v>
+        <v>0.3561869691000397</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>45.32595276832581</v>
+        <v>62.7015233039856</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8380,19 +8452,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.07367836683988571</v>
+        <v>0.09358349442481995</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2085064202547073</v>
+        <v>0.2371340543031693</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>13986382741504</v>
+        <v>11645530144768</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.271437592900994</v>
+        <v>0.3059141945461504</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>41.18896722793579</v>
+        <v>48.9871084690094</v>
       </c>
     </row>
   </sheetData>
@@ -8566,19 +8638,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05933420239925919</v>
+        <v>0.04848258853026455</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1867756425119486</v>
+        <v>0.1637905755457839</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12661804949245.79</v>
+        <v>15197250218988.86</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2435861293244326</v>
+        <v>0.2201876212012486</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>39.3098518130661</v>
+        <v>35.31630090095693</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -8596,19 +8668,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05438132238028465</v>
+        <v>0.04769515659999918</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1758791348672096</v>
+        <v>0.1616997828133915</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>13058902768974.6</v>
+        <v>15182197709246.94</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2331980325394806</v>
+        <v>0.2183922081943382</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>37.58283355562038</v>
+        <v>34.93359880452692</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -8624,23 +8696,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0685195201860918</v>
+        <v>0.04680531708616901</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.209449034824606</v>
+        <v>0.1470763396314098</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28773471740342.18</v>
+        <v>16001620084872.05</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2617623353083706</v>
+        <v>0.2163453652985638</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>42.38047784368912</v>
+        <v>32.23654891282667</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -8654,23 +8726,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.01, 'C': 10}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.064824569630878</v>
+        <v>0.04686146407698567</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.19331745578284</v>
+        <v>0.1467967032855518</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>30038780443480.61</v>
+        <v>16096090031997.55</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2546066959663041</v>
+        <v>0.2164750888138995</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>39.34889162775258</v>
+        <v>32.16987442280362</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -8690,19 +8762,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0696707191003918</v>
+        <v>0.06995819863572622</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2088153244282614</v>
+        <v>0.208772364909574</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30045609963251.31</v>
+        <v>15444527492855.01</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2639521151655956</v>
+        <v>0.2644961221563111</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>41.93381632797614</v>
+        <v>41.91056763006082</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -8720,19 +8792,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.0696707191003918</v>
+        <v>0.06995819863572622</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2088153244282614</v>
+        <v>0.208772364909574</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>30045609963251.31</v>
+        <v>15444527492855.01</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2639521151655956</v>
+        <v>0.2644961221563111</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>41.93381632797614</v>
+        <v>41.91056763006082</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -8752,19 +8824,19 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.05826691756827131</v>
+        <v>0.05063944356701846</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1824877495837984</v>
+        <v>0.1630454605997279</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22490669117788.94</v>
+        <v>14661891925017.9</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.2413854129152615</v>
+        <v>0.2250320945265774</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>38.45264245217578</v>
+        <v>35.1691567626481</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -8778,23 +8850,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+          <t>{'weights': 'distance', 'n_neighbors': 8}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.05826691756827131</v>
+        <v>0.04772898419894043</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.1824877495837984</v>
+        <v>0.1585049728592253</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>22490669117788.94</v>
+        <v>13100060729109.76</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.2413854129152615</v>
+        <v>0.2184696413668051</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>38.45264245217578</v>
+        <v>34.63530106847083</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -8810,23 +8882,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1129881.566350883</v>
+        <v>0.04927847158618509</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>858.5635889672579</v>
+        <v>0.1684867861204069</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4078663775217837</v>
+        <v>14607153802956.96</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1062.958873311137</v>
+        <v>0.2219875482683321</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>198.7805060408188</v>
+        <v>36.29601411589745</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -8840,23 +8912,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.0687469884167827</v>
+        <v>0.0480318392838044</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.2086123135187952</v>
+        <v>0.1633683008899421</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>29357592472703.24</v>
+        <v>15024147930766.91</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2621964691157811</v>
+        <v>0.2191616738478797</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>42.08337307616088</v>
+        <v>35.27130279791442</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -8954,23 +9026,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 50}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.061474645842844</v>
+        <v>0.04614386280500057</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.172783333771541</v>
+        <v>0.1566392635969401</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29155878701409.14</v>
+        <v>12785422275569.71</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2479408111683997</v>
+        <v>0.2148112259752748</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>35.62791254734065</v>
+        <v>34.34640105404149</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -8984,23 +9056,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.0710079625914885</v>
+        <v>0.04448099455231933</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1894552825349959</v>
+        <v>0.1538487875984645</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>24319859594717.39</v>
+        <v>12764467838616.62</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2664731930072676</v>
+        <v>0.2109051790552317</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>38.45532521863888</v>
+        <v>33.97765180193693</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -9020,19 +9092,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0682405800728928</v>
+        <v>0.06942252016095599</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1935073837887909</v>
+        <v>0.2024255031351412</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33400511954485.85</v>
+        <v>18515781361168.84</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2612289801551368</v>
+        <v>0.2634815366604575</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>39.4274931190259</v>
+        <v>40.61269944376638</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -9050,19 +9122,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.0654178995295934</v>
+        <v>0.07876367108165569</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1963869092388138</v>
+        <v>0.2071388029417738</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>29456402959229.4</v>
+        <v>21094243296090.41</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.255769231006377</v>
+        <v>0.2806486612860565</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>39.90117930403997</v>
+        <v>40.51310080726503</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -9078,23 +9150,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0688863586187215</v>
+        <v>0.04982967369376075</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2089631462553461</v>
+        <v>0.1664298751590317</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>29368713870653.49</v>
+        <v>9347525638445.611</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2624621089199764</v>
+        <v>0.2232256116438272</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>42.14102180393471</v>
+        <v>37.10762738334516</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -9112,19 +9184,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.0882007312774155</v>
+        <v>0.04922370208700146</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.2072706096848054</v>
+        <v>0.1656447026166698</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>21226413779654.12</v>
+        <v>7291636698871.628</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2969860792653681</v>
+        <v>0.2218641523252494</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>41.44953876114905</v>
+        <v>36.47691771164002</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -9140,23 +9212,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.0634553179415689</v>
+        <v>0.04923778639844863</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1771384664103444</v>
+        <v>0.1622355627160666</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35055770555873.53</v>
+        <v>10214359237771.9</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2519033900954271</v>
+        <v>0.2218958909003243</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>36.229055097016</v>
+        <v>35.75031199160846</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -9174,19 +9246,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.0749858109235074</v>
+        <v>0.04845741319603542</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.2020474038174773</v>
+        <v>0.1607961738768716</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>23759202351103.88</v>
+        <v>10157051564053.46</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2738353719363286</v>
+        <v>0.2201304458634367</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>41.67271615249867</v>
+        <v>35.42238988765104</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -9264,53 +9336,53 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 30, 'max_samples': 0.9, 'max_features': 0.7000000000000001}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.05061928497732193</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.168166854284792</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>13328391816253.51</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.224987299591159</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>36.3644722827986</v>
+      </c>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>BaggingRegressor</t>
+        </is>
+      </c>
+      <c r="J18" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
-        <v>0.06068035059434203</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>0.1879509119332573</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>23627561244459.81</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>0.2463338194287216</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>38.82995165234105</v>
-      </c>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>BaggingRegressor</t>
-        </is>
-      </c>
-      <c r="J18" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K18" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
-        </is>
-      </c>
       <c r="L18" s="8" t="n">
-        <v>0.06068035059434203</v>
+        <v>0.05575817994820381</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1879509119332573</v>
+        <v>0.1789142435076832</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>23627561244459.81</v>
+        <v>13792147987328.88</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2463338194287216</v>
+        <v>0.2361317004305094</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>38.82995165234105</v>
+        <v>37.67562939412208</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -9330,19 +9402,19 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.0597538065222326</v>
+        <v>0.05115867033131246</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.1784119904305882</v>
+        <v>0.1677488815345489</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27311292002221.36</v>
+        <v>14398522589410.16</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.2444459173768967</v>
+        <v>0.2261828250139972</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>37.12695595201824</v>
+        <v>36.30512832106753</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -9360,19 +9432,19 @@
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>0.0602412625931223</v>
+        <v>0.05226510950933341</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.178870130444412</v>
+        <v>0.1738540780450246</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>24229127242696.21</v>
+        <v>11261052813978.91</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>0.2454409554111179</v>
+        <v>0.2286156370621516</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>37.07148381362333</v>
+        <v>37.37601286846976</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -9388,23 +9460,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06486672539678839</v>
+        <v>0.05253805718651611</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1975051507537915</v>
+        <v>0.1737304517589407</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31102360701525.06</v>
+        <v>12924560244010.18</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2546894685627743</v>
+        <v>0.2292118172924688</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>40.09146706031665</v>
+        <v>37.19950158430649</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -9418,23 +9490,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.0598918267484471</v>
+        <v>0.05306054749151554</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1834300678564669</v>
+        <v>0.1728071257704071</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>22544755263556.47</v>
+        <v>14026771139426.9</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2447280669405272</v>
+        <v>0.2303487518774859</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>38.24561930813176</v>
+        <v>36.90364631632316</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -9532,23 +9604,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.081434354</v>
+        <v>0.07734453678131104</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.22347084</v>
+        <v>0.2196037322282791</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16946264000000</v>
+        <v>21838446985216</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2853670516826672</v>
+        <v>0.2781088577900945</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>43.27279031276703</v>
+        <v>45.7368016242981</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -9562,23 +9634,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.08531134</v>
+        <v>0.07847968488931656</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.23283719</v>
+        <v>0.2208255082368851</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>18648460000000</v>
+        <v>18747496595456</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2920810474944811</v>
+        <v>0.2801422583069476</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>43.38759183883667</v>
+        <v>43.43001842498779</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9598,19 +9670,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08985051500000001</v>
+        <v>0.0471879243850708</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.22894438</v>
+        <v>0.1595170795917511</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16820916000000</v>
+        <v>15704168333312</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.299750755006859</v>
+        <v>0.2172278167847543</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>48.23304712772369</v>
+        <v>46.59016132354736</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -9624,23 +9696,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.10083744</v>
+        <v>0.04479999467730522</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.24294575</v>
+        <v>0.1530840545892715</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>9720643000000</v>
+        <v>18063917318144</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3175491132071222</v>
+        <v>0.2116600923114823</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>55.39599061012268</v>
+        <v>45.56885063648224</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9660,19 +9732,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07078304886817932</v>
+        <v>0.1901758760213852</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2053147405385971</v>
+        <v>0.3251546323299408</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15195095171072</v>
+        <v>20518413533184</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2660508388789243</v>
+        <v>0.4360915913215768</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>41.10348224639893</v>
+        <v>58.17691087722778</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9690,19 +9762,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.09402531385421753</v>
+        <v>0.2114779353141785</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2319244742393494</v>
+        <v>0.3242992460727692</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>18342733676544</v>
+        <v>18824019574784</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.3066354739005543</v>
+        <v>0.4598673018536744</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>43.39045286178589</v>
+        <v>52.98988223075867</v>
       </c>
     </row>
   </sheetData>
@@ -9876,19 +9948,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.015750082796976</v>
+        <v>0.9656589461880399</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6066558687788515</v>
+        <v>0.5648568606451005</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5862300275166973</v>
+        <v>0.5358661332676364</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.007844275072779</v>
+        <v>0.9826794727621209</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>28.81050230021024</v>
+        <v>27.4231922981018</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -9906,19 +9978,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.017063913528057</v>
+        <v>0.9921834727052745</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.6129706079333996</v>
+        <v>0.5814207402953766</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.5843050751585862</v>
+        <v>0.5420305569876501</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.008495866886948</v>
+        <v>0.9960840690952117</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>29.11321109480811</v>
+        <v>28.13136959592662</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -9934,53 +10006,53 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
+          <t>{'kernel': 'rbf', 'gamma': 0.001, 'C': 1}</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.044915402939508</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.5616687324481977</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.6190927918969164</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>1.022211036400756</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>26.40906237579404</v>
+      </c>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>Support Vector Regressor</t>
+        </is>
+      </c>
+      <c r="J8" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K8" s="8" t="inlineStr">
+        <is>
           <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>1.027474049632611</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>0.524910014600343</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>0.6389845016115663</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>1.013643946182589</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>25.12129026291678</v>
-      </c>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>Support Vector Regressor</t>
-        </is>
-      </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K8" s="8" t="inlineStr">
-        <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
-        </is>
-      </c>
       <c r="L8" s="8" t="n">
-        <v>1.027474049632611</v>
+        <v>1.057538534050795</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.524910014600343</v>
+        <v>0.4689528280507154</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.6389845016115663</v>
+        <v>0.6186215386520327</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>1.013643946182589</v>
+        <v>1.02836692578612</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>25.12129026291678</v>
+        <v>22.5304101942567</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -10000,19 +10072,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.113313984971354</v>
+        <v>1.112639544630348</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5416810985909501</v>
+        <v>0.5424746026230743</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6544856386914842</v>
+        <v>0.6418027872274542</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.055136950813189</v>
+        <v>1.054817303911131</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>25.18958207977752</v>
+        <v>25.29758362300997</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -10030,19 +10102,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>1.113313984971354</v>
+        <v>1.112639544630348</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.5416810985909501</v>
+        <v>0.5424746026230743</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6544856386914842</v>
+        <v>0.6418027872274542</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>1.055136950813189</v>
+        <v>1.054817303911131</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>25.18958207977752</v>
+        <v>25.29758362300997</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -10051,25 +10123,61 @@
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>{'weights': 'distance', 'n_neighbors': 7}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.9843881810469539</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5191224675842701</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.5436678177232366</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.9921633842502725</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>25.36425507020322</v>
+      </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="J10" s="8" t="n"/>
-      <c r="K10" s="8" t="n"/>
-      <c r="L10" s="8" t="n"/>
-      <c r="M10" s="8" t="n"/>
-      <c r="N10" s="8" t="n"/>
-      <c r="O10" s="8" t="n"/>
-      <c r="P10" s="8" t="n"/>
+      <c r="J10" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K10" s="8" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 5}</t>
+        </is>
+      </c>
+      <c r="L10" s="8" t="n">
+        <v>1.061010159559764</v>
+      </c>
+      <c r="M10" s="8" t="n">
+        <v>0.5390050347444275</v>
+      </c>
+      <c r="N10" s="8" t="n">
+        <v>0.5615314239089797</v>
+      </c>
+      <c r="O10" s="8" t="n">
+        <v>1.030053474126351</v>
+      </c>
+      <c r="P10" s="8" t="n">
+        <v>25.87800274677929</v>
+      </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -10084,23 +10192,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.033020940205857</v>
+        <v>6.894483333922859</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.454549821227147</v>
+        <v>2.545216089523688</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.13498568019083</v>
+        <v>1.076479714555107</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.65198434011324</v>
+        <v>2.625734817898194</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>151.2841129256223</v>
+        <v>181.7480495002876</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -10114,23 +10222,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>7.033020940205857</v>
+        <v>1.072964544068604</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.454549821227147</v>
+        <v>0.7134034357049143</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.13498568019083</v>
+        <v>0.5408984937581707</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.65198434011324</v>
+        <v>1.035840018568796</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>151.2841129256223</v>
+        <v>35.41219018135823</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -10232,19 +10340,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.043974282015984</v>
+        <v>1.02833591176188</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5294383003202626</v>
+        <v>0.5567460125766779</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6036247410871604</v>
+        <v>0.5740728151704733</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.021750596777895</v>
+        <v>1.014068987673856</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>25.29255081206069</v>
+        <v>27.00490390242657</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -10262,19 +10370,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>1.043974282015984</v>
+        <v>1.018419779386891</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.5294383003202626</v>
+        <v>0.5643681043700334</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.6036247410871604</v>
+        <v>0.5756957138496822</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>1.021750596777895</v>
+        <v>1.00916786482076</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>25.29255081206069</v>
+        <v>27.38361964961704</v>
       </c>
     </row>
     <row r="14">
@@ -10290,23 +10398,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.393183535597577</v>
+        <v>1.115443658930285</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6885829317904675</v>
+        <v>0.5558695720648356</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6937032396325961</v>
+        <v>0.6400277602584715</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.180331959915335</v>
+        <v>1.056145661795893</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>32.90972533239794</v>
+        <v>25.85262900401949</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -10320,23 +10428,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>1.393183535597577</v>
+        <v>1.067667069071156</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.6885829317904675</v>
+        <v>0.4902831369754035</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.6937032396325961</v>
+        <v>0.6186418130651398</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>1.180331959915335</v>
+        <v>1.03327976321573</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>32.90972533239794</v>
+        <v>23.31372561618674</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -10352,23 +10460,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.012016654664289</v>
+        <v>0.9969567365080164</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5448584960961512</v>
+        <v>0.5813804757966002</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.611393940757842</v>
+        <v>0.5939700044524512</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.005990384976064</v>
+        <v>0.9984772088075002</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>25.76562414462672</v>
+        <v>27.57003606414001</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -10382,23 +10490,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>1.012016654664289</v>
+        <v>1.000294603682005</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.5448584960961512</v>
+        <v>0.577962708780429</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.611393940757842</v>
+        <v>0.5950940587378842</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>1.005990384976064</v>
+        <v>1.000147290993684</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>25.76562414462672</v>
+        <v>27.37367864310223</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -10414,53 +10522,53 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.079129711806142</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.583146678094705</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.5996123972461365</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>1.038811682551819</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>28.14546845612651</v>
+      </c>
+      <c r="I16" s="9" t="inlineStr">
+        <is>
+          <t>Random Forest Regressor</t>
+        </is>
+      </c>
+      <c r="J16" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K16" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
-        <v>1.083021205869797</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>0.5139673215245034</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>0.6278788356980943</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>1.040683047747871</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>24.26015766040326</v>
-      </c>
-      <c r="I16" s="9" t="inlineStr">
-        <is>
-          <t>Random Forest Regressor</t>
-        </is>
-      </c>
-      <c r="J16" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K16" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
-        </is>
-      </c>
       <c r="L16" s="8" t="n">
-        <v>1.083021205869797</v>
+        <v>0.976743164596521</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.5139673215245034</v>
+        <v>0.5283245539457521</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.6278788356980943</v>
+        <v>0.5617375130066224</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.040683047747871</v>
+        <v>0.988303174434101</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>24.26015766040326</v>
+        <v>25.73830160599449</v>
       </c>
     </row>
     <row r="17">
@@ -10531,25 +10639,61 @@
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.008443835434186</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.5585519286122013</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.5858810276314609</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1.004213042852056</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>26.52373615406593</v>
+      </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="J18" s="8" t="n"/>
-      <c r="K18" s="8" t="n"/>
-      <c r="L18" s="8" t="n"/>
-      <c r="M18" s="8" t="n"/>
-      <c r="N18" s="8" t="n"/>
-      <c r="O18" s="8" t="n"/>
-      <c r="P18" s="8" t="n"/>
+      <c r="J18" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="8" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+        </is>
+      </c>
+      <c r="L18" s="8" t="n">
+        <v>0.996633999742087</v>
+      </c>
+      <c r="M18" s="8" t="n">
+        <v>0.5333060890961144</v>
+      </c>
+      <c r="N18" s="8" t="n">
+        <v>0.587884237595496</v>
+      </c>
+      <c r="O18" s="8" t="n">
+        <v>0.9983155812377602</v>
+      </c>
+      <c r="P18" s="8" t="n">
+        <v>25.44453866735202</v>
+      </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
       <c r="A19" s="6" t="inlineStr">
@@ -10564,23 +10708,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.9903394199520176</v>
+        <v>0.9891236908806017</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.5268645430659407</v>
+        <v>0.5574073405262424</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.5914776009739861</v>
+        <v>0.5522730777090593</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.99515798743316</v>
+        <v>0.9945469777142766</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>25.16094435238191</v>
+        <v>26.88033819276546</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -10594,23 +10738,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>0.9903394199520176</v>
+        <v>0.9698035709073333</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.5268645430659407</v>
+        <v>0.5408016106392715</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>0.5914776009739861</v>
+        <v>0.5292821408696405</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>0.99515798743316</v>
+        <v>0.9847860533675998</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>25.16094435238191</v>
+        <v>26.30444869711829</v>
       </c>
     </row>
     <row r="20">
@@ -10630,19 +10774,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.082788307631712</v>
+        <v>1.042562124939196</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5732629734146191</v>
+        <v>0.5930798514358416</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6267691938878917</v>
+        <v>0.585702281381933</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.04057114491596</v>
+        <v>1.021059315093494</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>27.32705339153427</v>
+        <v>28.93950026235381</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -10660,19 +10804,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.082788307631712</v>
+        <v>0.9969046315153698</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.5732629734146191</v>
+        <v>0.576417387790934</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6267691938878917</v>
+        <v>0.5566017701611941</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.04057114491596</v>
+        <v>0.9984511162372296</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>27.32705339153427</v>
+        <v>28.11501412500967</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -10774,19 +10918,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.1606338</v>
+        <v>1.190143465995789</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5791647</v>
+        <v>0.588148832321167</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.66625077</v>
+        <v>0.6504221558570862</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.077327156630678</v>
+        <v>1.090936967013121</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>26.45188271999359</v>
+        <v>26.36680603027344</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10804,19 +10948,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>1.144591</v>
+        <v>1.154731631278992</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5455089</v>
+        <v>0.5501517057418823</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6531915700000001</v>
+        <v>0.6580873727798462</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.069855585513328</v>
+        <v>1.074584399327941</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>25.28692483901977</v>
+        <v>25.52742660045624</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10836,19 +10980,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9453059</v>
+        <v>1.0558021068573</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5343669</v>
+        <v>0.6159576773643494</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5970517400000001</v>
+        <v>0.6127759218215942</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9722684217254152</v>
+        <v>1.027522314530103</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>27.43820250034332</v>
+        <v>28.07215452194214</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -10866,19 +11010,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.9568708</v>
+        <v>0.9878138303756714</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.5024531</v>
+        <v>0.4893635213375092</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.56751126</v>
+        <v>0.5747206211090088</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.9781977276073917</v>
+        <v>0.9938882383727414</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>26.21111869812012</v>
+        <v>27.57749855518341</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -10898,19 +11042,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.123035907745361</v>
+        <v>10.42992115020752</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.556629657745361</v>
+        <v>2.449901580810547</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.077254891395569</v>
+        <v>1.544145107269287</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.030526017500234</v>
+        <v>3.229538844820963</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>72.51974940299988</v>
+        <v>95.23602724075317</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -10928,19 +11072,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>8.478296279907227</v>
+        <v>2.124822616577148</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>2.092322587966919</v>
+        <v>0.9808981418609619</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.43266499042511</v>
+        <v>0.8455535769462585</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>2.911751411076712</v>
+        <v>1.457677130429489</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>68.86172890663147</v>
+        <v>39.29872810840607</v>
       </c>
     </row>
   </sheetData>
@@ -11114,19 +11258,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9299373279473178</v>
+        <v>0.9271833975773037</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6143814748811495</v>
+        <v>0.6154563653220252</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.622566671639823</v>
+        <v>0.5998437544616433</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.9643325816062204</v>
+        <v>0.9629036283955439</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>29.60913265656649</v>
+        <v>30.00990566490543</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -11144,19 +11288,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.9225593677435714</v>
+        <v>0.8547730284846339</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.6133061986154063</v>
+        <v>0.5891803001731363</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.621546978829426</v>
+        <v>0.5719596858724327</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.9604995407305364</v>
+        <v>0.9245393601597683</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>29.63340560839874</v>
+        <v>28.93159369999703</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -11176,19 +11320,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.940729872937072</v>
+        <v>0.9435469444885979</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4987524745664352</v>
+        <v>0.4435598865569848</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.68863664434336</v>
+        <v>0.6557129311472549</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9699123016732348</v>
+        <v>0.9713634461356871</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>24.27512292299575</v>
+        <v>21.90710242655134</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -11206,19 +11350,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.940729872937072</v>
+        <v>0.9449074491608198</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.4987524745664352</v>
+        <v>0.4451502663813616</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.68863664434336</v>
+        <v>0.656025738848662</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.9699123016732348</v>
+        <v>0.9720635005805021</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>24.27512292299575</v>
+        <v>21.96452449997571</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -11300,19 +11444,19 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.9922040408970932</v>
+        <v>0.9909244831692333</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6564377337255369</v>
+        <v>0.6231276044306294</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6434484177833509</v>
+        <v>0.6471279891337687</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.9960943935677448</v>
+        <v>0.9954518989731413</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>31.84918869680577</v>
+        <v>30.15871128150704</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -11326,23 +11470,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+          <t>{'weights': 'distance', 'n_neighbors': 7}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.9922040408970932</v>
+        <v>0.9100312284511348</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.6564377337255369</v>
+        <v>0.5815290004455207</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.6434484177833509</v>
+        <v>0.6180597076814898</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.9960943935677448</v>
+        <v>0.9539555694324211</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>31.84918869680577</v>
+        <v>28.95704079115195</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -11358,23 +11502,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.843083788903978</v>
+        <v>0.9782519687559408</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.529263352748517</v>
+        <v>0.6930296964138338</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.040835711074039</v>
+        <v>0.5973046337407217</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.615928857768112</v>
+        <v>0.9890662105015724</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>189.4723383632694</v>
+        <v>33.94541007921846</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -11388,23 +11532,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>6.843083788903978</v>
+        <v>0.8848128554717921</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.529263352748517</v>
+        <v>0.6414147261124133</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.040835711074039</v>
+        <v>0.5683488306016204</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.615928857768112</v>
+        <v>0.9406449146579128</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>189.4723383632694</v>
+        <v>31.57630548449091</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -11506,19 +11650,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.000391939536133</v>
+        <v>1.002129471054336</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6404273383497538</v>
+        <v>0.5982715691596481</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6166687121868125</v>
+        <v>0.6177282836093798</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.000195950569754</v>
+        <v>1.001064169299019</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>31.30317715077548</v>
+        <v>29.83056493135736</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -11536,19 +11680,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>1.000391939536133</v>
+        <v>0.9900626710802766</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.6404273383497538</v>
+        <v>0.56594703610303</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.6166687121868125</v>
+        <v>0.6179327140592749</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>1.000195950569754</v>
+        <v>0.9950189300110207</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>31.30317715077548</v>
+        <v>28.18987541169837</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -11568,19 +11712,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.393349652388181</v>
+        <v>1.020481763311812</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8124508693280121</v>
+        <v>0.4967727073065361</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7402008504429526</v>
+        <v>0.6970360427585514</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.180402326492193</v>
+        <v>1.010188974059711</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>36.51955171581541</v>
+        <v>23.78528084813857</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -11598,19 +11742,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>1.393349652388181</v>
+        <v>0.9866286030650144</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.8124508693280121</v>
+        <v>0.4964141482511032</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.7402008504429526</v>
+        <v>0.6772214042311181</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>1.180402326492193</v>
+        <v>0.9932918015694152</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>36.51955171581541</v>
+        <v>23.90334728485969</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -11630,19 +11774,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9176162306668983</v>
+        <v>0.8962339799477947</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5990065530362677</v>
+        <v>0.5801653387754706</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6258025171380375</v>
+        <v>0.6201598225807743</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9579228730262672</v>
+        <v>0.9466963504460101</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>28.78067823812552</v>
+        <v>27.99850828954198</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -11660,19 +11804,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.9176162306668983</v>
+        <v>0.8717157164245543</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.5990065530362677</v>
+        <v>0.5791115185689131</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.6258025171380375</v>
+        <v>0.6077322286749908</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.9579228730262672</v>
+        <v>0.9336571728555156</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>28.78067823812552</v>
+        <v>28.14294137622309</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -11688,23 +11832,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.043530121909486</v>
+        <v>1.114707415714739</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6672107990891119</v>
+        <v>0.6199743977049612</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6268419267679851</v>
+        <v>0.6514681434216769</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.021533221148234</v>
+        <v>1.055797052332852</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>32.91951205065263</v>
+        <v>31.76091246145804</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -11718,23 +11862,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.043530121909486</v>
+        <v>1.112955074255276</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.6672107990891119</v>
+        <v>0.603604058813499</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.6268419267679851</v>
+        <v>0.6597217683495928</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.021533221148234</v>
+        <v>1.0549668593161</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>32.91951205065263</v>
+        <v>30.56636563241461</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -11816,19 +11960,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9133798672003332</v>
+        <v>0.9033019098263559</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6330555020794588</v>
+        <v>0.5826759495833181</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6188581694458599</v>
+        <v>0.6095447231390617</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9557090913035896</v>
+        <v>0.9504219640908748</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>30.65193189170767</v>
+        <v>28.33823450840293</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -11846,19 +11990,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.9133798672003332</v>
+        <v>0.8818508733365686</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.6330555020794588</v>
+        <v>0.567682430492352</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.6188581694458599</v>
+        <v>0.6212668638787887</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.9557090913035896</v>
+        <v>0.9390691525849247</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>30.65193189170767</v>
+        <v>27.64635777117806</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -11878,19 +12022,19 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.932981710674844</v>
+        <v>0.8642631567617798</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.627002140820047</v>
+        <v>0.5949323718026591</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.6412122028814206</v>
+        <v>0.5976516892589189</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9659097839212748</v>
+        <v>0.9296575481120883</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>30.31546330448895</v>
+        <v>29.48229981012515</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -11904,23 +12048,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>0.932981710674844</v>
+        <v>0.889282851135347</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.627002140820047</v>
+        <v>0.5711646977099333</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>0.6412122028814206</v>
+        <v>0.5726610105543813</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>0.9659097839212748</v>
+        <v>0.9430179484693528</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>30.31546330448895</v>
+        <v>28.56160876402068</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -11940,19 +12084,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.125925495175252</v>
+        <v>1.076535067253689</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6771029281246997</v>
+        <v>0.6222604995972788</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5992032556202651</v>
+        <v>0.6250488575199018</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.061096364697972</v>
+        <v>1.037562078746948</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>34.59336978304947</v>
+        <v>31.25734859878719</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -11970,19 +12114,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.125925495175252</v>
+        <v>0.9225741448950739</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.6771029281246997</v>
+        <v>0.5631235443854729</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.5992032556202651</v>
+        <v>0.5822046749842656</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.061096364697972</v>
+        <v>0.9605072331300134</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>34.59336978304947</v>
+        <v>28.74863569188775</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -12080,23 +12224,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.1081661</v>
+        <v>1.098370432853699</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5762944</v>
+        <v>0.5832075476646423</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7276605</v>
+        <v>0.7160214185714722</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.052694684414558</v>
+        <v>1.048031694584519</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>26.33912563323974</v>
+        <v>27.46675610542297</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -12110,23 +12254,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>1.1200349</v>
+        <v>1.050070881843567</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5722652</v>
+        <v>0.5361664891242981</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.7395175</v>
+        <v>0.6983649134635925</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.058317028630934</v>
+        <v>1.024729662810425</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>26.13821029663086</v>
+        <v>25.24709403514862</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12142,23 +12286,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.98417884</v>
+        <v>0.7908774614334106</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5804235</v>
+        <v>0.508204460144043</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.67269707</v>
+        <v>0.599964439868927</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9920578819373616</v>
+        <v>0.8893129153641088</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>30.07673919200897</v>
+        <v>27.99074053764343</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -12172,23 +12316,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.9843954</v>
+        <v>0.7275852560997009</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.61453754</v>
+        <v>0.4421975612640381</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.6696038</v>
+        <v>0.5560460090637207</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.992167014563835</v>
+        <v>0.8529860820082007</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>31.20512366294861</v>
+        <v>27.24747657775879</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12208,19 +12352,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.522502899169922</v>
+        <v>1.908100366592407</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.523539066314697</v>
+        <v>0.9448447823524475</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.179890871047974</v>
+        <v>0.9247580766677856</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.126617713452496</v>
+        <v>1.38134006189367</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>64.43526148796082</v>
+        <v>37.77226805686951</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12238,19 +12382,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>5.57439136505127</v>
+        <v>1.620428085327148</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.935131311416626</v>
+        <v>0.9760722517967224</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.047253727912903</v>
+        <v>0.7369468212127686</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>2.36101490148861</v>
+        <v>1.272960362826411</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>107.0792078971863</v>
+        <v>46.56144976615906</v>
       </c>
     </row>
   </sheetData>
@@ -12424,19 +12568,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9041241945196498</v>
+        <v>0.9031075897767106</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5937398066447039</v>
+        <v>0.593849690035242</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4840646949103243</v>
+        <v>0.4834678833479089</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.9508544549612469</v>
+        <v>0.9503197302890805</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>29.04698560837562</v>
+        <v>29.04687957305637</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -12454,19 +12598,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.9041241945196498</v>
+        <v>0.9032589341181656</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.5937398066447039</v>
+        <v>0.5939094552366638</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.4840646949103243</v>
+        <v>0.4834732714797661</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.9508544549612469</v>
+        <v>0.9503993550703649</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>29.04698560837562</v>
+        <v>29.04878990304701</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -12482,23 +12626,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.123799893990639</v>
+        <v>1.010391716933168</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5711700287674949</v>
+        <v>0.4447373750328227</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6561942241606574</v>
+        <v>0.544929398625868</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.060094285424952</v>
+        <v>1.005182429677901</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>26.43684371483194</v>
+        <v>21.7878439731692</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -12512,23 +12656,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>1.123799893990639</v>
+        <v>1.005310989505967</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.5711700287674949</v>
+        <v>0.4427910098862066</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.6561942241606574</v>
+        <v>0.5430639889590072</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>1.060094285424952</v>
+        <v>1.002651978258642</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>26.43684371483194</v>
+        <v>21.72747497087252</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -12548,19 +12692,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.193314899147729</v>
+        <v>1.079780198596821</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.553373444820075</v>
+        <v>0.5421419446958081</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6807844206602571</v>
+        <v>0.5801300744007445</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.092389536359502</v>
+        <v>1.039124727160711</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>25.39054392170465</v>
+        <v>25.47742513833202</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -12578,19 +12722,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>1.193314899147729</v>
+        <v>1.079780198596821</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.553373444820075</v>
+        <v>0.5421419446958081</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6807844206602571</v>
+        <v>0.5801300744007445</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>1.092389536359502</v>
+        <v>1.039124727160711</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>25.39054392170465</v>
+        <v>25.47742513833202</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -12599,25 +12743,61 @@
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.018639038674952</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.603505036686049</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.5257982150660987</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.009276492679262</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>29.03298160078039</v>
+      </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
           <t>K-Neighbors Regressor</t>
         </is>
       </c>
-      <c r="J10" s="8" t="n"/>
-      <c r="K10" s="8" t="n"/>
-      <c r="L10" s="8" t="n"/>
-      <c r="M10" s="8" t="n"/>
-      <c r="N10" s="8" t="n"/>
-      <c r="O10" s="8" t="n"/>
-      <c r="P10" s="8" t="n"/>
+      <c r="J10" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K10" s="8" t="inlineStr">
+        <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+        </is>
+      </c>
+      <c r="L10" s="8" t="n">
+        <v>1.020500235440283</v>
+      </c>
+      <c r="M10" s="8" t="n">
+        <v>0.6047257033767548</v>
+      </c>
+      <c r="N10" s="8" t="n">
+        <v>0.5267017488939362</v>
+      </c>
+      <c r="O10" s="8" t="n">
+        <v>1.010198116925726</v>
+      </c>
+      <c r="P10" s="8" t="n">
+        <v>29.0658166760149</v>
+      </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -12632,23 +12812,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.521722247523091</v>
+        <v>0.9344854970726544</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.471958836486184</v>
+        <v>0.6516970020921653</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.027240453907579</v>
+        <v>0.482595834124684</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.553766286785674</v>
+        <v>0.9666879005514936</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>186.5730529848336</v>
+        <v>32.09845572346774</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -12662,23 +12842,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>6.521722247523091</v>
+        <v>0.9170920085397354</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.471958836486184</v>
+        <v>0.6249208877729101</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.027240453907579</v>
+        <v>0.4814520161471614</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.553766286785674</v>
+        <v>0.9576492095437323</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>186.5730529848336</v>
+        <v>30.71001864109558</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -12776,23 +12956,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.18312096112681</v>
+        <v>0.8757939106538779</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5979752325421386</v>
+        <v>0.5566039666036267</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6534787841917219</v>
+        <v>0.4893562245355064</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.087713639303475</v>
+        <v>0.9358386135728093</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>27.60150734872513</v>
+        <v>28.13809493354335</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -12806,23 +12986,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>1.18312096112681</v>
+        <v>0.9120596168369622</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.5979752325421386</v>
+        <v>0.5709705866980505</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.6534787841917219</v>
+        <v>0.4784592437481535</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>1.087713639303475</v>
+        <v>0.9550181238264341</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>27.60150734872513</v>
+        <v>29.65285580988025</v>
       </c>
     </row>
     <row r="14">
@@ -12838,23 +13018,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.245719225939846</v>
+        <v>1.157709701454228</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6110875396328844</v>
+        <v>0.5357716556080681</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7021259520425357</v>
+        <v>0.5923248483160668</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.116117926538162</v>
+        <v>1.075969191684515</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>27.63079739684133</v>
+        <v>24.86914925630677</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -12868,23 +13048,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>1.245719225939846</v>
+        <v>1.16265039556498</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.6110875396328844</v>
+        <v>0.5366482484398577</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.7021259520425357</v>
+        <v>0.5923511719422797</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>1.116117926538162</v>
+        <v>1.07826267466002</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>27.63079739684133</v>
+        <v>24.93194314592894</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -12904,19 +13084,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.096611652636537</v>
+        <v>0.9027266055558159</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5984688253240267</v>
+        <v>0.5837895235991135</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6371540026402139</v>
+        <v>0.5304365353332452</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.047192271092819</v>
+        <v>0.9501192585964227</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>27.82291894010272</v>
+        <v>28.38836458260623</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -12934,19 +13114,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>1.096611652636537</v>
+        <v>0.9311037678187838</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.5984688253240267</v>
+        <v>0.6029581042137856</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.6371540026402139</v>
+        <v>0.5368733450590415</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>1.047192271092819</v>
+        <v>0.9649371833538097</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>27.82291894010272</v>
+        <v>29.13598593720423</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -12962,23 +13142,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.16613784122287</v>
+        <v>0.890756023115378</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.587618476394364</v>
+        <v>0.5660154073270243</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6319339353754406</v>
+        <v>0.5028793608099925</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.079878623375271</v>
+        <v>0.9437987195982934</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>27.15697560761217</v>
+        <v>28.85369150867572</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -12992,23 +13172,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.16613784122287</v>
+        <v>0.8996471488322063</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.587618476394364</v>
+        <v>0.5755145524204401</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.6319339353754406</v>
+        <v>0.5007538426668308</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.079878623375271</v>
+        <v>0.9484973109251319</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>27.15697560761217</v>
+        <v>29.26138181466886</v>
       </c>
     </row>
     <row r="17">
@@ -13079,25 +13259,61 @@
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 80, 'max_samples': 0.7000000000000001, 'max_features': 0.1}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.000553795786551</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.6333709420988081</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.5499032037253285</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1.000276859567665</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>30.52317609675491</v>
+      </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
           <t>BaggingRegressor</t>
         </is>
       </c>
-      <c r="J18" s="8" t="n"/>
-      <c r="K18" s="8" t="n"/>
-      <c r="L18" s="8" t="n"/>
-      <c r="M18" s="8" t="n"/>
-      <c r="N18" s="8" t="n"/>
-      <c r="O18" s="8" t="n"/>
-      <c r="P18" s="8" t="n"/>
+      <c r="J18" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="8" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 80, 'max_samples': 0.7000000000000001, 'max_features': 0.1}</t>
+        </is>
+      </c>
+      <c r="L18" s="8" t="n">
+        <v>0.9836022652959113</v>
+      </c>
+      <c r="M18" s="8" t="n">
+        <v>0.6335463678602787</v>
+      </c>
+      <c r="N18" s="8" t="n">
+        <v>0.5503289201990474</v>
+      </c>
+      <c r="O18" s="8" t="n">
+        <v>0.9917672435082293</v>
+      </c>
+      <c r="P18" s="8" t="n">
+        <v>30.53964572123956</v>
+      </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
       <c r="A19" s="6" t="inlineStr">
@@ -13112,23 +13328,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>1.115481934536049</v>
+        <v>0.834888761553697</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.581333486251452</v>
+        <v>0.5539636822277784</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.6202857059039032</v>
+        <v>0.4462943427374303</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>1.056163782060362</v>
+        <v>0.913722475127813</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>27.09187710543153</v>
+        <v>28.11986112497973</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -13142,23 +13358,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>1.115481934536049</v>
+        <v>0.8298223793231148</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.581333486251452</v>
+        <v>0.5630848704894976</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>0.6202857059039032</v>
+        <v>0.4544849422654506</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>1.056163782060362</v>
+        <v>0.9109458706877784</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>27.09187710543153</v>
+        <v>28.73276790279065</v>
       </c>
     </row>
     <row r="20">
@@ -13174,23 +13390,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.160789504539376</v>
+        <v>1.053529810992718</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5601370960877808</v>
+        <v>0.5772599117108155</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6697529670312051</v>
+        <v>0.4931042381043975</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.077399417365434</v>
+        <v>1.026416002891965</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>26.0432681506131</v>
+        <v>31.08334048203822</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -13204,23 +13420,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.160789504539376</v>
+        <v>1.07351484290107</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.5601370960877808</v>
+        <v>0.6109389571396154</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6697529670312051</v>
+        <v>0.5110874853924156</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.077399417365434</v>
+        <v>1.036105613777413</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>26.0432681506131</v>
+        <v>34.02393982808869</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -13318,23 +13534,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.1289079</v>
+        <v>1.099758625030518</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5713178</v>
+        <v>0.5783767104148865</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6098643500000001</v>
+        <v>0.597688615322113</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.062500785378559</v>
+        <v>1.048693770855209</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>26.56684815883636</v>
+        <v>26.36828720569611</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -13348,23 +13564,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>1.0868516</v>
+        <v>1.083083033561707</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5738011</v>
+        <v>0.5429585576057434</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.59486777</v>
+        <v>0.5816723108291626</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.042521748853363</v>
+        <v>1.04071275266603</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>26.51036083698273</v>
+        <v>25.60540735721588</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -13384,19 +13600,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7817844</v>
+        <v>0.7188436985015869</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5719769</v>
+        <v>0.4903430938720703</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4918319</v>
+        <v>0.4583040773868561</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8841857357167985</v>
+        <v>0.8478465064512485</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>28.90126407146454</v>
+        <v>28.37482690811157</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -13410,23 +13626,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.84023</v>
+        <v>0.7444042563438416</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.6336261</v>
+        <v>0.5080083012580872</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.49973541</v>
+        <v>0.4856936037540436</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.9166405991980416</v>
+        <v>0.8627886510286523</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>35.03947854042053</v>
+        <v>29.69670295715332</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13446,19 +13662,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>143627.140625</v>
+        <v>1.916772484779358</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>275.3651123046875</v>
+        <v>0.8982447981834412</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>139.6608734130859</v>
+        <v>0.7793792486190796</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>378.9817154230531</v>
+        <v>1.38447552697018</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>195.7808613777161</v>
+        <v>37.10176348686218</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13476,19 +13692,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>98386</v>
+        <v>1.455507278442383</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>255.7977447509766</v>
+        <v>0.8356478214263916</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>152.7552795410156</v>
+        <v>0.6669689416885376</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>313.6654268484176</v>
+        <v>1.206444063536467</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>194.7170972824097</v>
+        <v>38.68336975574493</v>
       </c>
     </row>
   </sheetData>

--- a/data/performance_sheets/Full Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/Full Overall Model Peformance Results.xlsx
@@ -2084,19 +2084,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>139.7103740969345</v>
+        <v>1.216469527080494</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10.506053245148</v>
+        <v>0.8846477806652082</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.000318077969246</v>
+        <v>0.7310354117864113</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>11.81991430159011</v>
+        <v>1.102936773836331</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>129.49563208866</v>
+        <v>48.29884969634145</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -2114,19 +2114,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>133.009322941476</v>
+        <v>1.158854988551082</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>10.19061947879737</v>
+        <v>0.8611770525473208</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>6.501123490568604</v>
+        <v>0.758464795344606</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>11.53296678836266</v>
+        <v>1.076501271969096</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>126.989620070012</v>
+        <v>45.8432603225632</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -2146,19 +2146,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>140.616943425011</v>
+        <v>0.5255584788073407</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11.83676127494746</v>
+        <v>0.4492573799289736</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8.630329691670697</v>
+        <v>0.8764939458393172</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>11.85820152573783</v>
+        <v>0.7249541218638189</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>141.1908318529551</v>
+        <v>22.13537977579593</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -2176,19 +2176,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>140.6169687945245</v>
+        <v>0.5255571772585197</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>11.83676200301466</v>
+        <v>0.4492586103488042</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>8.630326979512066</v>
+        <v>0.8765002928936292</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>11.85820259544104</v>
+        <v>0.7249532241865814</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>141.1908300236993</v>
+        <v>22.13541056528105</v>
       </c>
     </row>
     <row r="9" ht="45.75" customHeight="1">
@@ -2266,23 +2266,23 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 2}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>133.1596901540262</v>
+        <v>0.6059154278662332</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10.72761687134797</v>
+        <v>0.5726259133469059</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8.682594383481193</v>
+        <v>0.8019942133695432</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>11.53948396393991</v>
+        <v>0.7784056961933367</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>131.4173059744309</v>
+        <v>28.32924143455449</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -2296,23 +2296,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+          <t>{'weights': 'distance', 'n_neighbors': 8}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>119.2055874686667</v>
+        <v>0.6679209588459539</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>10.77932675231308</v>
+        <v>0.597485111296595</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>8.03634958192502</v>
+        <v>0.8946238933017295</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>10.91813113443261</v>
+        <v>0.8172643139437534</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>136.9198105917333</v>
+        <v>28.92956302147378</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -2472,23 +2472,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>107.5094503581309</v>
+        <v>1.014987851166701</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10.04724132027265</v>
+        <v>0.710309203576921</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.969231851287824</v>
+        <v>0.7420436528897409</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>10.36867640338587</v>
+        <v>1.007466054597723</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>133.4564028253673</v>
+        <v>38.10632868479821</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -2502,23 +2502,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>99.65301713810354</v>
+        <v>0.7079301198915571</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>9.391375630771199</v>
+        <v>0.660262197062696</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>6.110839785004885</v>
+        <v>0.7240907906108388</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>9.982635781100276</v>
+        <v>0.8413858329515401</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>128.434371787975</v>
+        <v>33.62121830201426</v>
       </c>
     </row>
     <row r="14">
@@ -2538,19 +2538,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>194.6094434015223</v>
+        <v>0.6614497799922028</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13.56262880806198</v>
+        <v>0.5100997041387595</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10.16291877862808</v>
+        <v>0.933599227819619</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>13.95024886521822</v>
+        <v>0.8132956289026781</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>144.7524165836802</v>
+        <v>23.90176088447076</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -2568,19 +2568,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>146.1179111095982</v>
+        <v>0.6013146516810488</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>12.03021520953904</v>
+        <v>0.487105641549919</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>8.679967137830008</v>
+        <v>0.9147475289045195</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>12.08792418530155</v>
+        <v>0.7754448089200474</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>141.8270459242784</v>
+        <v>23.28383555223672</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -2596,23 +2596,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>115.4292572260181</v>
+        <v>0.5646367949993931</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.6567493685052</v>
+        <v>0.6344976718953206</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.726816858265499</v>
+        <v>0.777864180881971</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>10.74380087427248</v>
+        <v>0.7514231797059452</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>136.6067251672486</v>
+        <v>30.68846083294444</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -2630,19 +2630,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>113.9743229471124</v>
+        <v>0.5465216044309978</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>10.6416980883137</v>
+        <v>0.6139443899603432</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>7.755050206474674</v>
+        <v>0.7621374820653249</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>10.67587574614431</v>
+        <v>0.7392709952588413</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>136.8188352693929</v>
+        <v>29.8295905900481</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -2662,19 +2662,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>93.11397935136461</v>
+        <v>1.376391543843155</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9.486342699904101</v>
+        <v>0.8435304757771653</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.851293764619254</v>
+        <v>0.830614171971214</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>9.649558505515401</v>
+        <v>1.173197146196305</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>131.2955261799158</v>
+        <v>45.2123562956961</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>89.88273354268101</v>
+        <v>1.052714694025366</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>9.336861339633456</v>
+        <v>0.8301121018242215</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>6.648193040658774</v>
+        <v>0.8578164730272118</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>9.480650480989214</v>
+        <v>1.026018856564228</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>130.8520075124642</v>
+        <v>43.05757086218179</v>
       </c>
     </row>
     <row r="17">
@@ -2720,23 +2720,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 250, 'loss': 'exponential', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>122.1914993436945</v>
+        <v>0.6477805610335253</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11.00538814540434</v>
+        <v>0.5351604446484861</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.93881276702176</v>
+        <v>0.8530898070636531</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>11.05402638605927</v>
+        <v>0.8048481602349137</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>138.2697629771113</v>
+        <v>26.18684618868178</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -2750,23 +2750,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'loss': 'square', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 50, 'loss': 'linear', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>120.4471589023141</v>
+        <v>0.5094748619855987</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>10.88700416632392</v>
+        <v>0.5027396698156185</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>7.765908544689543</v>
+        <v>0.8443550690903731</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>10.97484209008558</v>
+        <v>0.7137750780081906</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>137.5350076757414</v>
+        <v>24.48937080352804</v>
       </c>
     </row>
     <row r="18" ht="27.95" customHeight="1">
@@ -2782,23 +2782,23 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 80, 'max_samples': 0.7000000000000001, 'max_features': 0.1}</t>
+          <t>{'n_estimators': 50, 'max_samples': 0.7000000000000001, 'max_features': 0.9}</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>104.9349498697316</v>
+        <v>1.173377397994306</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.18909060301918</v>
+        <v>0.8631732120571272</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.320917086005736</v>
+        <v>0.87657667992411</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.24377615285163</v>
+        <v>1.083225460370234</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>134.9327712222031</v>
+        <v>44.74633869723884</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -2812,23 +2812,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 80, 'max_samples': 0.7000000000000001, 'max_features': 0.1}</t>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>108.1473853237233</v>
+        <v>0.8390835042056209</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>10.34766068985579</v>
+        <v>0.8472960662301868</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>7.781161591055351</v>
+        <v>0.8075037417159019</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>10.39939350749472</v>
+        <v>0.9160150130896442</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>135.5049141346333</v>
+        <v>41.15733802674666</v>
       </c>
     </row>
     <row r="19" ht="27.95" customHeight="1">
@@ -2848,19 +2848,19 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>104.682340816613</v>
+        <v>0.812543099987268</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9.96226288423065</v>
+        <v>0.6850207611229796</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7.277308991382908</v>
+        <v>0.8521557526334923</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>10.2314388439072</v>
+        <v>0.9014117261203495</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>132.7017383050077</v>
+        <v>34.90262630173109</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -2878,19 +2878,19 @@
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>108.7435632765274</v>
+        <v>0.7526763444585857</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>10.22680205916325</v>
+        <v>0.6861518243057086</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>7.455314772091926</v>
+        <v>0.8755712226537028</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>10.42801818547164</v>
+        <v>0.8675692159468232</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>134.2820991401272</v>
+        <v>34.12408154496097</v>
       </c>
     </row>
     <row r="20" ht="42.75" customHeight="1">
@@ -3396,19 +3396,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>37.87247849923591</v>
+        <v>1.021352875378584</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4.734130494576566</v>
+        <v>0.7956609298556766</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4815711879974347</v>
+        <v>0.3830121437394511</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>6.154061951202304</v>
+        <v>1.010620045011271</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>41.15986541268408</v>
+        <v>41.45780437333011</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -3426,19 +3426,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>40.77255521687409</v>
+        <v>0.9344353750323022</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>4.805716210459296</v>
+        <v>0.7703268894086148</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.5040198684577945</v>
+        <v>0.3591994175644591</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>6.38533908393862</v>
+        <v>0.9666619755800381</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>42.72657321048845</v>
+        <v>38.67098085559421</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -3454,23 +3454,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.01, 'C': 10}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>35.50339386073357</v>
+        <v>0.4827956155147354</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.729181907164163</v>
+        <v>0.4378292350191885</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8582194726845858</v>
+        <v>0.4059810894543936</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.958472443565848</v>
+        <v>0.6948349555935822</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>38.10847168826748</v>
+        <v>20.94273027299792</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -3484,23 +3484,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.01, 'C': 10}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>35.48731685976889</v>
+        <v>0.4827954371034001</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>4.723463319039318</v>
+        <v>0.4378353969039692</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.8581960802460138</v>
+        <v>0.4059825640895881</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>5.957123203339754</v>
+        <v>0.6948348272096039</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>38.06603980781831</v>
+        <v>20.94297140911923</v>
       </c>
     </row>
     <row r="9" ht="183" customHeight="1">
@@ -3578,23 +3578,23 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>{'weights': 'distance', 'n_neighbors': 8}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>34.43233729918346</v>
+        <v>0.5278683540453952</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.591710265967163</v>
+        <v>0.5205948574632022</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7285054218020485</v>
+        <v>0.3685317556160263</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>5.86790740376699</v>
+        <v>0.7265454934451079</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>38.14707928326344</v>
+        <v>25.13910937975742</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -3612,19 +3612,19 @@
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>33.34702570675559</v>
+        <v>0.4552931723591009</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>4.517964435626983</v>
+        <v>0.5007136931663609</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.7610032830352594</v>
+        <v>0.3336791427572206</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>5.774688364470899</v>
+        <v>0.674754156978007</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>37.65233704225435</v>
+        <v>24.30044329531627</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -3784,23 +3784,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>32.49152871680484</v>
+        <v>0.6224890623102238</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4.41266432422412</v>
+        <v>0.6083450633961157</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5127027654487956</v>
+        <v>0.3373367146086069</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>5.700134096387982</v>
+        <v>0.7889797603932713</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>36.7560740545921</v>
+        <v>31.41864444431404</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -3814,23 +3814,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>29.91310187595487</v>
+        <v>0.5514937123145934</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>4.218594743206343</v>
+        <v>0.5765486906266899</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.5702288660892701</v>
+        <v>0.3081806172005366</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>5.469287145136454</v>
+        <v>0.7426262265195012</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>35.60393015062999</v>
+        <v>28.12263824318589</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -3850,19 +3850,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>34.56070929214049</v>
+        <v>0.4960599078644635</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.602175200737668</v>
+        <v>0.4309178262548088</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8301020772791945</v>
+        <v>0.4101851996315646</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>5.878835708891726</v>
+        <v>0.7043152049079046</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>37.35095836126398</v>
+        <v>20.66674968352208</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -3880,19 +3880,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>33.54588894988515</v>
+        <v>0.5577501083688846</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>4.56501064622389</v>
+        <v>0.4449617390573906</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.8011940107641623</v>
+        <v>0.4277789857662974</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>5.791881296252985</v>
+        <v>0.7468266923248557</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>37.29560868468953</v>
+        <v>20.96946285153295</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -3912,19 +3912,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>36.55372026878968</v>
+        <v>0.5502618772138076</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.97833695267041</v>
+        <v>0.6291469680516143</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8037257411300034</v>
+        <v>0.4091777894917272</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>6.045967273215236</v>
+        <v>0.7417963852795507</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>40.37485576865104</v>
+        <v>29.54467540719121</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -3938,23 +3938,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': None, 'max_depth': 15, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>35.43984234504269</v>
+        <v>0.5362397828090844</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>4.821750061891006</v>
+        <v>0.6219148428754051</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.7879988145439237</v>
+        <v>0.3995347176234408</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>5.953137185135472</v>
+        <v>0.7322839495776787</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>39.25059513952159</v>
+        <v>29.38735297085754</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -3970,23 +3970,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>38.69498406399162</v>
+        <v>1.057572429430839</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.092695362362694</v>
+        <v>0.8981068244422207</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6829122767902188</v>
+        <v>0.4230981619706606</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>6.220529243078246</v>
+        <v>1.028383405851553</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>42.08356344859358</v>
+        <v>43.83484197865312</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -4000,23 +4000,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>36.2555430796322</v>
+        <v>0.7748252338727523</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>4.940327626269878</v>
+        <v>0.7020627477621192</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.6858855102437945</v>
+        <v>0.3802105306671926</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>6.021257599507947</v>
+        <v>0.8802415769961972</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>40.75397583561509</v>
+        <v>34.66826205497541</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -4032,23 +4032,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'loss': 'square', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>34.08872988185367</v>
+        <v>0.521515728390556</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.717582353368489</v>
+        <v>0.53251661808608</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.778095056606284</v>
+        <v>0.4027179063689383</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.838555461914674</v>
+        <v>0.7221604588943901</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>38.49555606357815</v>
+        <v>25.78586953422028</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -4062,23 +4062,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>34.30793571664033</v>
+        <v>0.4116002441266872</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>4.668109026514649</v>
+        <v>0.4834220399996734</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.7708170555653304</v>
+        <v>0.3366818844057827</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>5.857297646239291</v>
+        <v>0.6415607875538273</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>38.25926401307893</v>
+        <v>23.30294628688292</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -4094,23 +4094,23 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 130, 'max_samples': 0.8, 'max_features': 0.6}</t>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>35.95862355067092</v>
+        <v>0.8865209540650687</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.933795043191391</v>
+        <v>0.8728441312843959</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6877540116672219</v>
+        <v>0.4565268235742266</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.996550971239294</v>
+        <v>0.9415524170565698</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>40.75755193764416</v>
+        <v>41.65646321536835</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -4124,23 +4124,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'max_samples': 0.7000000000000001, 'max_features': 0.9}</t>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>38.02858467288716</v>
+        <v>0.8341171008650377</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>5.099879837827144</v>
+        <v>0.8390791743383185</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.7412594832107354</v>
+        <v>0.4620462861884704</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>6.166732090247407</v>
+        <v>0.9133001154412703</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>41.80487961303198</v>
+        <v>39.91541643972776</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -4156,23 +4156,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>37.49121495086787</v>
+        <v>0.5908224131919233</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4.971660898428631</v>
+        <v>0.6310821219148418</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.7314704842015163</v>
+        <v>0.3856090411662564</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>6.123007018685171</v>
+        <v>0.7686497337486843</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>41.03444497924504</v>
+        <v>30.30546465001787</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -4186,23 +4186,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>32.03997734349628</v>
+        <v>0.537613408552212</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>4.622975093275512</v>
+        <v>0.6345064462396</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>0.6612811338332795</v>
+        <v>0.3791690571558667</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>5.660386677913116</v>
+        <v>0.733221254842092</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>38.719292277336</v>
+        <v>30.18500433702589</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -4708,19 +4708,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05674071620385291</v>
+        <v>0.539415805506713</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1839278867430678</v>
+        <v>0.581250430071672</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5099911752715773</v>
+        <v>0.2927756600374937</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2382030986445242</v>
+        <v>0.7344493212650639</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>41.58173625988441</v>
+        <v>30.162743883653</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -4738,19 +4738,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05435357832548697</v>
+        <v>0.561898265583751</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1835477753192981</v>
+        <v>0.5942156185137334</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.4893910621230902</v>
+        <v>0.3058290885503026</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2331385389108523</v>
+        <v>0.7495987363808393</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>41.56486908312218</v>
+        <v>30.06974777116845</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -4766,23 +4766,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06576134144877264</v>
+        <v>0.3934611142575427</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2013370051277963</v>
+        <v>0.3751762733088571</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8281698665179984</v>
+        <v>0.3403582550418662</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2564397423348663</v>
+        <v>0.6272647879943068</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>37.52437996544867</v>
+        <v>18.60198842444877</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -4796,23 +4796,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.06546484172684236</v>
+        <v>0.398912919446206</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.2007469869882531</v>
+        <v>0.378237664066501</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.826117017618984</v>
+        <v>0.3430190349972054</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2558609812512302</v>
+        <v>0.6315955346946382</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>37.43850791858836</v>
+        <v>18.70846664798738</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -4890,23 +4890,23 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>{'weights': 'distance', 'n_neighbors': 8}</t>
+          <t>{'weights': 'distance', 'n_neighbors': 6}</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.05309945076827405</v>
+        <v>0.4866173051171129</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1857251543973086</v>
+        <v>0.5008234917358166</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6607787650861078</v>
+        <v>0.3420937412526541</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.2304331807016387</v>
+        <v>0.6975796048603434</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>36.13027221395272</v>
+        <v>24.8200371005672</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -4920,23 +4920,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'distance', 'n_neighbors': 6}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.05584459815768764</v>
+        <v>0.4506469228349698</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.185869973783853</v>
+        <v>0.5390239372839463</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.6861122880372539</v>
+        <v>0.3236332029583255</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.2363146168938512</v>
+        <v>0.6713024078870639</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>36.24747668610156</v>
+        <v>26.04259328100433</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -5096,23 +5096,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05477381553698316</v>
+        <v>0.439694830467437</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1833300960946453</v>
+        <v>0.5368040090493602</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5317789851567611</v>
+        <v>0.2762924147098494</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2340380642907968</v>
+        <v>0.6630948879816801</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>34.95874388459053</v>
+        <v>25.46503401399016</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -5126,23 +5126,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.04990225962277982</v>
+        <v>0.4589134092241031</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.177528465547049</v>
+        <v>0.5917196870902603</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.5724790884544186</v>
+        <v>0.3354256440495704</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2233881367100317</v>
+        <v>0.6774314793572137</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>34.41975363011209</v>
+        <v>28.05625801270755</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -5162,19 +5162,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1107461373501459</v>
+        <v>0.5706468052852547</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2533946398674554</v>
+        <v>0.4899402611982644</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.138474630845114</v>
+        <v>0.4204367901312138</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.33278542238227</v>
+        <v>0.7554116793413077</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>43.13096693343301</v>
+        <v>22.47957755877375</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -5192,19 +5192,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1140730326562158</v>
+        <v>0.5272125848236789</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2639654016586026</v>
+        <v>0.4543346882154041</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.133389111829516</v>
+        <v>0.4004934081449398</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3377469950365447</v>
+        <v>0.7260940605897276</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>44.96635097537664</v>
+        <v>21.20287376950246</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -5220,23 +5220,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 1, 'max_leaf_nodes': 5, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06118932552549411</v>
+        <v>0.6234873514853898</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1955305221100964</v>
+        <v>0.6698210267201592</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5052995236183845</v>
+        <v>0.4102879754894561</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2473647620933388</v>
+        <v>0.7896121525694686</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>37.43891221104975</v>
+        <v>31.76053133312751</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -5250,23 +5250,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': None, 'max_features': None, 'max_depth': 15, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.06837189507155793</v>
+        <v>1.103331752148622</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.209245393635736</v>
+        <v>0.8691279931133098</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.7439553703779881</v>
+        <v>0.4385653930132032</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2614802001520534</v>
+        <v>1.050395997778277</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>39.49773752092047</v>
+        <v>44.65090073267194</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -5282,23 +5282,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.06844180529463359</v>
+        <v>0.6795834605297918</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2114520799872451</v>
+        <v>0.6640821289407046</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7026954390261063</v>
+        <v>0.3359693661524927</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2616138476736917</v>
+        <v>0.8243685222822326</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>40.10798002655821</v>
+        <v>32.58352512937698</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -5312,23 +5312,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'max_depth': None}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.06134904681321698</v>
+        <v>0.6573542955082354</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.2017507467203253</v>
+        <v>0.7035473398622324</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.6766681316677864</v>
+        <v>0.3557861581401141</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2476873973645349</v>
+        <v>0.8107738867947311</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>38.50031390896441</v>
+        <v>34.7448547681309</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -5344,53 +5344,53 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.5853025445516017</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.5953153877556324</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0.3929790071019209</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0.765050681034663</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>29.65637625223024</v>
+      </c>
+      <c r="I17" s="9" t="inlineStr">
+        <is>
+          <t>AdaBoostRegressor</t>
+        </is>
+      </c>
+      <c r="J17" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K17" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
-        <v>0.06470904241067447</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>0.2023997981248926</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>0.8124835662651855</v>
-      </c>
-      <c r="G17" s="5" t="n">
-        <v>0.2543797209108353</v>
-      </c>
-      <c r="H17" s="5" t="n">
-        <v>37.96668357989557</v>
-      </c>
-      <c r="I17" s="9" t="inlineStr">
-        <is>
-          <t>AdaBoostRegressor</t>
-        </is>
-      </c>
-      <c r="J17" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K17" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
-        </is>
-      </c>
       <c r="L17" s="8" t="n">
-        <v>0.04579851894616103</v>
+        <v>0.4657311328697273</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.16775421754354</v>
+        <v>0.4858225772177637</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.6005680072836826</v>
+        <v>0.3787925405658806</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.2140058853072995</v>
+        <v>0.6824449669165473</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>32.39041620866817</v>
+        <v>22.87086344060928</v>
       </c>
     </row>
     <row r="18" ht="56.1" customHeight="1">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06753600704390401</v>
+        <v>0.7144966099362842</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2079958581034172</v>
+        <v>0.7186846442027131</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6847516021750932</v>
+        <v>0.3694217665592741</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2598769074848784</v>
+        <v>0.8452790130698172</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>39.55042127507035</v>
+        <v>35.1782773812457</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -5436,23 +5436,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 130, 'max_samples': 0.8, 'max_features': 0.6}</t>
+          <t>{'n_estimators': 50, 'max_samples': 0.7000000000000001, 'max_features': 0.9}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.06675210338967937</v>
+        <v>0.7585552705289669</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.2055657588731042</v>
+        <v>0.7401374636631373</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.7125367829829234</v>
+        <v>0.3937823641668614</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2583642842764444</v>
+        <v>0.8709507853656066</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>38.96817843387318</v>
+        <v>35.01188823758816</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -5468,23 +5468,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.06089825597755573</v>
+        <v>0.5625887596059325</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.2002517281674725</v>
+        <v>0.6040513680277553</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.7221704772561525</v>
+        <v>0.3483858157738919</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.2467757199919711</v>
+        <v>0.7500591707365043</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>38.13277709141303</v>
+        <v>29.50632709624572</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -5498,23 +5498,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>0.06181486481006746</v>
+        <v>0.6181536255854463</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.2020590606573146</v>
+        <v>0.6931606544316792</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>0.6917587202632086</v>
+        <v>0.4031291135541994</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>0.2486259536131887</v>
+        <v>0.7862274642782751</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>38.50291975093182</v>
+        <v>32.59598959456518</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -26565,19 +26565,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0540318373201853</v>
+        <v>0.0572991983402651</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1859584883501449</v>
+        <v>0.1928456323216815</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5070844217619984</v>
+        <v>0.5378422736362479</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2324474936844562</v>
+        <v>0.2393725095750661</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>41.51210258984506</v>
+        <v>43.178082848694</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -26595,19 +26595,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.0572991983402653</v>
+        <v>0.05448363346213066</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.192845632321682</v>
+        <v>0.1874402883460596</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.5378422736362487</v>
+        <v>0.5169468733931648</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2393725095750665</v>
+        <v>0.2334172946937109</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>43.17808284869407</v>
+        <v>41.66446020257533</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -26627,19 +26627,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06599300648027434</v>
+        <v>0.0659716409076712</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2014691717931772</v>
+        <v>0.2013051678918756</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8271872820377314</v>
+        <v>0.8278654036601876</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2568910400934107</v>
+        <v>0.2568494518344768</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>37.54540670876064</v>
+        <v>37.51368184211704</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -26657,19 +26657,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.06597164090767131</v>
+        <v>0.06602366260976365</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.2013051678918761</v>
+        <v>0.2015333484672203</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.8278654036601887</v>
+        <v>0.8280709185750572</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.256849451834477</v>
+        <v>0.2569507007380281</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>37.51368184211714</v>
+        <v>37.55001479139624</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -26751,19 +26751,19 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.05176043837894325</v>
+        <v>0.05987552685256724</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1844920663689179</v>
+        <v>0.1881627807203366</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6154406890252764</v>
+        <v>0.7052812737301922</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.2275092050422208</v>
+        <v>0.2446947626177709</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>35.66816297074094</v>
+        <v>35.81146859693391</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -26777,23 +26777,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 5}</t>
+          <t>{'weights': 'distance', 'n_neighbors': 7}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.05987552685256724</v>
+        <v>0.05246182944214637</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.1881627807203366</v>
+        <v>0.184457446996637</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.7052812737301922</v>
+        <v>0.6759541768587772</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.2446947626177709</v>
+        <v>0.2290454746161696</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>35.81146859693391</v>
+        <v>35.37775543994458</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -26953,23 +26953,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05758900858261795</v>
+        <v>0.05700624022829785</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1913401302057774</v>
+        <v>0.1872741955680561</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6096501174910256</v>
+        <v>0.6035632905613959</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2399771001212781</v>
+        <v>0.2387597960886586</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>36.65543867261619</v>
+        <v>36.23256238842082</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -26983,23 +26983,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.05801618094061126</v>
+        <v>0.05860035221320811</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1902900881632674</v>
+        <v>0.1925233857466422</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.6355437289473902</v>
+        <v>0.6336420818066731</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2408654830825938</v>
+        <v>0.2420750962267869</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>36.19018022464957</v>
+        <v>36.31624259229822</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -27019,19 +27019,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09444400165063851</v>
+        <v>0.1135809996088116</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2266735664825348</v>
+        <v>0.2571168071385778</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.042893207379132</v>
+        <v>1.153957458374643</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3073174281596124</v>
+        <v>0.3370178031036515</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>39.48694758193029</v>
+        <v>43.45731076003354</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -27049,19 +27049,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.108898231474094</v>
+        <v>0.09739298055190963</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.255110495710992</v>
+        <v>0.2325816528632431</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.128431695401758</v>
+        <v>1.062509500158199</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3299973204044148</v>
+        <v>0.3120784846026871</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>43.44934611092172</v>
+        <v>40.46880603270699</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -27077,23 +27077,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 15, 'learning_rate': 1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07151058684236801</v>
+        <v>0.06329589779615111</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2148610282189586</v>
+        <v>0.1983615473505612</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8353611316521719</v>
+        <v>0.6397420829811091</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2674146346824871</v>
+        <v>0.2515867599778476</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>39.76743844821837</v>
+        <v>36.33698932502274</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -27107,23 +27107,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.06382201699947351</v>
+        <v>0.06270315097878425</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.2057252560136318</v>
+        <v>0.2017005399382766</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.6029236709920506</v>
+        <v>0.7447727682717072</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2526301981147019</v>
+        <v>0.2504059723305022</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>38.37472233610238</v>
+        <v>38.0110508264571</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -27139,23 +27139,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.07286770390345734</v>
+        <v>0.07382944476690498</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2210678276046467</v>
+        <v>0.2176581009893681</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7184659807985243</v>
+        <v>0.6908786688513535</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2699401857883656</v>
+        <v>0.2717157425820318</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>41.54674901354683</v>
+        <v>41.05143270138714</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -27169,23 +27169,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'max_depth': None}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.06657562116220547</v>
+        <v>0.07727153787661341</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.2108240766686658</v>
+        <v>0.2274281124161394</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.6774826805717028</v>
+        <v>0.7671831115335765</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2580225206492749</v>
+        <v>0.2779775852053784</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>40.06305289301362</v>
+        <v>42.52950996216821</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -27205,19 +27205,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07908017947727573</v>
+        <v>0.07004850056891329</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2285210289315368</v>
+        <v>0.2053676623280873</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.804594471935685</v>
+        <v>0.779831959298131</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2812119831679933</v>
+        <v>0.264666772695239</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>42.37144464663994</v>
+        <v>38.22213939799928</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -27231,23 +27231,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.06605792408558683</v>
+        <v>0.06812104425667037</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.2035976064175563</v>
+        <v>0.2012180143079573</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.8137867957757063</v>
+        <v>0.7884537951239813</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.2570173614477956</v>
+        <v>0.2610000847828797</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>37.9406411696673</v>
+        <v>37.32289288231357</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -27263,23 +27263,23 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 190, 'max_samples': 0.5, 'max_features': 0.6}</t>
+          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0708243593141463</v>
+        <v>0.07487381394487673</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2170483142171744</v>
+        <v>0.2254560803287761</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7528282169787873</v>
+        <v>0.7802289313487379</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2661284639307609</v>
+        <v>0.2736307986043909</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>40.74647614923813</v>
+        <v>42.07494593525695</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -27293,23 +27293,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'max_samples': 0.7000000000000001, 'max_features': 0.9}</t>
+          <t>{'n_estimators': 30, 'max_samples': 0.9, 'max_features': 0.7000000000000001}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.07164627638606051</v>
+        <v>0.07225114683149897</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.2167769623611606</v>
+        <v>0.2201571887024561</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.674440381997594</v>
+        <v>0.743687278559244</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2676682207249499</v>
+        <v>0.2687957343997463</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>41.38316429382339</v>
+        <v>41.38226233243713</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -27325,23 +27325,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.06823838743023654</v>
+        <v>0.06466898788064564</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.2107447781838768</v>
+        <v>0.2099428850687974</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.7696299565152879</v>
+        <v>0.744406486956282</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.2612247833384814</v>
+        <v>0.2543009789219177</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>39.53542954725819</v>
+        <v>39.96495801650987</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -27359,19 +27359,19 @@
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>0.06292878152447663</v>
+        <v>0.06655668688683386</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.2039699397923693</v>
+        <v>0.2067532558311634</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>0.7342411766284064</v>
+        <v>0.7203588143760644</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>0.250856097243971</v>
+        <v>0.2579858269107702</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>38.54119201452555</v>
+        <v>39.08335653392606</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -27879,19 +27879,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>127.9131340238375</v>
+        <v>0.06962857522264322</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10.28701055471849</v>
+        <v>0.192181687012763</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.875028127084275</v>
+        <v>0.6143935837755967</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>11.30986887739365</v>
+        <v>0.2638722706588231</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>130.0322247535915</v>
+        <v>38.72441206950014</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -27909,19 +27909,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>131.2075260013609</v>
+        <v>0.06903235336481724</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>10.43642989001853</v>
+        <v>0.1962606488044414</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>6.963675536375892</v>
+        <v>0.6092628698502651</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>11.45458537011973</v>
+        <v>0.2627400870914395</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>130.2925682590246</v>
+        <v>40.24199438661892</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -27937,23 +27937,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>140.6177235543816</v>
+        <v>0.06713900590170137</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11.83679384532537</v>
+        <v>0.2044962397170373</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8.63035655543516</v>
+        <v>0.9380109219902196</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>11.8582344197769</v>
+        <v>0.259111956307889</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>141.190938096665</v>
+        <v>38.35270239171405</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -27967,23 +27967,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>140.6174840825342</v>
+        <v>0.06727526632673662</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>11.83678384287026</v>
+        <v>0.2049003930516563</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>8.630348435259441</v>
+        <v>0.9421979098734921</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>11.85822432249172</v>
+        <v>0.2593747603887792</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>141.1909052948741</v>
+        <v>38.39556429925383</v>
       </c>
     </row>
     <row r="9" ht="45.75" customHeight="1">
@@ -28061,23 +28061,23 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>{'weights': 'distance', 'n_neighbors': 6}</t>
+          <t>{'weights': 'distance', 'n_neighbors': 3}</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>117.046457350964</v>
+        <v>0.07735234144103464</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10.60354493206732</v>
+        <v>0.2173960137455448</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.687375558345936</v>
+        <v>0.8926609893405687</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>10.81880110506538</v>
+        <v>0.2781228890994674</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>136.0428244988972</v>
+        <v>41.42975948918096</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -28095,19 +28095,19 @@
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>127.5810880438897</v>
+        <v>0.075470559353956</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>10.8843953118058</v>
+        <v>0.2140208858033914</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>8.257893005721238</v>
+        <v>0.8713936928138936</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>11.29517985885527</v>
+        <v>0.2747190553164378</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>135.5324627330578</v>
+        <v>41.11348930812628</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -28267,23 +28267,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>105.2890415234761</v>
+        <v>0.07033077325864487</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10.03925831840519</v>
+        <v>0.2002141693256044</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7.09179499026388</v>
+        <v>0.7357594981288784</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>10.26104485534861</v>
+        <v>0.2651994970934992</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>133.95740133131</v>
+        <v>38.75908616430205</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -28297,23 +28297,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>109.9006202063782</v>
+        <v>0.06115437832978809</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>10.06053989001275</v>
+        <v>0.1896328516869639</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>7.294941830163923</v>
+        <v>0.6931079875953339</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>10.48334966536833</v>
+        <v>0.2472941130107793</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>132.1335611649837</v>
+        <v>36.66416270378983</v>
       </c>
     </row>
     <row r="14">
@@ -28329,53 +28329,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.1197017788692265</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.2749937715539568</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.301946401138523</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.3459794486226407</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>48.1479448719324</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>173.6904793396806</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>13.00703540164333</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>9.393620654505776</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>13.1791683857397</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>144.4533747384128</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>172.0300289869397</v>
+        <v>0.128192951417812</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>12.95090853233624</v>
+        <v>0.2677719358630758</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>9.497283755395618</v>
+        <v>1.361214914003508</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>13.1160218430338</v>
+        <v>0.3580404326578383</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>143.9979656490499</v>
+        <v>45.34641215781846</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -28391,23 +28391,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 5, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 10, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>110.9552508081922</v>
+        <v>0.07371745049185223</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.41768889648215</v>
+        <v>0.2187377506633855</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.486921901107757</v>
+        <v>0.9236254428267104</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>10.5335298361087</v>
+        <v>0.2715095771641439</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>135.6731095054847</v>
+        <v>40.93006660688062</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -28421,23 +28421,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>112.1219816528099</v>
+        <v>0.07303505457895225</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>9.653756089678268</v>
+        <v>0.2193858539232345</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>7.327703944891248</v>
+        <v>0.9363416037068136</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>10.58876676732517</v>
+        <v>0.2702499853449621</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>128.5894690768986</v>
+        <v>40.86811298101248</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -28453,23 +28453,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'max_depth': None}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>105.2869853460489</v>
+        <v>0.08732594244726886</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9.978793932412197</v>
+        <v>0.2353404834364641</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.047156906645986</v>
+        <v>0.8331109091461882</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>10.26094466148458</v>
+        <v>0.2955096317335001</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>132.7906802632198</v>
+        <v>45.26626940092138</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -28483,23 +28483,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>96.38327408209213</v>
+        <v>0.0744668139670427</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>9.671173439713069</v>
+        <v>0.2188818866851191</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>7.221259747763402</v>
+        <v>0.7946150380064657</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>9.817498361705599</v>
+        <v>0.272886082398943</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>132.1041430077959</v>
+        <v>41.73766765953548</v>
       </c>
     </row>
     <row r="17">
@@ -28515,23 +28515,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>128.7022709224937</v>
+        <v>0.06979275504323712</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11.29871700306805</v>
+        <v>0.2060294018735725</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.045130456720644</v>
+        <v>0.762771165928003</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>11.34470232850972</v>
+        <v>0.2641831846337634</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>139.3586207680557</v>
+        <v>39.76805112982542</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -28545,23 +28545,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
+          <t>{'n_estimators': 100, 'loss': 'square', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>137.7246496237175</v>
+        <v>0.06801779375597719</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>11.41652451493452</v>
+        <v>0.2086665926316955</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>7.991980976258162</v>
+        <v>0.9015890193814611</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>11.73561458227551</v>
+        <v>0.2608022119460975</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>138.7549780700473</v>
+        <v>39.28640229545471</v>
       </c>
     </row>
     <row r="18" ht="27.95" customHeight="1">
@@ -28577,53 +28577,53 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 50, 'max_samples': 0.7000000000000001, 'max_features': 0.9}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.0788910079054191</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.2235756034693502</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.8626983522668732</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.280875431295475</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>42.5045797045981</v>
+      </c>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>BaggingRegressor</t>
+        </is>
+      </c>
+      <c r="J18" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 130, 'max_samples': 0.8, 'max_features': 0.6}</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
-        <v>105.2550926095131</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>10.20475929059346</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>7.435153916291751</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>10.25939045994025</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>135.0378251450682</v>
-      </c>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>BaggingRegressor</t>
-        </is>
-      </c>
-      <c r="J18" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K18" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 80, 'max_samples': 0.7000000000000001, 'max_features': 0.1}</t>
-        </is>
-      </c>
       <c r="L18" s="8" t="n">
-        <v>113.5667275314201</v>
+        <v>0.07369318876682973</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>10.59822700255165</v>
+        <v>0.2194274653526851</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>7.914698712553387</v>
+        <v>0.8376966953956699</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>10.65676909440287</v>
+        <v>0.271464894170185</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>136.3982702899362</v>
+        <v>41.50744503019526</v>
       </c>
     </row>
     <row r="19" ht="27.95" customHeight="1">
@@ -28639,53 +28639,53 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.08636159225479959</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.2269634212715693</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.8874345404109324</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.293873428970364</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>43.32023592580761</v>
+      </c>
+      <c r="I19" s="9" t="inlineStr">
+        <is>
+          <t>ExtraTreesRegressor</t>
+        </is>
+      </c>
+      <c r="J19" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K19" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
-        <v>115.4395323839606</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>10.55911666278896</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>7.724204961514369</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>10.74427905370856</v>
-      </c>
-      <c r="H19" s="5" t="n">
-        <v>135.715986717039</v>
-      </c>
-      <c r="I19" s="9" t="inlineStr">
-        <is>
-          <t>ExtraTreesRegressor</t>
-        </is>
-      </c>
-      <c r="J19" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K19" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
-        </is>
-      </c>
       <c r="L19" s="8" t="n">
-        <v>116.3556582076177</v>
+        <v>0.0713792906630369</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>10.54567930323282</v>
+        <v>0.2113592546788431</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>7.969247507335631</v>
+        <v>0.8917965704578439</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>10.7868279956444</v>
+        <v>0.2671690301345515</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>135.0604731188221</v>
+        <v>40.04859258709217</v>
       </c>
     </row>
     <row r="20" ht="42.75" customHeight="1">
@@ -29191,19 +29191,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>37.13996673772404</v>
+        <v>0.07037753225286229</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4.659677153780442</v>
+        <v>0.2017507813625753</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5045339832386633</v>
+        <v>0.5150264585283642</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>6.094256865092252</v>
+        <v>0.2652876405957547</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>42.31985038945245</v>
+        <v>42.28559643470527</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -29221,19 +29221,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>37.53949965961029</v>
+        <v>0.06962850412645995</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>4.659533603154041</v>
+        <v>0.2017569968883144</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.5092120689340328</v>
+        <v>0.5102228463066408</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>6.126948641829006</v>
+        <v>0.2638721359417472</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>42.13144712247024</v>
+        <v>42.47584896339741</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -29249,23 +29249,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.01, 'C': 10}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>35.41801541936032</v>
+        <v>0.0646265641512338</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.720708011588952</v>
+        <v>0.2006408618742201</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8580775772316355</v>
+        <v>0.8393879692093319</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.951303673932319</v>
+        <v>0.2542175527992389</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>38.04770382118252</v>
+        <v>37.74103591600732</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -29279,23 +29279,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.01, 'C': 10}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>35.46402948402488</v>
+        <v>0.06469035136202288</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>4.724565662519777</v>
+        <v>0.2010022205194209</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.8576140223998477</v>
+        <v>0.8385638676274672</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>5.955168300226693</v>
+        <v>0.2543429797773528</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>38.07816170150634</v>
+        <v>37.80701212558154</v>
       </c>
     </row>
     <row r="9" ht="45.75" customHeight="1">
@@ -29373,53 +29373,53 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.063584568507117</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.2024879533289151</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.7846514087847541</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.2521598074775538</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>38.46176447490993</v>
+      </c>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>K-Neighbors Regressor</t>
+        </is>
+      </c>
+      <c r="J10" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K10" s="8" t="inlineStr">
+        <is>
           <t>{'weights': 'distance', 'n_neighbors': 3}</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>36.86486946430904</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>4.831576098132443</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0.756168685424551</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>6.071644708339663</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>39.60817823174948</v>
-      </c>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>K-Neighbors Regressor</t>
-        </is>
-      </c>
-      <c r="J10" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K10" s="8" t="inlineStr">
-        <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
-        </is>
-      </c>
       <c r="L10" s="8" t="n">
-        <v>33.91612083318399</v>
+        <v>0.06911276290966178</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>4.676558952574074</v>
+        <v>0.209199962062971</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.7736472076084728</v>
+        <v>0.7667933604642636</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>5.823754874063982</v>
+        <v>0.262893063639309</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>38.33049985588212</v>
+        <v>39.74977489867006</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -29579,23 +29579,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 50}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>32.2990619996462</v>
+        <v>0.05771289137693022</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4.246628234278313</v>
+        <v>0.1801907346989346</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5158330613895462</v>
+        <v>0.5400876287549763</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>5.6832263723739</v>
+        <v>0.2402350752428342</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>34.99266250262348</v>
+        <v>35.13307856891753</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -29609,23 +29609,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>29.66462223622578</v>
+        <v>0.06146266954103113</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>4.170481338029926</v>
+        <v>0.1890944479430212</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.5481686109001079</v>
+        <v>0.5948601421441009</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>5.446523867222632</v>
+        <v>0.2479166584581019</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>35.1204498693432</v>
+        <v>36.80686284889799</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -29645,19 +29645,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>35.26640566426295</v>
+        <v>0.104505368857616</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.679005733960152</v>
+        <v>0.2553222596166176</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8374712717755595</v>
+        <v>1.157034626147489</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>5.93855248897094</v>
+        <v>0.3232729015207059</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>37.88696783875416</v>
+        <v>44.41308822409466</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -29675,19 +29675,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>36.00490864089921</v>
+        <v>0.1084723931920652</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>4.679380563777962</v>
+        <v>0.246198243932473</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.87541128297493</v>
+        <v>1.1984190161359</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>6.000409039465493</v>
+        <v>0.3293514736448969</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>37.65194152607425</v>
+        <v>42.24526586865516</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -29703,23 +29703,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 10, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>31.3443909229003</v>
+        <v>0.07019905174358645</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.31756915162458</v>
+        <v>0.2146748780465477</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5698234330887066</v>
+        <v>0.7766712616468675</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>5.59860615893816</v>
+        <v>0.2649510365021931</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>36.50493019158014</v>
+        <v>40.59948328720341</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -29737,19 +29737,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>34.50893860260175</v>
+        <v>0.07193889030191924</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>4.749436034834201</v>
+        <v>0.2180874354573999</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.7230130703521565</v>
+        <v>0.7510515611555921</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>5.874430917340142</v>
+        <v>0.2682142619286291</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>39.26475602136708</v>
+        <v>41.61150172629353</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -29765,23 +29765,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>38.86660124810525</v>
+        <v>0.06941080343789603</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.014045986874715</v>
+        <v>0.2115633334602695</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.679785854488185</v>
+        <v>0.7334959804438423</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>6.234308401747963</v>
+        <v>0.2634593012931903</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>41.28496049287736</v>
+        <v>40.3794150993054</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -29799,19 +29799,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>37.06940074766704</v>
+        <v>0.07315104481776731</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>4.952552207326774</v>
+        <v>0.2170901045303254</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.7193113002164357</v>
+        <v>0.7023344489982301</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>6.088464564047904</v>
+        <v>0.2704644982576592</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>40.74917778896904</v>
+        <v>41.44336579198144</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -29827,53 +29827,53 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 50, 'loss': 'linear', 'learning_rate': 0.01}</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.06232143304493686</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.1998126144493126</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0.7697080677722955</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0.2496426106355581</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>38.07438794520438</v>
+      </c>
+      <c r="I17" s="9" t="inlineStr">
+        <is>
+          <t>AdaBoostRegressor</t>
+        </is>
+      </c>
+      <c r="J17" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K17" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
-        <v>37.29285863359377</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>4.607726761020152</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>0.6286698580559542</v>
-      </c>
-      <c r="G17" s="5" t="n">
-        <v>6.106787914574549</v>
-      </c>
-      <c r="H17" s="5" t="n">
-        <v>39.80850150362378</v>
-      </c>
-      <c r="I17" s="9" t="inlineStr">
-        <is>
-          <t>AdaBoostRegressor</t>
-        </is>
-      </c>
-      <c r="J17" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K17" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
-        </is>
-      </c>
       <c r="L17" s="8" t="n">
-        <v>34.16241835297543</v>
+        <v>0.07356412276449883</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>4.399150788525293</v>
+        <v>0.2056689103114825</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.6691091675448132</v>
+        <v>0.6398681352463883</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>5.844862560657472</v>
+        <v>0.2712270686426759</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>36.4669604267341</v>
+        <v>40.18776143273858</v>
       </c>
     </row>
     <row r="18" ht="56.1" customHeight="1">
@@ -29889,53 +29889,53 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 30, 'max_samples': 0.9, 'max_features': 0.7000000000000001}</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.070569608410964</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.2113008195769781</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.7227305321709783</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.2656494088285611</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>40.29877326803152</v>
+      </c>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>BaggingRegressor</t>
+        </is>
+      </c>
+      <c r="J18" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K18" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 130, 'max_samples': 0.8, 'max_features': 0.6}</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
-        <v>37.79882000647545</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>4.988485163243223</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>0.7061343238137953</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>6.148074495846277</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>40.98756305076311</v>
-      </c>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>BaggingRegressor</t>
-        </is>
-      </c>
-      <c r="J18" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K18" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 130, 'max_samples': 0.8, 'max_features': 0.6}</t>
-        </is>
-      </c>
       <c r="L18" s="8" t="n">
-        <v>37.68377958687146</v>
+        <v>0.0746086557067981</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>4.931155250310074</v>
+        <v>0.220585364053199</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.7189411349810458</v>
+        <v>0.7293858141364383</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>6.138711557555988</v>
+        <v>0.2731458506124486</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>40.50113163399091</v>
+        <v>41.96230631385913</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -29955,19 +29955,19 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>33.95894527668515</v>
+        <v>0.06680016606937847</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4.624200520660809</v>
+        <v>0.2066544037147207</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.7022918812476441</v>
+        <v>0.7362192331149389</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>5.82743041800459</v>
+        <v>0.2584572809370602</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>38.15036223297199</v>
+        <v>39.52542088415041</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -29985,19 +29985,19 @@
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>34.01480599646123</v>
+        <v>0.0631162203967692</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>4.707295677721516</v>
+        <v>0.1956460343166802</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>0.7152503752885697</v>
+        <v>0.6878279764671822</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>5.832221360379013</v>
+        <v>0.2512294178570041</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>39.06067473394807</v>
+        <v>37.56590400611282</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">

--- a/data/performance_sheets/Full Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/Full Overall Model Peformance Results.xlsx
@@ -2208,19 +2208,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>140.6962197720311</v>
+        <v>0.5332670952068923</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.84010422918213</v>
+        <v>0.447486862139495</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.63258684770534</v>
+        <v>0.8845050500578514</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>11.86154373477715</v>
+        <v>0.7302513917870286</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>141.2023071415922</v>
+        <v>22.02467847747726</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>140.6962197720311</v>
+        <v>0.5332670952068923</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>11.84010422918213</v>
+        <v>0.447486862139495</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>8.63258684770534</v>
+        <v>0.8845050500578514</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>11.86154373477715</v>
+        <v>0.7302513917870286</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>141.2023071415922</v>
+        <v>22.02467847747726</v>
       </c>
     </row>
     <row r="10">
@@ -2328,53 +2328,53 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.5452566706221496</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5890601443683143</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.8180022143228661</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.7384149718296275</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>28.38206076759644</v>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Stochastic Gradient Descent Regressor</t>
+        </is>
+      </c>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
           <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
-        <v>133.5273507912384</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>10.44020724526907</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>6.9736608038427</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>11.5554035321679</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>131.4268684874393</v>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Stochastic Gradient Descent Regressor</t>
-        </is>
-      </c>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K11" s="8" t="inlineStr">
-        <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
-        </is>
-      </c>
       <c r="L11" s="8" t="n">
-        <v>127.6029562669107</v>
+        <v>0.6083750435953187</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>10.12045622316791</v>
+        <v>0.6201387702442493</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>6.507427800492946</v>
+        <v>0.6369605693370298</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>11.29614785079014</v>
+        <v>0.7799840021406328</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>127.768610505465</v>
+        <v>30.03089032177204</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -2906,23 +2906,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>96.62930537583729</v>
+        <v>2.141680852920261</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9.685768577687254</v>
+        <v>0.9185474551649812</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6.769191794982385</v>
+        <v>0.8650390754153895</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>9.830020619298685</v>
+        <v>1.463448274767599</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>132.4911174760253</v>
+        <v>44.5327802799688</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -2936,23 +2936,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>100.2251593806118</v>
+        <v>1.358728834043234</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>9.847268052417064</v>
+        <v>0.9110563363757153</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>6.635343059983313</v>
+        <v>0.5790890515462126</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>10.01125163906151</v>
+        <v>1.165645243649728</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>133.2473113412262</v>
+        <v>51.93024694954721</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -3050,23 +3050,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>271.9542846679688</v>
+        <v>0.8518315553665161</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16.47562026977539</v>
+        <v>0.5995005369186401</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11.74530792236328</v>
+        <v>1.077376484870911</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>16.49103649465275</v>
+        <v>0.9229472115817438</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>153.7819981575012</v>
+        <v>26.39395594596863</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -3080,23 +3080,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>142.9761657714844</v>
+        <v>0.829828679561615</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>11.93599605560303</v>
+        <v>0.5842703580856323</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>8.696977615356445</v>
+        <v>1.06698739528656</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>11.95726414241503</v>
+        <v>0.9109493287563337</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>141.5315628051758</v>
+        <v>25.96966624259949</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -3112,53 +3112,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.4481639564037323</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.4134463369846344</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.3354846239089966</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.6694504883885979</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>18.20547729730606</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>251.3477325439453</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>15.84080982208252</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>7.348580837249756</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>15.85395006122907</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>151.3383388519287</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>259.2489624023438</v>
+        <v>0.4478438794612885</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>16.0883846282959</v>
+        <v>0.4127300977706909</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>7.45793628692627</v>
+        <v>0.3347290456295013</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>16.10120996702868</v>
+        <v>0.6692113862310537</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>151.9021511077881</v>
+        <v>18.34664344787598</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -3178,19 +3178,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>326.5678100585938</v>
+        <v>0.8101719617843628</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18.05487442016602</v>
+        <v>0.5761451721191406</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.74947643280029</v>
+        <v>1.050992608070374</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>18.07118728967728</v>
+        <v>0.9000955292547357</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>156.9262862205505</v>
+        <v>25.718754529953</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -3208,19 +3208,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>299.3433227539062</v>
+        <v>0.6013230085372925</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>17.28519058227539</v>
+        <v>0.4593352675437927</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>12.24089908599854</v>
+        <v>0.9318137764930725</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>17.30154105141812</v>
+        <v>0.7754501973288114</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>155.4619908332825</v>
+        <v>22.20852375030518</v>
       </c>
     </row>
   </sheetData>
@@ -3520,19 +3520,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>36.46866513040356</v>
+        <v>0.4908658011265332</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.80559786375</v>
+        <v>0.4358101953853054</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8794853706849733</v>
+        <v>0.4097778255120139</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>6.038929137719995</v>
+        <v>0.7006181564351106</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>38.50588754138163</v>
+        <v>20.82631720090059</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -3550,19 +3550,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>36.46866513040356</v>
+        <v>0.4908658011265332</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>4.80559786375</v>
+        <v>0.4358101953853054</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.8794853706849733</v>
+        <v>0.4097778255120139</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>6.038929137719995</v>
+        <v>0.7006181564351106</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>38.50588754138163</v>
+        <v>20.82631720090059</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -3640,23 +3640,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>36.15243340471674</v>
+        <v>0.4105421571661939</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.601579556846893</v>
+        <v>0.5085412774854936</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4715114753605957</v>
+        <v>0.3300583154105121</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6.012689365393554</v>
+        <v>0.640735637502858</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>38.94766178384654</v>
+        <v>24.64543076237906</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -3670,23 +3670,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>36.82779053587713</v>
+        <v>0.5031797572654793</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>4.557296255076936</v>
+        <v>0.5689253667022053</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.4856143744895619</v>
+        <v>0.407210187293778</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>6.068590490046032</v>
+        <v>0.7093516457057665</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>38.97951261899079</v>
+        <v>26.66504931368208</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -4218,23 +4218,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>38.25474875693092</v>
+        <v>1.022180869844483</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5.021948162200454</v>
+        <v>0.774452006853783</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6798449752322752</v>
+        <v>0.435599749342317</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>6.185042340754905</v>
+        <v>1.011029608787242</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>41.53185730866472</v>
+        <v>43.61126399024658</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -4248,23 +4248,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>40.80016564518655</v>
+        <v>0.9347939071256115</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>5.066082650778004</v>
+        <v>0.7938269998160223</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6124687748890439</v>
+        <v>0.3671135997993894</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>6.387500735435304</v>
+        <v>0.966847406329257</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>42.50123454671492</v>
+        <v>40.60029802517411</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -4362,23 +4362,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>67.92058563232422</v>
+        <v>0.7189814448356628</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6.396529197692871</v>
+        <v>0.5324844121932983</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.325189709663391</v>
+        <v>0.497150331735611</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>8.241394641219665</v>
+        <v>0.8479277356211806</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>44.46528851985931</v>
+        <v>23.66939187049866</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -4392,23 +4392,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 100, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>62.11225128173828</v>
+        <v>0.7405569553375244</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>6.072823047637939</v>
+        <v>0.5436714887619019</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.273857474327087</v>
+        <v>0.5052264928817749</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>7.881132614144891</v>
+        <v>0.8605561895294952</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>43.13367307186127</v>
+        <v>24.06422048807144</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -4424,23 +4424,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>42.15102005004883</v>
+        <v>0.3956518173217773</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.097104072570801</v>
+        <v>0.3847003877162933</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8266583681106567</v>
+        <v>0.2841245532035828</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>6.492381693188474</v>
+        <v>0.6290085987661673</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>36.00962162017822</v>
+        <v>16.83344841003418</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -4458,19 +4458,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>42.08591461181641</v>
+        <v>0.3887277543544769</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>5.081693172454834</v>
+        <v>0.3907525241374969</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.8248628377914429</v>
+        <v>0.2837730944156647</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>6.487365768308151</v>
+        <v>0.6234803560293435</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>36.09801232814789</v>
+        <v>16.82301908731461</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -4490,19 +4490,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>66.84836578369141</v>
+        <v>5.103315830230713</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.354284286499023</v>
+        <v>2.15132737159729</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.313871383666992</v>
+        <v>0.8197266459465027</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.176084991222352</v>
+        <v>2.259051975991414</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>44.31748688220978</v>
+        <v>142.3182487487793</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -4520,19 +4520,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>66.97896575927734</v>
+        <v>0.7007987499237061</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>6.329089164733887</v>
+        <v>0.5201743841171265</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.316599488258362</v>
+        <v>0.4901342988014221</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>8.184067800261515</v>
+        <v>0.8371372348209737</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>44.16948854923248</v>
+        <v>23.23830425739288</v>
       </c>
     </row>
   </sheetData>
@@ -4828,23 +4828,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06909376831309415</v>
+        <v>0.4867763644923185</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2076592871879438</v>
+        <v>0.4317176122233018</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8733132469670067</v>
+        <v>0.383757842495929</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2628569350675271</v>
+        <v>0.6976936035913749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>38.26588314370247</v>
+        <v>20.54057201310868</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -4858,23 +4858,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06909376831309415</v>
+        <v>0.4867763644923185</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2076592871879438</v>
+        <v>0.4317176122233018</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.8733132469670067</v>
+        <v>0.383757842495929</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2628569350675271</v>
+        <v>0.6976936035913749</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>38.26588314370247</v>
+        <v>20.54057201310868</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -4952,23 +4952,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05981742396484842</v>
+        <v>0.3620034678482847</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.192748305282214</v>
+        <v>0.494852589907862</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7198563202836805</v>
+        <v>0.312480627655367</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2445760085634902</v>
+        <v>0.6016672401321886</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>36.6258051948386</v>
+        <v>23.87738228054699</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -4982,23 +4982,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.05872010809318801</v>
+        <v>0.5022149716629479</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1911802781232142</v>
+        <v>0.5674786524457021</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.7105641322487564</v>
+        <v>0.3889076282966992</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2423223227298467</v>
+        <v>0.7086712719328673</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>36.40061261083111</v>
+        <v>26.40517585107237</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -5530,23 +5530,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06014735077772661</v>
+        <v>0.6520254402174099</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1969328024417749</v>
+        <v>0.682634357130363</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6288558095891007</v>
+        <v>0.3756527660626817</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2452495683538028</v>
+        <v>0.8074809225098819</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>37.91173000814645</v>
+        <v>36.41231073900862</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -5560,23 +5560,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05573640923650819</v>
+        <v>0.8887944541247551</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.189201465877167</v>
+        <v>0.7899306856987249</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.7425148492723749</v>
+        <v>0.4425773519744741</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2360855972661361</v>
+        <v>0.9427589586552626</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>35.93659552663134</v>
+        <v>38.61602881660219</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -5674,23 +5674,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09236214309930801</v>
+        <v>0.6908755898475647</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2329420745372772</v>
+        <v>0.5126404762268066</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.14468252658844</v>
+        <v>0.4607059955596924</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3039114066620534</v>
+        <v>0.831189262350979</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>39.81951773166656</v>
+        <v>22.73560911417007</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -5704,23 +5704,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.09090351313352585</v>
+        <v>0.6481095552444458</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2303213328123093</v>
+        <v>0.4841032922267914</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.13540256023407</v>
+        <v>0.4443799555301666</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3015020947415222</v>
+        <v>0.8050525170723</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>39.37431573867798</v>
+        <v>22.00431078672409</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -5736,23 +5736,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07322540879249573</v>
+        <v>0.317775547504425</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2118563801050186</v>
+        <v>0.347876250743866</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6867056488990784</v>
+        <v>0.2225202172994614</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2706019378949377</v>
+        <v>0.5637158393237013</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>33.11586380004883</v>
+        <v>14.61822241544724</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -5766,23 +5766,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.07265624403953552</v>
+        <v>0.3139091432094574</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2107133865356445</v>
+        <v>0.3573826253414154</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.6884663105010986</v>
+        <v>0.2240816354751587</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2695482221042007</v>
+        <v>0.5602759527317386</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>33.1792801618576</v>
+        <v>14.63615745306015</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -5802,19 +5802,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08335034549236298</v>
+        <v>0.737468957901001</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2207132130861282</v>
+        <v>0.5388787984848022</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.087554812431335</v>
+        <v>0.475778192281723</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2887045990149152</v>
+        <v>0.8587601282669107</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>38.65712285041809</v>
+        <v>23.62448275089264</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -5832,19 +5832,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.07727573812007904</v>
+        <v>0.6941336989402771</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2126257568597794</v>
+        <v>0.5106062293052673</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.037377715110779</v>
+        <v>0.4615055918693542</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2779851401065874</v>
+        <v>0.833146865168607</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>37.82332837581635</v>
+        <v>22.74130135774612</v>
       </c>
     </row>
   </sheetData>
@@ -26813,19 +26813,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06091298454931307</v>
+        <v>0.06172193609702124</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1955009938597822</v>
+        <v>0.1958490626273459</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7253567175974608</v>
+        <v>0.7297056837786052</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2468055602074497</v>
+        <v>0.2484389987442013</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>37.11296117519737</v>
+        <v>37.13413186383082</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -26843,19 +26843,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.06172193609702122</v>
+        <v>0.06107766739217269</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1958490626273453</v>
+        <v>0.1956529860581801</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.7297056837786082</v>
+        <v>0.7275112359029192</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2484389987442012</v>
+        <v>0.2471389637272373</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>37.13413186383067</v>
+        <v>37.12588514558791</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -27387,23 +27387,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06791671131949313</v>
+        <v>0.07294817709847869</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2127423735816549</v>
+        <v>0.2181153427067415</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7321318105884123</v>
+        <v>0.7872346183406025</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2606083485222473</v>
+        <v>0.2700892021138178</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>40.69864728254271</v>
+        <v>40.90808990180628</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -27417,23 +27417,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.06987204798015406</v>
+        <v>0.07200744656063951</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2145108297639922</v>
+        <v>0.2184727590425998</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.7531408466785543</v>
+        <v>0.7254616640264326</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2643332139178769</v>
+        <v>0.2683420327877083</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>40.12045682658076</v>
+        <v>41.42856155448818</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -27531,53 +27531,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.09027207642793655</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2295640259981155</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.134106040000916</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3004531185192401</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>39.41410481929779</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.09148849546909332</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.2322169244289398</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>1.137816309928894</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.3024706522443018</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>39.84034359455109</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.09176062792539597</v>
+        <v>0.08884589374065399</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2327753603458405</v>
+        <v>0.2287627905607224</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.135439872741699</v>
+        <v>1.120225310325623</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3029201675778553</v>
+        <v>0.2980702832230244</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>39.6741509437561</v>
+        <v>39.54989016056061</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -27597,19 +27597,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07239967584609985</v>
+        <v>0.07074994593858719</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2103073298931122</v>
+        <v>0.213055893778801</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6911181807518005</v>
+        <v>0.6769193410873413</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2690718785865588</v>
+        <v>0.2659886199418824</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>33.36253762245178</v>
+        <v>32.9684853553772</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -27627,19 +27627,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.07030685991048813</v>
+        <v>0.07459685951471329</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2093741744756699</v>
+        <v>0.2176546156406403</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.6777734160423279</v>
+        <v>0.6967372894287109</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2651544076769008</v>
+        <v>0.2731242565476624</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>33.16289186477661</v>
+        <v>33.62736999988556</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -27659,19 +27659,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0875251516699791</v>
+        <v>0.07666049897670746</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2259458005428314</v>
+        <v>0.2121936678886414</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.111070394515991</v>
+        <v>1.030852317810059</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2958465001820693</v>
+        <v>0.276876324334002</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>39.18522894382477</v>
+        <v>37.80723214149475</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27689,19 +27689,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.07625538110733032</v>
+        <v>0.07504471391439438</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2132140845060349</v>
+        <v>0.2115424573421478</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.022424697875977</v>
+        <v>1.007790446281433</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2761437689091143</v>
+        <v>0.2739429026538092</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>38.02186846733093</v>
+        <v>37.87952959537506</v>
       </c>
     </row>
   </sheetData>
@@ -27999,23 +27999,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>140.6962197720311</v>
+        <v>0.0708215793490518</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.84010422918213</v>
+        <v>0.2116710821125182</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>8.63258684770534</v>
+        <v>0.9884978037716073</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>11.86154373477715</v>
+        <v>0.2661232409036306</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>141.2023071415922</v>
+        <v>39.21310174927157</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -28029,23 +28029,23 @@
       </c>
       <c r="K9" s="15" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>140.6962197720311</v>
+        <v>0.0708215793490518</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>11.84010422918213</v>
+        <v>0.2116710821125182</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>8.63258684770534</v>
+        <v>0.9884978037716073</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>11.86154373477715</v>
+        <v>0.2661232409036306</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>141.2023071415922</v>
+        <v>39.21310174927157</v>
       </c>
     </row>
     <row r="10">
@@ -28123,23 +28123,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>122.4940614732517</v>
+        <v>0.07270155885568527</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10.19824391299375</v>
+        <v>0.2187286180057341</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.868576344508675</v>
+        <v>0.9330912811920884</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>11.06770353204547</v>
+        <v>0.2696322659766173</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>131.5088105154503</v>
+        <v>40.77720363330901</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -28153,23 +28153,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>126.9152084199288</v>
+        <v>0.07270834035110603</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>10.42945169206287</v>
+        <v>0.2187428327387833</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>6.957277421871106</v>
+        <v>0.9331872059061947</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>11.26566502342089</v>
+        <v>0.269644841135717</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>132.9483741086306</v>
+        <v>40.77911643807914</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -28701,23 +28701,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>109.7175554487287</v>
+        <v>0.07957559604466032</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10.06313901396396</v>
+        <v>0.2170157592386736</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7.30077337432939</v>
+        <v>0.8063657960026051</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>10.47461481147296</v>
+        <v>0.2820914675148121</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>132.5788341498179</v>
+        <v>41.48406451879939</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -28731,23 +28731,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>116.6954299629533</v>
+        <v>0.071476469151218</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>10.23695891565172</v>
+        <v>0.2159749843185277</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>7.76399271850605</v>
+        <v>0.9128488256631323</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>10.80256589718171</v>
+        <v>0.2673508353291943</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>129.886356255845</v>
+        <v>40.44816533537235</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -28845,23 +28845,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>349.7150573730469</v>
+        <v>0.1212508901953697</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18.68707847595215</v>
+        <v>0.2675085663795471</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13.23029232025146</v>
+        <v>1.431464910507202</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>18.70066997123491</v>
+        <v>0.3482109851733137</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>158.0618143081665</v>
+        <v>43.82136166095734</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -28875,23 +28875,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>331.0702514648438</v>
+        <v>0.1161446049809456</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>18.18136596679688</v>
+        <v>0.2618371844291687</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>12.89069652557373</v>
+        <v>1.40399444103241</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>18.19533598109262</v>
+        <v>0.3407999486222755</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>157.1545362472534</v>
+        <v>43.25119256973267</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -28911,19 +28911,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>259.2344665527344</v>
+        <v>0.0950872004032135</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16.08805465698242</v>
+        <v>0.2390971630811691</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7.475453853607178</v>
+        <v>0.9830989241600037</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>16.1007598129012</v>
+        <v>0.3083621254356856</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>151.9064426422119</v>
+        <v>38.82578611373901</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -28937,23 +28937,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>256.8403930664062</v>
+        <v>0.08621995896100998</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>16.01626396179199</v>
+        <v>0.2267246097326279</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>7.422382831573486</v>
+        <v>0.9500938653945923</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>16.02624076527013</v>
+        <v>0.2936323533962325</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>151.7427563667297</v>
+        <v>37.95830607414246</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -28973,19 +28973,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>225.8371734619141</v>
+        <v>0.08829540759325027</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.00964546203613</v>
+        <v>0.2319336980581284</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.7264232635498</v>
+        <v>1.212814569473267</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>15.02787987248747</v>
+        <v>0.2971454317219941</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>150.4373550415039</v>
+        <v>40.59386849403381</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -29003,19 +29003,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>207.4512023925781</v>
+        <v>0.1047985777258873</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>14.38334655761719</v>
+        <v>0.2488640248775482</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>10.28293418884277</v>
+        <v>1.340811491012573</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>14.40316640161385</v>
+        <v>0.3237260844076166</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>148.852264881134</v>
+        <v>41.98392331600189</v>
       </c>
     </row>
   </sheetData>
@@ -29311,23 +29311,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>36.46866513040356</v>
+        <v>0.06836997508507714</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.80559786375</v>
+        <v>0.2080751436730939</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.8794853706849733</v>
+        <v>0.8924472199170855</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>6.038929137719995</v>
+        <v>0.2614765287460371</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>38.50588754138163</v>
+        <v>38.62896271899861</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -29341,23 +29341,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>36.46866513040356</v>
+        <v>0.06836997508507714</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>4.80559786375</v>
+        <v>0.2080751436730939</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.8794853706849733</v>
+        <v>0.8924472199170855</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>6.038929137719995</v>
+        <v>0.2614765287460371</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>38.50588754138163</v>
+        <v>38.62896271899861</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -29435,23 +29435,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>34.41580453921155</v>
+        <v>0.05930333332985119</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.471354660194879</v>
+        <v>0.1906540830605262</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4924605579277114</v>
+        <v>0.7026872657238044</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.866498490514725</v>
+        <v>0.2435227573140777</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>38.95271288712782</v>
+        <v>36.77812717452017</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -29465,23 +29465,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>34.30059115619837</v>
+        <v>0.05939171934936192</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>4.425242915741952</v>
+        <v>0.1914402972547025</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.4863441068894532</v>
+        <v>0.7046506008816651</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>5.856670654578279</v>
+        <v>0.243704163586431</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>39.10466692215454</v>
+        <v>36.90230567947948</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -30013,23 +30013,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>51.6216498857763</v>
+        <v>0.06738311176386887</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5.715647986764955</v>
+        <v>0.2097964861355179</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7826188793782544</v>
+        <v>0.8079669435470732</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>7.184820797053765</v>
+        <v>0.2595825721497282</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>47.10208110331696</v>
+        <v>39.51670820594691</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -30043,23 +30043,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>40.88841023325811</v>
+        <v>0.07100038246618118</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>5.052606679959898</v>
+        <v>0.2119010108818231</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.7085359479714255</v>
+        <v>0.8259036969477924</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>6.394404603499696</v>
+        <v>0.2664589695735183</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>42.49687897026453</v>
+        <v>39.70920287364527</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -30157,23 +30157,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>36.84180450439453</v>
+        <v>0.1024607717990875</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.839949607849121</v>
+        <v>0.2464261502027512</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8525461554527283</v>
+        <v>1.219668745994568</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>6.069745011480674</v>
+        <v>0.3200949418517692</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>38.92962634563446</v>
+        <v>41.72285795211792</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -30187,23 +30187,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>50.26314926147461</v>
+        <v>0.1026612892746925</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>5.454587459564209</v>
+        <v>0.2463721483945847</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.154515981674194</v>
+        <v>1.225009083747864</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>7.089650856105299</v>
+        <v>0.3204080043861148</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>40.52602648735046</v>
+        <v>41.67600274085999</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -30223,19 +30223,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>41.7712287902832</v>
+        <v>0.07460787147283554</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.090438842773438</v>
+        <v>0.2155144512653351</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8202810287475586</v>
+        <v>0.8080672025680542</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>6.463066516003313</v>
+        <v>0.2731444150496867</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>35.95565855503082</v>
+        <v>35.64174771308899</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -30253,19 +30253,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>42.0013313293457</v>
+        <v>0.07987530529499054</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>5.10542106628418</v>
+        <v>0.2227065712213516</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.8238136172294617</v>
+        <v>0.8396964073181152</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>6.480843411882878</v>
+        <v>0.2826221953332586</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>35.98123788833618</v>
+        <v>36.13868057727814</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -30285,19 +30285,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>60.29428863525391</v>
+        <v>0.09840481728315353</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.002362728118896</v>
+        <v>0.2302377820014954</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.256704807281494</v>
+        <v>1.18748950958252</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.764939705835062</v>
+        <v>0.313695421202085</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>42.85988509654999</v>
+        <v>39.41067159175873</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -30315,19 +30315,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>46.33063507080078</v>
+        <v>0.08482001721858978</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>5.277430057525635</v>
+        <v>0.2235678881406784</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.101854205131531</v>
+        <v>1.117714524269104</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>6.806661080941285</v>
+        <v>0.291238763248627</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>39.86817300319672</v>
+        <v>39.29300308227539</v>
       </c>
     </row>
   </sheetData>

--- a/data/performance_sheets/Full Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/Full Overall Model Peformance Results.xlsx
@@ -1798,23 +1798,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04489677771925926</v>
+        <v>0.05750292167067528</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1721489727497101</v>
+        <v>0.2099033296108246</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5261800289154053</v>
+        <v>0.5777075290679932</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2118885974262401</v>
+        <v>0.2397976681927397</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>30.91115951538086</v>
+        <v>33.30719769001007</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -1828,23 +1828,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04905489832162857</v>
+        <v>0.03488029539585114</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1851156204938889</v>
+        <v>0.1530782878398895</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.5423405766487122</v>
+        <v>0.4258335828781128</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.22148340416751</v>
+        <v>0.186762671312688</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>31.9078654050827</v>
+        <v>25.92578232288361</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -3116,19 +3116,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4481639564037323</v>
+        <v>0.4480395615100861</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4134463369846344</v>
+        <v>0.4084169268608093</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3354846239089966</v>
+        <v>0.334872841835022</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6694504883885979</v>
+        <v>0.6693575737302792</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.20547729730606</v>
+        <v>18.27613562345505</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -3146,19 +3146,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.4478438794612885</v>
+        <v>0.4583562016487122</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4127300977706909</v>
+        <v>0.4152608811855316</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.3347290456295013</v>
+        <v>0.3377976715564728</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6692113862310537</v>
+        <v>0.6770200895458806</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>18.34664344787598</v>
+        <v>18.51608157157898</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -4428,19 +4428,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3956518173217773</v>
+        <v>0.3976878523826599</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3847003877162933</v>
+        <v>0.3877040445804596</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2841245532035828</v>
+        <v>0.2853509783744812</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6290085987661673</v>
+        <v>0.630624969679016</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.83344841003418</v>
+        <v>16.93905740976334</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -4454,23 +4454,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.3887277543544769</v>
+        <v>0.3951728343963623</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3907525241374969</v>
+        <v>0.3871093094348907</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2837730944156647</v>
+        <v>0.2847402393817902</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6234803560293435</v>
+        <v>0.6286277391241675</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>16.82301908731461</v>
+        <v>16.92072600126266</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -5740,19 +5740,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.317775547504425</v>
+        <v>0.3157013058662415</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.347876250743866</v>
+        <v>0.3504614233970642</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2225202172994614</v>
+        <v>0.2225605249404907</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5637158393237013</v>
+        <v>0.561873033581646</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>14.61822241544724</v>
+        <v>14.64655101299286</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -5770,19 +5770,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.3139091432094574</v>
+        <v>0.3134109377861023</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3573826253414154</v>
+        <v>0.3467224836349487</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2240816354751587</v>
+        <v>0.2210704684257507</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.5602759527317386</v>
+        <v>0.5598311690019611</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>14.63615745306015</v>
+        <v>14.51652944087982</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7050,19 +7050,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08313718438148499</v>
+        <v>0.06836151331663132</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.213151291012764</v>
+        <v>0.1976654529571533</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.569407939910889</v>
+        <v>1.843703985214233</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2883351944898246</v>
+        <v>0.2614603475034624</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>50.72542428970337</v>
+        <v>41.74890220165253</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -7080,19 +7080,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.08936914056539536</v>
+        <v>0.09576371312141418</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2128875255584717</v>
+        <v>0.2384048849344254</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>2.31003212928772</v>
+        <v>2.455630302429199</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2989467186061679</v>
+        <v>0.3094571264673253</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>47.83287048339844</v>
+        <v>44.0571516752243</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8360,19 +8360,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0539100356400013</v>
+        <v>0.0725339949131012</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1516135632991791</v>
+        <v>0.1972139626741409</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.413196086883545</v>
+        <v>2.509593486785889</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2321853475997168</v>
+        <v>0.2693213599273203</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>50.48172473907471</v>
+        <v>37.577885389328</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8390,19 +8390,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.07683323323726654</v>
+        <v>0.07008557766675949</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1868439018726349</v>
+        <v>0.1848444193601608</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>2.669310331344604</v>
+        <v>2.493685483932495</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2771880827836337</v>
+        <v>0.2647368082960121</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>46.62659466266632</v>
+        <v>35.88809072971344</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9666,23 +9666,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06732920557260513</v>
+        <v>0.08031501621007919</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1746461540460587</v>
+        <v>0.2045094966888428</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.641132831573486</v>
+        <v>2.806225538253784</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2594787189204639</v>
+        <v>0.2833990405948461</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>56.42824172973633</v>
+        <v>38.55511844158173</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -9696,23 +9696,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.0686083510518074</v>
+        <v>0.08088158816099167</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1642849743366241</v>
+        <v>0.1791429966688156</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>2.730139017105103</v>
+        <v>3.21698784828186</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2619319588210026</v>
+        <v>0.2843968849354572</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>54.60270047187805</v>
+        <v>33.82788002490997</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -10980,19 +10980,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9193377494812012</v>
+        <v>0.8685243725776672</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5741503238677979</v>
+        <v>0.5693554878234863</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6708595156669617</v>
+        <v>0.5957600474357605</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9588210205670301</v>
+        <v>0.9319465502793962</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>28.25272977352142</v>
+        <v>27.36578583717346</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -11010,19 +11010,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.9163031578063965</v>
+        <v>0.9483057260513306</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.5272252559661865</v>
+        <v>0.5624681711196899</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.7325341105461121</v>
+        <v>0.7089503407478333</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.9572372526215204</v>
+        <v>0.9738099024200414</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>26.50105357170105</v>
+        <v>26.25008523464203</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12286,53 +12286,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.9466094970703125</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.5656729340553284</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.6677644848823547</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.972938588540054</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>27.33683586120605</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>1.060123443603516</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.5785348415374756</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.7695940136909485</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>1.029622961866875</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>29.38205897808075</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>1.02402651309967</v>
+        <v>1.179216861724854</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.5700902342796326</v>
+        <v>0.6664842367172241</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.7992473840713501</v>
+        <v>0.7933570742607117</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>1.011941951447646</v>
+        <v>1.085917520682328</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>31.40580952167511</v>
+        <v>30.4016649723053</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13600,19 +13600,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9238736629486084</v>
+        <v>0.957770049571991</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5155711770057678</v>
+        <v>0.5391629934310913</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4216952919960022</v>
+        <v>0.429533451795578</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9611834699726209</v>
+        <v>0.9786572686962433</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>30.34694492816925</v>
+        <v>24.92750138044357</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -13630,19 +13630,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.8662574887275696</v>
+        <v>0.8648152947425842</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.5041083097457886</v>
+        <v>0.5086666941642761</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.400973916053772</v>
+        <v>0.4092481434345245</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.9307295464997174</v>
+        <v>0.9299544584239511</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>29.25629615783691</v>
+        <v>24.46250766515732</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -14654,23 +14654,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03078448958694935</v>
+        <v>0.03909159079194069</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1372099071741104</v>
+        <v>0.1695766299962997</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4033866822719574</v>
+        <v>0.4506393373012543</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.175455092792855</v>
+        <v>0.1977159345928919</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>32.51255452632904</v>
+        <v>28.28973829746246</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15932,19 +15932,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04548026993870735</v>
+        <v>0.04877946898341179</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1718173623085022</v>
+        <v>0.175705760717392</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6442858576774597</v>
+        <v>0.7086941599845886</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2132610370853226</v>
+        <v>0.2208607456824589</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>38.58022689819336</v>
+        <v>31.73773884773254</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15958,23 +15958,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04465381801128387</v>
+        <v>0.04555032774806023</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1680345982313156</v>
+        <v>0.1705947816371918</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.6400624513626099</v>
+        <v>0.6272446513175964</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2113145002390604</v>
+        <v>0.2134252275342824</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>38.19491267204285</v>
+        <v>30.47732710838318</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -16990,19 +16990,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04134400188922882</v>
+        <v>0.04348368942737579</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1558037847280502</v>
+        <v>0.1592379808425903</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5959192514419556</v>
+        <v>0.619971752166748</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2033322450798909</v>
+        <v>0.2085274308751148</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>34.93912518024445</v>
+        <v>28.84498238563538</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -18012,19 +18012,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05602587759494781</v>
+        <v>0.06141544505953789</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1841921955347061</v>
+        <v>0.1968103647232056</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7449573278427124</v>
+        <v>0.7280382513999939</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2366978614076346</v>
+        <v>0.2478213975013818</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>39.36890065670013</v>
+        <v>33.93422663211823</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -19034,19 +19034,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3052645921707153</v>
+        <v>0.3064436614513397</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3761034905910492</v>
+        <v>0.3757912814617157</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2271549850702286</v>
+        <v>0.2280732393264771</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5525075494241823</v>
+        <v>0.5535735375280684</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.13384729623795</v>
+        <v>15.53370505571365</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -20056,19 +20056,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.334845095872879</v>
+        <v>0.3493064045906067</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.358331561088562</v>
+        <v>0.3850201666355133</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2604334652423859</v>
+        <v>0.2710047960281372</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5786580128822887</v>
+        <v>0.5910214924946526</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.31004810333252</v>
+        <v>16.97064340114594</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -21078,19 +21078,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4529163539409637</v>
+        <v>0.4718029797077179</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4494104981422424</v>
+        <v>0.4640799760818481</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.343847930431366</v>
+        <v>0.3520083427429199</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6729906046453871</v>
+        <v>0.6868791594652716</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.66417974233627</v>
+        <v>20.20114064216614</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22352,19 +22352,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04274331778287888</v>
+        <v>0.05504127964377403</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1589052826166153</v>
+        <v>0.1894439905881882</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6122921705245972</v>
+        <v>0.6858951449394226</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2067445713504441</v>
+        <v>0.2346087799801491</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>34.66429114341736</v>
+        <v>32.90622234344482</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22382,19 +22382,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04741209372878075</v>
+        <v>0.05422451347112656</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1716177016496658</v>
+        <v>0.1836801171302795</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.634022057056427</v>
+        <v>0.6831315755844116</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.217743182967414</v>
+        <v>0.2328615757722312</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>34.71895158290863</v>
+        <v>32.11579024791718</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -23662,19 +23662,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3027666807174683</v>
+        <v>0.3088051080703735</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3656102120876312</v>
+        <v>0.3732937574386597</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2245282530784607</v>
+        <v>0.227537989616394</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5502423836069594</v>
+        <v>0.5557023556458741</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>14.59052562713623</v>
+        <v>15.46216905117035</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -23692,19 +23692,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.3144864737987518</v>
+        <v>0.3233368992805481</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3770248889923096</v>
+        <v>0.3659979999065399</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.230019137263298</v>
+        <v>0.2287393063306808</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.5607909359099448</v>
+        <v>0.5686272058920046</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>14.82649594545364</v>
+        <v>15.1704266667366</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -24973,19 +24973,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4449986815452576</v>
+        <v>0.4614608585834503</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4261627793312073</v>
+        <v>0.4322438836097717</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3385539948940277</v>
+        <v>0.3452176451683044</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6670822149819747</v>
+        <v>0.6793091038573311</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.34883391857147</v>
+        <v>19.08178776502609</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -24999,23 +24999,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.4301138818264008</v>
+        <v>0.4689913690090179</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4177843928337097</v>
+        <v>0.4405678510665894</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.3326092660427094</v>
+        <v>0.3472021222114563</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6558306807602102</v>
+        <v>0.6848294451971366</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>18.3937594294548</v>
+        <v>19.37801241874695</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -26280,23 +26280,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3504626452922821</v>
+        <v>0.39004185795784</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3707054555416107</v>
+        <v>0.4033242166042328</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2684244811534882</v>
+        <v>0.2864737212657928</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5919988558200785</v>
+        <v>0.6245333121282163</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.31564497947693</v>
+        <v>17.52259731292725</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -26310,23 +26310,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.4096993803977966</v>
+        <v>0.3849794864654541</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4068197906017303</v>
+        <v>0.4008120894432068</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2926696836948395</v>
+        <v>0.2866874933242798</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6400776362268851</v>
+        <v>0.6204671518021354</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>16.94865375757217</v>
+        <v>17.41501539945602</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -27593,23 +27593,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07074994593858719</v>
+        <v>0.07227939367294312</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.213055893778801</v>
+        <v>0.2151459455490112</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6769193410873413</v>
+        <v>0.6883411407470703</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2659886199418824</v>
+        <v>0.2688482725868684</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>32.9684853553772</v>
+        <v>33.67617726325989</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -27627,19 +27627,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.07459685951471329</v>
+        <v>0.06858375668525696</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2176546156406403</v>
+        <v>0.204596534371376</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.6967372894287109</v>
+        <v>0.6677761077880859</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2731242565476624</v>
+        <v>0.2618850066064435</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>33.62736999988556</v>
+        <v>32.44709670543671</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -28911,19 +28911,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0950872004032135</v>
+        <v>0.09352608025074005</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2390971630811691</v>
+        <v>0.2406079471111298</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9830989241600037</v>
+        <v>0.9785410761833191</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3083621254356856</v>
+        <v>0.3058203398251007</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>38.82578611373901</v>
+        <v>39.03148472309113</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -28941,19 +28941,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.08621995896100998</v>
+        <v>0.08887437731027603</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2267246097326279</v>
+        <v>0.2323135882616043</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.9500938653945923</v>
+        <v>0.9492810368537903</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2936323533962325</v>
+        <v>0.2981180593494397</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>37.95830607414246</v>
+        <v>38.15355002880096</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -30219,53 +30219,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.07508497685194016</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2158088684082031</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.8131988644599915</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.274016380627035</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>35.76266765594482</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.07460787147283554</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.2155144512653351</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.8080672025680542</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.2731444150496867</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>35.64174771308899</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.07987530529499054</v>
+        <v>0.07949189096689224</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2227065712213516</v>
+        <v>0.2212047874927521</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.8396964073181152</v>
+        <v>0.8388785123825073</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2826221953332586</v>
+        <v>0.2819430633423923</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>36.13868057727814</v>
+        <v>36.29806935787201</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">

--- a/data/performance_sheets/Full Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/Full Overall Model Peformance Results.xlsx
@@ -1736,23 +1736,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.08267161250114441</v>
+        <v>0.07316438853740692</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2171418368816376</v>
+        <v>0.2099171876907349</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.077642202377319</v>
+        <v>1.019213080406189</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2875267161519854</v>
+        <v>0.2704891652865359</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>39.07705843448639</v>
+        <v>37.58626878261566</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -1770,19 +1770,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.08687252551317215</v>
+        <v>0.08608971536159515</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2247166186571121</v>
+        <v>0.2211554795503616</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.111477375030518</v>
+        <v>1.117425441741943</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2947414553692306</v>
+        <v>0.2934104895220945</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>39.22028243541718</v>
+        <v>38.47418129444122</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -3050,23 +3050,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8518315553665161</v>
+        <v>0.7728793025016785</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5995005369186401</v>
+        <v>0.5473322868347168</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.077376484870911</v>
+        <v>1.035792708396912</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9229472115817438</v>
+        <v>0.8791355427359756</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>26.39395594596863</v>
+        <v>24.82409775257111</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -3080,23 +3080,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.829828679561615</v>
+        <v>0.8130214810371399</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5842703580856323</v>
+        <v>0.5684231519699097</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.06698739528656</v>
+        <v>1.056283116340637</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.9109493287563337</v>
+        <v>0.9016770381001946</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>25.96966624259949</v>
+        <v>25.44153034687042</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -4366,19 +4366,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7189814448356628</v>
+        <v>0.7452031970024109</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5324844121932983</v>
+        <v>0.5481290221214294</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.497150331735611</v>
+        <v>0.5066350102424622</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8479277356211806</v>
+        <v>0.863251525919538</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>23.66939187049866</v>
+        <v>24.10294711589813</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -4396,19 +4396,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.7405569553375244</v>
+        <v>0.7657362818717957</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5436714887619019</v>
+        <v>0.5648696422576904</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5052264928817749</v>
+        <v>0.5153006315231323</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8605561895294952</v>
+        <v>0.8750635873305411</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>24.06422048807144</v>
+        <v>24.62037354707718</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -5678,19 +5678,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6908755898475647</v>
+        <v>0.6845890283584595</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5126404762268066</v>
+        <v>0.5068411231040955</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4607059955596924</v>
+        <v>0.457887589931488</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.831189262350979</v>
+        <v>0.8273989535637929</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>22.73560911417007</v>
+        <v>22.64706194400787</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -5704,23 +5704,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.6481095552444458</v>
+        <v>0.6908188462257385</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4841032922267914</v>
+        <v>0.5085271596908569</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4443799555301666</v>
+        <v>0.4592086374759674</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8050525170723</v>
+        <v>0.8311551276541213</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.00431078672409</v>
+        <v>22.69626259803772</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -6984,53 +6984,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.07743516564369202</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2041088789701462</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>19040886063104</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2782717478359814</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>43.24017465114594</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.09545189142227173</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.2548651695251465</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>23311901786112</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.3089528951511407</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>45.37156224250793</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.0781455934047699</v>
+        <v>0.09822969138622284</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2205741852521896</v>
+        <v>0.2275720685720444</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>21316897865728</v>
+        <v>19625595109376</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2795453333625333</v>
+        <v>0.3134161632497961</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>47.64510691165924</v>
+        <v>43.5596764087677</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8294,23 +8294,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.07597482949495316</v>
+        <v>0.09671081602573395</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2012607157230377</v>
+        <v>0.2246465384960175</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32651859722240</v>
+        <v>17631568461824</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2756353197523009</v>
+        <v>0.3109836266200102</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>46.31429314613342</v>
+        <v>43.67277920246124</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8328,19 +8328,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.09866635501384735</v>
+        <v>0.1112395226955414</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.251189261674881</v>
+        <v>0.2528018653392792</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>20779613814784</v>
+        <v>25394791055360</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3141120102986311</v>
+        <v>0.3335258950899336</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>46.62936627864838</v>
+        <v>46.8770831823349</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9604,23 +9604,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.08617039769887924</v>
+        <v>0.1055480241775513</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2101008743047714</v>
+        <v>0.2155923992395401</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31130665353216</v>
+        <v>30814307876864</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2935479478703253</v>
+        <v>0.3248815540740214</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>45.21097242832184</v>
+        <v>41.28643870353699</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -9638,19 +9638,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.09879688918590546</v>
+        <v>0.09537027031183243</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2426630258560181</v>
+        <v>0.2143473923206329</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>36238857863168</v>
+        <v>28352010256384</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3143197244620602</v>
+        <v>0.3088207737698881</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>44.62247490882874</v>
+        <v>41.92290306091309</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10918,19 +10918,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.257457137107849</v>
+        <v>1.252248883247375</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.55321204662323</v>
+        <v>0.5240055322647095</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6979600787162781</v>
+        <v>0.6873463988304138</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.121363962818428</v>
+        <v>1.11903926796488</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>27.2130936384201</v>
+        <v>24.63926076889038</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10948,19 +10948,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>1.252949833869934</v>
+        <v>1.230047106742859</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5760501623153687</v>
+        <v>0.5377675294876099</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6837026476860046</v>
+        <v>0.6522778272628784</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.119352417190374</v>
+        <v>1.10907488779742</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>28.72580587863922</v>
+        <v>25.37218928337097</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12224,53 +12224,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.342041492462158</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.5842834711074829</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.7186616659164429</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>1.158465145121837</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>27.13451981544495</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>1.297961473464966</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.5569254159927368</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.6951653957366943</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>1.139281121350199</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>28.15921604633331</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>1.381177186965942</v>
+        <v>1.278247714042664</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.6424896717071533</v>
+        <v>0.5398067235946655</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.7171635031700134</v>
+        <v>0.6770869493484497</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.175234949687058</v>
+        <v>1.130596176378933</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>27.83434987068176</v>
+        <v>25.73497891426086</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -13534,53 +13534,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.504690527915955</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.6529583930969238</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.4813026487827301</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>1.226658276748645</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>29.07472550868988</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>1.442731738090515</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.6015604734420776</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.4610682725906372</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>1.201137684901492</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>27.45771408081055</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>1.469849944114685</v>
+        <v>1.441718578338623</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.6712763905525208</v>
+        <v>0.6005595326423645</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4782242774963379</v>
+        <v>0.4607038199901581</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.212373681714794</v>
+        <v>1.20071586078415</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>31.01049065589905</v>
+        <v>27.4233341217041</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -14614,19 +14614,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06820350885391235</v>
+        <v>0.05946868658065796</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1944980025291443</v>
+        <v>0.1796451210975647</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9861974716186523</v>
+        <v>0.8884481191635132</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2611580151056298</v>
+        <v>0.2438620236540695</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>38.78074288368225</v>
+        <v>33.90744626522064</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -15866,53 +15866,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.08998344838619232</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2165724188089371</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.289167761802673</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2999724127085561</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>38.02347183227539</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.1079409271478653</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.2524493634700775</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>1.371276259422302</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.3285436457274213</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>42.96970069408417</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.1157026886940002</v>
+        <v>0.1062023788690567</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2603659927845001</v>
+        <v>0.2506861686706543</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.405199885368347</v>
+        <v>1.362546682357788</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3401509792636209</v>
+        <v>0.3258870645930223</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>43.0200606584549</v>
+        <v>42.10555553436279</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -16942,23 +16942,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09015640616416931</v>
+        <v>0.09271517395973206</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2267766445875168</v>
+        <v>0.2327706217765808</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.152933239936829</v>
+        <v>1.149307250976562</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3002605637844726</v>
+        <v>0.304491664844429</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>40.35621583461761</v>
+        <v>40.11723101139069</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -17964,23 +17964,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09784996509552002</v>
+        <v>0.08428060263395309</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2341084778308868</v>
+        <v>0.2002670615911484</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.317423462867737</v>
+        <v>1.233109474182129</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3128097906004862</v>
+        <v>0.2903112168586551</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>41.66328608989716</v>
+        <v>36.10539436340332</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -18990,19 +18990,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7681065201759338</v>
+        <v>0.8201180696487427</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5529909133911133</v>
+        <v>0.5781064033508301</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4832106232643127</v>
+        <v>0.4959256649017334</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8764168643835728</v>
+        <v>0.9056037045246351</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>24.13961291313171</v>
+        <v>24.55777376890182</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -20008,23 +20008,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7262403964996338</v>
+        <v>0.7579494714736938</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5335583686828613</v>
+        <v>0.5553560853004456</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4982682764530182</v>
+        <v>0.5071538686752319</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8521973929199935</v>
+        <v>0.8706029355990559</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>23.73333722352982</v>
+        <v>24.20244663953781</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -21030,23 +21030,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7451415657997131</v>
+        <v>0.8084696531295776</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.52776700258255</v>
+        <v>0.5567410588264465</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.02153217792511</v>
+        <v>1.050289750099182</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8632158280521235</v>
+        <v>0.8991494053435044</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>24.27991032600403</v>
+        <v>24.93828684091568</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22286,23 +22286,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09575273096561432</v>
+        <v>0.08546587824821472</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2368789464235306</v>
+        <v>0.2237559109926224</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.184665203094482</v>
+        <v>1.120019674301147</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3094393817302741</v>
+        <v>0.2923454775573153</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>41.10892415046692</v>
+        <v>39.33579921722412</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22320,19 +22320,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.09868036210536957</v>
+        <v>0.088803730905056</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2368883192539215</v>
+        <v>0.2252948582172394</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.205849885940552</v>
+        <v>1.150295495986938</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3141343058396672</v>
+        <v>0.2979995484980741</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>41.34726226329803</v>
+        <v>39.33142125606537</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -23600,19 +23600,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6659428477287292</v>
+        <v>0.6678886413574219</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5013076663017273</v>
+        <v>0.5051133632659912</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4521382749080658</v>
+        <v>0.4537203907966614</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8160532137849401</v>
+        <v>0.8172445419563362</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>22.45329767465591</v>
+        <v>22.62438833713531</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -23626,23 +23626,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.6714323759078979</v>
+        <v>0.6998068690299988</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4986993074417114</v>
+        <v>0.5165236592292786</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4525127708911896</v>
+        <v>0.4640541672706604</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8194097728901566</v>
+        <v>0.8365446007416453</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.4335253238678</v>
+        <v>22.93491065502167</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -24907,23 +24907,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7702532410621643</v>
+        <v>0.774678111076355</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5449549555778503</v>
+        <v>0.5371591448783875</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.037263154983521</v>
+        <v>1.060835480690002</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8776407243639986</v>
+        <v>0.8801580034723056</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>24.84477758407593</v>
+        <v>24.39135611057281</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -24937,23 +24937,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.7779811024665833</v>
+        <v>0.8406912088394165</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5395927429199219</v>
+        <v>0.5830072164535522</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.044017791748047</v>
+        <v>1.082323312759399</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8820323704187865</v>
+        <v>0.9168921467868598</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>24.73129332065582</v>
+        <v>25.83869993686676</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -26222,19 +26222,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.759306013584137</v>
+        <v>0.7527013421058655</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5490604639053345</v>
+        <v>0.55343097448349</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5109618902206421</v>
+        <v>0.5109404325485229</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8713816692954569</v>
+        <v>0.867583622543594</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>24.47421848773956</v>
+        <v>24.24345016479492</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -26248,23 +26248,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.7385110855102539</v>
+        <v>0.7510584592819214</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5415931940078735</v>
+        <v>0.5496041178703308</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5036965608596802</v>
+        <v>0.5085530877113342</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8593666769838437</v>
+        <v>0.8666362900790165</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>23.8899901509285</v>
+        <v>24.1280198097229</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -27531,53 +27531,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.08873743563890457</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2270428091287613</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.121210098266602</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2978882938937087</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>39.24486041069031</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.09027207642793655</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.2295640259981155</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>1.134106040000916</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.3004531185192401</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>39.41410481929779</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.08884589374065399</v>
+        <v>0.08827320486307144</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2287627905607224</v>
+        <v>0.2254170775413513</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.120225310325623</v>
+        <v>1.11836850643158</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2980702832230244</v>
+        <v>0.2971080693334859</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>39.54989016056061</v>
+        <v>39.03838694095612</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -28849,19 +28849,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1212508901953697</v>
+        <v>0.1228284314274788</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2675085663795471</v>
+        <v>0.2681916356086731</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.431464910507202</v>
+        <v>1.43911337852478</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3482109851733137</v>
+        <v>0.35046887369277</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>43.82136166095734</v>
+        <v>43.75637471675873</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -28875,23 +28875,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1161446049809456</v>
+        <v>0.1162464767694473</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2618371844291687</v>
+        <v>0.2626558840274811</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.40399444103241</v>
+        <v>1.40415358543396</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3407999486222755</v>
+        <v>0.3409493756695374</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>43.25119256973267</v>
+        <v>43.32544505596161</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -30161,19 +30161,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1024607717990875</v>
+        <v>0.1049858406186104</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2464261502027512</v>
+        <v>0.2502390444278717</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.219668745994568</v>
+        <v>1.23256778717041</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3200949418517692</v>
+        <v>0.3240151857839542</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>41.72285795211792</v>
+        <v>42.04093515872955</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -30187,23 +30187,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1026612892746925</v>
+        <v>0.1024163663387299</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2463721483945847</v>
+        <v>0.246134027838707</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.225009083747864</v>
+        <v>1.222208023071289</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3204080043861148</v>
+        <v>0.3200255713825535</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>41.67600274085999</v>
+        <v>41.5951669216156</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">

--- a/data/performance_sheets/Full Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/Full Overall Model Peformance Results.xlsx
@@ -6018,19 +6018,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05153719463601748</v>
+        <v>0.04825795279061938</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.156826569752766</v>
+        <v>0.1586426677980628</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22139616744396.46</v>
+        <v>0.6033432882701009</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.227018049141511</v>
+        <v>0.2196769282164592</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>34.69995062254636</v>
+        <v>29.61494076497519</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -6048,19 +6048,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05867114076961462</v>
+        <v>0.04851703346754567</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1771500502474859</v>
+        <v>0.1584495543892695</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>20760633163297.45</v>
+        <v>0.6083235369393326</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2422212640740169</v>
+        <v>0.2202658245564792</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>37.3198906703955</v>
+        <v>29.69594762854813</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -6076,23 +6076,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06708072964242918</v>
+        <v>0.04125197532540303</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1992786661292916</v>
+        <v>0.1397828659582582</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24030586056431.8</v>
+        <v>0.5839046775196965</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2589994780736617</v>
+        <v>0.2031058229726638</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>40.55518156703229</v>
+        <v>27.27397530922461</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -6106,23 +6106,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.0661077860416583</v>
+        <v>0.07289600493163174</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1988497758743866</v>
+        <v>0.2196098871843013</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>23178183893586.52</v>
+        <v>0.8263963489084474</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2571143442938537</v>
+        <v>0.2699926016238811</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>41.01501398243038</v>
+        <v>40.67752605607492</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -6200,23 +6200,23 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>{'weights': 'distance', 'n_neighbors': 6}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.0660402887754826</v>
+        <v>0.05732610518107885</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1798694259728048</v>
+        <v>0.1753350312647101</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27997047921035.41</v>
+        <v>0.7156423236004082</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.2569830515335255</v>
+        <v>0.2394287058417993</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>36.65787667722412</v>
+        <v>33.4790491521219</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -6230,23 +6230,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'distance', 'n_neighbors': 7}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.06349028212106007</v>
+        <v>0.05868863553225608</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.1841938127292783</v>
+        <v>0.1798783844748411</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>21312714483372.28</v>
+        <v>0.7176810648750382</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.25197278051619</v>
+        <v>0.2422573745673309</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>38.29681349063874</v>
+        <v>34.38395673141543</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -6406,23 +6406,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05364341541368669</v>
+        <v>0.05168916818880166</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1566619097882174</v>
+        <v>0.1698976700476694</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25029815228602.83</v>
+        <v>0.6089345439864043</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2316104820894052</v>
+        <v>0.2273525196447175</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>33.52186130240901</v>
+        <v>32.55631588464568</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -6436,23 +6436,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 50}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.06335777675434445</v>
+        <v>0.04513956209894172</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1879022781001201</v>
+        <v>0.1546500407131225</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>20113118695989.23</v>
+        <v>0.5935144189764913</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2517097073105137</v>
+        <v>0.2124607307220365</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>39.31363695914791</v>
+        <v>29.26386381862011</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -6472,19 +6472,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09153665590094315</v>
+        <v>0.06962843716928431</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2271048064238651</v>
+        <v>0.2082267500888617</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23255967981925.28</v>
+        <v>0.8259414081785559</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3025502535132687</v>
+        <v>0.2638720090674346</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>43.20422050688709</v>
+        <v>38.6798829914993</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -6502,19 +6502,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1639035586389522</v>
+        <v>0.1172217989087526</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3331523430645594</v>
+        <v>0.2692191009380893</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>33571090618178.46</v>
+        <v>1.081756117037473</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.4048500446325185</v>
+        <v>0.342376691538359</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>56.53199344716518</v>
+        <v>47.79120937735213</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -6530,23 +6530,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': None, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05673577597347342</v>
+        <v>0.05136814917897888</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1615163703225101</v>
+        <v>0.1693936081685973</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>26412785771093.84</v>
+        <v>0.5425514874040162</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.238192728632663</v>
+        <v>0.2266454261152845</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>34.30318263990448</v>
+        <v>33.79826583928769</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -6560,23 +6560,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.08270127096129062</v>
+        <v>0.05214182273939928</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.2183228441626048</v>
+        <v>0.1711890769126473</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>18132607108078.84</v>
+        <v>0.6522894406529466</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2875782866651977</v>
+        <v>0.2283458402060333</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>46.04839325342811</v>
+        <v>32.43625278644365</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -6592,23 +6592,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.05517255403392266</v>
+        <v>0.05561390620721455</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1608458769952764</v>
+        <v>0.1844944001907475</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26243193927790.49</v>
+        <v>0.6155573529748968</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2348883863325785</v>
+        <v>0.2358260083349895</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>34.05468482667222</v>
+        <v>36.39831656363559</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -6622,23 +6622,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 200, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.06550313429149826</v>
+        <v>0.05080109880132588</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1895794227047675</v>
+        <v>0.1683400610314931</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>19967711557325.08</v>
+        <v>0.5966253951128443</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2559358011132836</v>
+        <v>0.2253909909497846</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>39.40581843007623</v>
+        <v>32.82691412625064</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -6654,23 +6654,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'loss': 'square', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06754399177816342</v>
+        <v>0.07279739920518835</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1791943066828375</v>
+        <v>0.2114856439107342</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26767793130761.4</v>
+        <v>0.6281645005206519</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2598922695621465</v>
+        <v>0.2698099316281525</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>36.19735914084295</v>
+        <v>40.99978035563024</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -6684,23 +6684,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
+          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.07375033601001259</v>
+        <v>0.04831520682949631</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.198688675856033</v>
+        <v>0.169760835686375</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>17295871344986.17</v>
+        <v>0.6853951271024502</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.2715701309238787</v>
+        <v>0.2198072037707052</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>41.32089161426735</v>
+        <v>31.07298251797312</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -6716,23 +6716,23 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+          <t>{'n_estimators': 30, 'max_samples': 0.9, 'max_features': 0.7000000000000001}</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07073795841811785</v>
+        <v>0.05844101263897857</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2009006237497185</v>
+        <v>0.183092111393653</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>24428353723148.27</v>
+        <v>0.6621129919193609</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2659660850900314</v>
+        <v>0.2417457603329965</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>40.35960216583867</v>
+        <v>35.4832546069895</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -6746,23 +6746,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+          <t>{'n_estimators': 60, 'max_samples': 0.6, 'max_features': 0.5}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.06769014131359044</v>
+        <v>0.05443165186077834</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1953139188793783</v>
+        <v>0.1776044772555698</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>23125186036045.8</v>
+        <v>0.6713379725540143</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.260173290930469</v>
+        <v>0.2333059190435989</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>39.67585489728273</v>
+        <v>33.91594295276581</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -6778,23 +6778,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.0571958558355769</v>
+        <v>0.05378909418921783</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.1610268214603524</v>
+        <v>0.1726149050439015</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25053337757591.27</v>
+        <v>0.6232739543178053</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.2391565508941307</v>
+        <v>0.2319247597588878</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>33.84177516959483</v>
+        <v>33.26256159809171</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -6808,23 +6808,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>0.06049903885939925</v>
+        <v>0.04884922253894125</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.1815182285807155</v>
+        <v>0.1621913586179983</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>21509463144539.93</v>
+        <v>0.6020809501310013</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>0.2459655237211086</v>
+        <v>0.2210186022463748</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>38.1981540656236</v>
+        <v>31.30319366972102</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -6984,23 +6984,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.07743516564369202</v>
+        <v>0.06426573544740677</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2041088789701462</v>
+        <v>0.1715316772460938</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19040886063104</v>
+        <v>0.9604474306106567</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2782717478359814</v>
+        <v>0.2535068745565034</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>43.24017465114594</v>
+        <v>31.88259899616241</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -7014,23 +7014,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.09822969138622284</v>
+        <v>0.069285549223423</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2275720685720444</v>
+        <v>0.1952259838581085</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>19625595109376</v>
+        <v>0.9172401428222656</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3134161632497961</v>
+        <v>0.2632214832102863</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>43.5596764087677</v>
+        <v>36.00026667118073</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -7050,19 +7050,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06836151331663132</v>
+        <v>0.06606116890907288</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1976654529571533</v>
+        <v>0.2076299041509628</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.843703985214233</v>
+        <v>0.601423978805542</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2614603475034624</v>
+        <v>0.2570236738300051</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>41.74890220165253</v>
+        <v>33.3965390920639</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -7076,23 +7076,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.09576371312141418</v>
+        <v>0.08469053357839584</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2384048849344254</v>
+        <v>0.2220850437879562</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>2.455630302429199</v>
+        <v>0.5837448239326477</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3094571264673253</v>
+        <v>0.2910163802578746</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>44.0571516752243</v>
+        <v>41.73247516155243</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7112,19 +7112,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.14179992675781</v>
+        <v>0.1336656659841537</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.457618951797485</v>
+        <v>0.267866849899292</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>56534528688128</v>
+        <v>1.205326914787292</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.625162055240815</v>
+        <v>0.365603153684639</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>185.463285446167</v>
+        <v>45.78674733638763</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7142,19 +7142,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>3.326098442077637</v>
+        <v>66.41373443603516</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.346349239349365</v>
+        <v>5.877006530761719</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>61945415729152</v>
+        <v>13.25434398651123</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.823759425493844</v>
+        <v>8.149462217596641</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>117.1507596969604</v>
+        <v>179.7825932502747</v>
       </c>
     </row>
   </sheetData>
@@ -7328,19 +7328,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05707387910249306</v>
+        <v>0.04521168259819767</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1585076072232666</v>
+        <v>0.1593225447197155</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29556717048530.88</v>
+        <v>0.6089964087698351</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2389014003778401</v>
+        <v>0.2126303896393873</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>35.20017062349124</v>
+        <v>30.44078043784112</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -7358,19 +7358,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.0557997782449063</v>
+        <v>0.04521168259819767</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1572958913014573</v>
+        <v>0.1593225447197155</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>28907770868502.3</v>
+        <v>0.6089964087698351</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2362197668378036</v>
+        <v>0.2126303896393873</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>35.25705916604959</v>
+        <v>30.44078043784112</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -7386,23 +7386,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0586336303440619</v>
+        <v>0.07168109944651274</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1555566068609349</v>
+        <v>0.2192261960561102</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27443168956216.43</v>
+        <v>0.8370611925262897</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2421438216103436</v>
+        <v>0.267733261748541</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>34.07869419968913</v>
+        <v>40.95592228933826</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -7416,23 +7416,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 100}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.05650535519925396</v>
+        <v>0.07168109944651274</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1539584803933553</v>
+        <v>0.2192261960561102</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>27190682895148.19</v>
+        <v>0.8370611925262897</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2377085509594764</v>
+        <v>0.267733261748541</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>33.82452294285353</v>
+        <v>40.95592228933826</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -7510,23 +7510,23 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>{'weights': 'distance', 'n_neighbors': 7}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.06153080161525028</v>
+        <v>0.0555687249188278</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1645880575243891</v>
+        <v>0.1708458016197697</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28563784835587.21</v>
+        <v>0.6588562712902124</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.248054029629132</v>
+        <v>0.2357301951783602</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>35.07801832183765</v>
+        <v>33.21157046521586</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -7540,23 +7540,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 5}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.0608436562834764</v>
+        <v>0.0555687249188278</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.1628634935121267</v>
+        <v>0.1708458016197697</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>30099864093576.26</v>
+        <v>0.6588562712902124</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.246665069037909</v>
+        <v>0.2357301951783602</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>34.78198340570601</v>
+        <v>33.21157046521586</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -7716,23 +7716,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05675754750558011</v>
+        <v>0.04428320705694964</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1562806257210523</v>
+        <v>0.1574738531353571</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29954700781514.46</v>
+        <v>0.5647846011681514</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2382384257536557</v>
+        <v>0.210435755177084</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>33.75767214847533</v>
+        <v>30.84140279034025</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -7746,23 +7746,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.05420489333058229</v>
+        <v>0.04428320705694964</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1488656205988334</v>
+        <v>0.1574738531353571</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>28946778018270.39</v>
+        <v>0.5647846011681514</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2328194436265629</v>
+        <v>0.210435755177084</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>32.76912027161197</v>
+        <v>30.84140279034025</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06339205489300893</v>
+        <v>0.1183637683678484</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1722041838361015</v>
+        <v>0.280562925620055</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28986060548319.86</v>
+        <v>1.089686180760862</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2517777887205481</v>
+        <v>0.3440403586323099</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>36.02756296889341</v>
+        <v>49.94421904679465</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -7812,19 +7812,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.06614934068371971</v>
+        <v>0.1183637683678484</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1790347668943863</v>
+        <v>0.280562925620055</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>29663157478667.01</v>
+        <v>1.089686180760862</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2571951412521623</v>
+        <v>0.3440403586323099</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>37.16913367347284</v>
+        <v>49.94421904679465</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -7840,23 +7840,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': None, 'max_depth': None, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05748479763739422</v>
+        <v>0.04977468297404853</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1618304167643304</v>
+        <v>0.1619824332961992</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>31641333003434.87</v>
+        <v>0.5884927670890759</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2397598749528249</v>
+        <v>0.2231024046801122</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>34.72023288830032</v>
+        <v>31.43276606954625</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -7870,23 +7870,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': None, 'max_depth': None, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.05283842457712225</v>
+        <v>0.04977468297404853</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1513260138317881</v>
+        <v>0.1619824332961992</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>29014414522481.19</v>
+        <v>0.5884927670890759</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2298661014093254</v>
+        <v>0.2231024046801122</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>33.31565767347894</v>
+        <v>31.43276606954625</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -7902,23 +7902,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.0554252758599021</v>
+        <v>0.05859254301055553</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1533392667154355</v>
+        <v>0.1770099309784417</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29192364297758.25</v>
+        <v>0.6013186380756951</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2354257332151736</v>
+        <v>0.2420589659784482</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>33.45301651292868</v>
+        <v>35.30786370642406</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -7932,23 +7932,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.05513045182278496</v>
+        <v>0.05859254301055553</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1524739116276253</v>
+        <v>0.1770099309784417</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>29760118865316.31</v>
+        <v>0.6013186380756951</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.234798747489813</v>
+        <v>0.2420589659784482</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>33.35044073582583</v>
+        <v>35.30786370642406</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -7968,19 +7968,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05830268102292707</v>
+        <v>0.0572955189730629</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1555185935872534</v>
+        <v>0.178075252083587</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31993050321263.9</v>
+        <v>0.5279649109152431</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2414594811203881</v>
+        <v>0.2393648240094248</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>33.55752685479994</v>
+        <v>35.48932056378302</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -7998,19 +7998,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.0592080331942229</v>
+        <v>0.0572955189730629</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.1584712747539741</v>
+        <v>0.178075252083587</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>32713945123978.28</v>
+        <v>0.5279649109152431</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.2433270087643846</v>
+        <v>0.2393648240094248</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>33.95015121950398</v>
+        <v>35.48932056378302</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -8030,19 +8030,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0574801736167132</v>
+        <v>0.04826347019435654</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1644891052953329</v>
+        <v>0.1644078111565403</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>28792541661470.68</v>
+        <v>0.593649750136597</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2397502317344307</v>
+        <v>0.2196894858530024</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>35.31856924528485</v>
+        <v>32.16050491013294</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -8056,23 +8056,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 130, 'max_samples': 0.8, 'max_features': 0.6}</t>
+          <t>{'n_estimators': 30, 'max_samples': 0.9, 'max_features': 0.7000000000000001}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.05823129812561494</v>
+        <v>0.04826347019435654</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.166306806747525</v>
+        <v>0.1644078111565403</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>29150312811244.18</v>
+        <v>0.593649750136597</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2413116203700413</v>
+        <v>0.2196894858530024</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>35.4662754015741</v>
+        <v>32.16050491013294</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -8088,23 +8088,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.05694449630990848</v>
+        <v>0.04733056286721</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.1575179137361225</v>
+        <v>0.1676260460447087</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31025791454428.23</v>
+        <v>0.6494620482325643</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.2386304597278153</v>
+        <v>0.2175558844692784</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>33.98470797467749</v>
+        <v>32.47437261359478</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -8118,23 +8118,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>0.05829613768886929</v>
+        <v>0.04733056286721</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.1594661663718699</v>
+        <v>0.1676260460447087</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>31047080121356.62</v>
+        <v>0.6494620482325643</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>0.2414459311913731</v>
+        <v>0.2175558844692784</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>34.50210602874776</v>
+        <v>32.47437261359478</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -8294,23 +8294,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09671081602573395</v>
+        <v>0.08062607049942017</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2246465384960175</v>
+        <v>0.2017847299575806</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17631568461824</v>
+        <v>1.061393976211548</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3109836266200102</v>
+        <v>0.283947302328126</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>43.67277920246124</v>
+        <v>37.0110809803009</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8324,23 +8324,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1112395226955414</v>
+        <v>0.0709444060921669</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2528018653392792</v>
+        <v>0.1971264630556107</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>25394791055360</v>
+        <v>0.9958949089050293</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3335258950899336</v>
+        <v>0.2663539113513577</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>46.8770831823349</v>
+        <v>36.44301295280457</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8360,19 +8360,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0725339949131012</v>
+        <v>0.06967747956514359</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1972139626741409</v>
+        <v>0.2177175134420395</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.509593486785889</v>
+        <v>0.4841558337211609</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2693213599273203</v>
+        <v>0.2639649210882832</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>37.577885389328</v>
+        <v>39.59710001945496</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8390,19 +8390,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.07008557766675949</v>
+        <v>0.04697537794709206</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1848444193601608</v>
+        <v>0.1757704466581345</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>2.493685483932495</v>
+        <v>0.4964442849159241</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2647368082960121</v>
+        <v>0.2167380399170668</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>35.88809072971344</v>
+        <v>31.84946775436401</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8422,19 +8422,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1814889162778854</v>
+        <v>102.8606109619141</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.311773806810379</v>
+        <v>7.603650093078613</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19646025564160</v>
+        <v>20.70830917358398</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4260151596808328</v>
+        <v>10.14202203517198</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>59.93967652320862</v>
+        <v>179.1693210601807</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8452,19 +8452,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.2675827741622925</v>
+        <v>74.18122863769531</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.39387446641922</v>
+        <v>6.815052032470703</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>14083068788736</v>
+        <v>17.65395736694336</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.5172840362530942</v>
+        <v>8.612852526178264</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>83.3959698677063</v>
+        <v>185.200047492981</v>
       </c>
     </row>
   </sheetData>
@@ -8638,19 +8638,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05582897937810244</v>
+        <v>0.05051245211535095</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1566520347493349</v>
+        <v>0.172581754495646</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35389073739244.88</v>
+        <v>0.7694713647172957</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2362815680033092</v>
+        <v>0.2247497544277879</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>34.77146735604644</v>
+        <v>33.33269643424502</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -8668,19 +8668,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05585126946578838</v>
+        <v>0.05052692813259149</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1567156022735774</v>
+        <v>0.1726178884385813</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>35422283127205.86</v>
+        <v>0.7693430551603982</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2363287317822113</v>
+        <v>0.2247819568661851</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>34.78166636979005</v>
+        <v>33.33850112794087</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -8696,23 +8696,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05937270195940068</v>
+        <v>0.07433415990555518</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1519162855231966</v>
+        <v>0.2237180822146363</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>34869737414871.82</v>
+        <v>0.9243497699487639</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2436651430947822</v>
+        <v>0.2726429164778634</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>33.27434946677351</v>
+        <v>41.71483110237082</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -8726,23 +8726,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.06043881781374801</v>
+        <v>0.07433415990555518</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1526631722023563</v>
+        <v>0.2237180822146363</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>34885733289834.9</v>
+        <v>0.9243497699487639</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2458430755863342</v>
+        <v>0.2726429164778634</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>33.40197442641593</v>
+        <v>41.71483110237082</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -8820,23 +8820,23 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>{'weights': 'uniform', 'n_neighbors': 2}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.07602829545464744</v>
+        <v>0.06312093999823942</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1910928002998952</v>
+        <v>0.1859586878611087</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43812074148411.07</v>
+        <v>0.8965346152958006</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.2757322894668803</v>
+        <v>0.2512388106926146</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>39.6633135964612</v>
+        <v>35.74447004225846</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -8850,23 +8850,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'distance', 'n_neighbors': 8}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.0591877317148533</v>
+        <v>0.06419309329795812</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.1675679960116377</v>
+        <v>0.1868588757741414</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>37037673884810.34</v>
+        <v>0.8973482553916702</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.2432852887349609</v>
+        <v>0.253363559530486</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>35.62420312016943</v>
+        <v>35.91051972201215</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -9026,23 +9026,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05966267115478656</v>
+        <v>0.05135881210219016</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1626441880830478</v>
+        <v>0.1701145054599447</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36639008065279.42</v>
+        <v>0.7907364802220911</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2442594341162416</v>
+        <v>0.226624826756007</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>34.97518677244595</v>
+        <v>32.97134090833969</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -9060,19 +9060,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.05704643011846231</v>
+        <v>0.05107370133542034</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1600493902483971</v>
+        <v>0.1695182337378409</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>36078115454041.06</v>
+        <v>0.7886157764984795</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2388439451157645</v>
+        <v>0.2259949144016749</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>34.63422628558333</v>
+        <v>32.90582328394316</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -9092,19 +9092,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1076092502392385</v>
+        <v>0.1273949028136963</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.245658691439801</v>
+        <v>0.2888938150678046</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36890759942060.37</v>
+        <v>1.172841414000701</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3280384889601197</v>
+        <v>0.3569242255909457</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>45.73876319862647</v>
+        <v>51.02672714125205</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -9122,19 +9122,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.07487098778375345</v>
+        <v>0.1259883273900121</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2113294939990212</v>
+        <v>0.2898540396458941</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>31574804761794.29</v>
+        <v>1.189518271817384</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2736256343688461</v>
+        <v>0.3549483446785068</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>42.60750174352781</v>
+        <v>50.78969406944353</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -9150,23 +9150,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07029212213605207</v>
+        <v>0.07303505457895225</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2027895509784209</v>
+        <v>0.2193858539232345</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>32892428753774.17</v>
+        <v>0.9363416037068136</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2651266152917358</v>
+        <v>0.2702499853449621</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>41.35344621654376</v>
+        <v>40.86811298101248</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -9180,23 +9180,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 5, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 10, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.07029212213605207</v>
+        <v>0.05965772274637139</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.2027895509784209</v>
+        <v>0.1951005315435976</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>32892428753774.17</v>
+        <v>0.8449039385677184</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2651266152917358</v>
+        <v>0.2442493044951641</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>41.35344621654376</v>
+        <v>37.28138732564176</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -9212,23 +9212,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.05974482486888411</v>
+        <v>0.05031741309096489</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1622299283272846</v>
+        <v>0.1621462468030361</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38917173314839.14</v>
+        <v>0.7534387414290427</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2444275452335193</v>
+        <v>0.2243154321284313</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>34.76867650641064</v>
+        <v>31.74967862633697</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -9242,23 +9242,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.05949171144266656</v>
+        <v>0.04908401403341128</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1616807928668705</v>
+        <v>0.1615905257584086</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>37924931958141.89</v>
+        <v>0.7535570145750908</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2439092278751802</v>
+        <v>0.2215491232964177</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>34.71524565835715</v>
+        <v>31.68885896743397</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -9274,23 +9274,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'loss': 'linear', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 250, 'loss': 'exponential', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06188148494228782</v>
+        <v>0.05152336162109495</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1634229165928012</v>
+        <v>0.1738643961644451</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38120097446628.41</v>
+        <v>0.8170760414459155</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2487598941595848</v>
+        <v>0.2269875803234506</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>34.59729089690164</v>
+        <v>33.59121106408391</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -9308,19 +9308,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.05932582680917919</v>
+        <v>0.05135946925424324</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.1600755199017936</v>
+        <v>0.1734172254992923</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>38750331341382.18</v>
+        <v>0.8295565703659525</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.2435689364618961</v>
+        <v>0.2266262766191141</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>34.13595625028832</v>
+        <v>33.56862003116456</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -9340,19 +9340,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06146972159269934</v>
+        <v>0.05825459658446503</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1753879640709032</v>
+        <v>0.1883510539264566</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34978582702938.03</v>
+        <v>0.8359520433717821</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2479308806758435</v>
+        <v>0.241359890173295</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>36.77044125107161</v>
+        <v>36.16661651103225</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -9366,23 +9366,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 130, 'max_samples': 0.8, 'max_features': 0.6}</t>
+          <t>{'n_estimators': 60, 'max_samples': 0.6, 'max_features': 0.5}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.05860366872417865</v>
+        <v>0.05774062478566604</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1701037765293363</v>
+        <v>0.1870112441301622</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>36133105140756.7</v>
+        <v>0.8283272231707313</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2420819462995509</v>
+        <v>0.2402927897080269</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>36.17375155756856</v>
+        <v>35.89188475063038</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -9398,23 +9398,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.05804292023637089</v>
+        <v>0.05163682088627054</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.1606387279857731</v>
+        <v>0.1691640054111681</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37530559849977.25</v>
+        <v>0.8177092717681661</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.2409209833874395</v>
+        <v>0.2272373668353657</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>34.54409254105818</v>
+        <v>33.27704671724349</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -9428,23 +9428,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>0.05612915297472131</v>
+        <v>0.05229363015816269</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.1599234879749593</v>
+        <v>0.1748716032437664</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>36373184465884.88</v>
+        <v>0.8042774335399612</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>0.2369159196312508</v>
+        <v>0.2286780054097085</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>34.63026263004881</v>
+        <v>34.2409753984341</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -9604,23 +9604,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1055480241775513</v>
+        <v>0.076778344810009</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2155923992395401</v>
+        <v>0.2160641849040985</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30814307876864</v>
+        <v>1.011667370796204</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3248815540740214</v>
+        <v>0.2770890557384196</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>41.28643870353699</v>
+        <v>39.16387557983398</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -9634,23 +9634,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.09537027031183243</v>
+        <v>0.0760868638753891</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2143473923206329</v>
+        <v>0.1962304413318634</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>28352010256384</v>
+        <v>1.089671730995178</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3088207737698881</v>
+        <v>0.2758384742478632</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>41.92290306091309</v>
+        <v>36.0382080078125</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9670,19 +9670,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08031501621007919</v>
+        <v>0.17608442902565</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2045094966888428</v>
+        <v>0.3384378850460052</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.806225538253784</v>
+        <v>0.7996494174003601</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2833990405948461</v>
+        <v>0.4196241521000073</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>38.55511844158173</v>
+        <v>79.78864312171936</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -9700,19 +9700,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.08088158816099167</v>
+        <v>0.3800534307956696</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1791429966688156</v>
+        <v>0.4622434675693512</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>3.21698784828186</v>
+        <v>0.8159039616584778</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2843968849354572</v>
+        <v>0.6164847368716192</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>33.82788002490997</v>
+        <v>99.64192509651184</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9732,19 +9732,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2242521941661835</v>
+        <v>278.2248840332031</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3304469585418701</v>
+        <v>11.75306701660156</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>47315956006912</v>
+        <v>28.79611778259277</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4735527364150517</v>
+        <v>16.68007446126075</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>52.3013710975647</v>
+        <v>177.7549147605896</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9762,19 +9762,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.2897389829158783</v>
+        <v>706.4649658203125</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.42634117603302</v>
+        <v>20.63323020935059</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>27511687741440</v>
+        <v>53.57607650756836</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.5382740778784338</v>
+        <v>26.57940868078732</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>74.86662864685059</v>
+        <v>193.1643605232239</v>
       </c>
     </row>
   </sheetData>
@@ -9948,19 +9948,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.158440361867269</v>
+        <v>0.4278536756232853</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.546308508951421</v>
+        <v>0.4992432138935449</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6782731297593156</v>
+        <v>0.3512084666904408</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.076308674064866</v>
+        <v>0.6541052481239432</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>26.15719256065499</v>
+        <v>23.86824743716216</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -9978,19 +9978,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.158423319140866</v>
+        <v>0.4278536756232853</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.5463010859105111</v>
+        <v>0.4992432138935449</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.6782660747660032</v>
+        <v>0.3512084666904408</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.076300756824442</v>
+        <v>0.6541052481239432</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>26.15692744714668</v>
+        <v>23.86824743716216</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -10006,23 +10006,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.001, 'C': 1}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.137353411870637</v>
+        <v>0.4638679353603259</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5652421137946028</v>
+        <v>0.4883170532099796</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6516559019688954</v>
+        <v>0.3778877202849513</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.066467726595905</v>
+        <v>0.6810785089549706</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>26.78989103635302</v>
+        <v>22.97909289285101</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -10036,23 +10036,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.001, 'C': 1}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>1.137353411870637</v>
+        <v>0.4638679353603259</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.5652421137946028</v>
+        <v>0.4883170532099796</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.6516559019688954</v>
+        <v>0.3778877202849513</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>1.066467726595905</v>
+        <v>0.6810785089549706</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>26.78989103635302</v>
+        <v>22.97909289285101</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -10134,19 +10134,19 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.1903208956608</v>
+        <v>0.6221272835736027</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5545690702023043</v>
+        <v>0.5699554058985634</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6632601205948591</v>
+        <v>0.4109413056119147</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>1.091018283834327</v>
+        <v>0.7887504570988233</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>26.18480652756611</v>
+        <v>26.95933150314608</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -10164,19 +10164,19 @@
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>1.19030832872442</v>
+        <v>0.6221272835736027</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.5545182806457889</v>
+        <v>0.5699554058985634</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.6632425615799252</v>
+        <v>0.4109413056119147</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>1.091012524549751</v>
+        <v>0.7887504570988233</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>26.18297304234997</v>
+        <v>26.95933150314608</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -10336,23 +10336,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.15232790515184</v>
+        <v>0.4893262820680617</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4890033138403081</v>
+        <v>0.5074772274205283</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6544190567607366</v>
+        <v>0.3601220469127982</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.073465372125175</v>
+        <v>0.6995186073780036</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>23.72597816606812</v>
+        <v>24.56208478120707</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -10366,23 +10366,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>1.152323366107169</v>
+        <v>0.4893262820680617</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.4890026250687247</v>
+        <v>0.5074772274205283</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.6544173781802601</v>
+        <v>0.3601220469127982</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>1.073463257921373</v>
+        <v>0.6995186073780036</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>23.72596260398901</v>
+        <v>24.56208478120707</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -10402,19 +10402,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.198962469036528</v>
+        <v>0.5339231537960926</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5191425839642801</v>
+        <v>0.4800777979468572</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6777228945042002</v>
+        <v>0.40468802082792</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.094971446676363</v>
+        <v>0.730700454219164</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>24.64861321870581</v>
+        <v>22.37406552174149</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -10432,19 +10432,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>1.217463816057623</v>
+        <v>0.5339231537960926</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.5207353874552797</v>
+        <v>0.4800777979468572</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.6842718265158231</v>
+        <v>0.40468802082792</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>1.103387427904461</v>
+        <v>0.730700454219164</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>24.64449391539589</v>
+        <v>22.37406552174149</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -10460,23 +10460,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.20938146774169</v>
+        <v>0.4832900839768232</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5634597552270597</v>
+        <v>0.5397024664797728</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6997412475111292</v>
+        <v>0.377532932028909</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.099718813034355</v>
+        <v>0.695190681739063</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>27.1073066028761</v>
+        <v>25.44245580483492</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -10490,23 +10490,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>1.209381467685557</v>
+        <v>0.4832900839768232</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.5634597551456406</v>
+        <v>0.5397024664797728</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.6997412474725054</v>
+        <v>0.377532932028909</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>1.099718813008833</v>
+        <v>0.695190681739063</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>27.10730659957552</v>
+        <v>25.44245580483492</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -10522,23 +10522,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.185440951757374</v>
+        <v>0.518261847446658</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.5156746604050126</v>
+        <v>0.4919997919757351</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6700060011750278</v>
+        <v>0.355695903846408</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.0887795698659</v>
+        <v>0.7199040543340883</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>24.62093807397582</v>
+        <v>24.3228751084993</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -10552,23 +10552,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.185440951757374</v>
+        <v>0.518261847446658</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.5156746604050126</v>
+        <v>0.4919997919757351</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.6700060011750278</v>
+        <v>0.355695903846408</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.0887795698659</v>
+        <v>0.7199040543340883</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>24.62093807397582</v>
+        <v>24.3228751084993</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -10588,19 +10588,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.342054748437988</v>
+        <v>0.9627004904247798</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5708097988001185</v>
+        <v>0.7074711710902477</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.707285822137635</v>
+        <v>0.4469038385607517</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.158470866460606</v>
+        <v>0.9811730175788467</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>26.96617411062086</v>
+        <v>35.81358366997551</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -10618,19 +10618,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>1.34204614215743</v>
+        <v>0.9627004904247798</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.5707919501101286</v>
+        <v>0.7074711710902477</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.7072779446513728</v>
+        <v>0.4469038385607517</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>1.158467151954439</v>
+        <v>0.9811730175788467</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>26.96546393765301</v>
+        <v>35.81358366997551</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -10646,23 +10646,23 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+          <t>{'n_estimators': 80, 'max_samples': 0.7000000000000001, 'max_features': 0.1}</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.15258329173722</v>
+        <v>0.5351544275178882</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5286067255686109</v>
+        <v>0.5941892332210702</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6471043404686138</v>
+        <v>0.3857690312726944</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.07358431980782</v>
+        <v>0.7315424987776774</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>25.20334547899108</v>
+        <v>28.20259706507593</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -10676,23 +10676,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+          <t>{'n_estimators': 80, 'max_samples': 0.7000000000000001, 'max_features': 0.1}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>1.152578656570099</v>
+        <v>0.5351544275178882</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.5285897126486806</v>
+        <v>0.5941892332210702</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.6470983973088668</v>
+        <v>0.3857690312726944</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.073582161071102</v>
+        <v>0.7315424987776774</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>25.20272183836206</v>
+        <v>28.20259706507593</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -10708,23 +10708,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>1.160108507703101</v>
+        <v>0.5292620405555424</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.496963580078682</v>
+        <v>0.5124919974482469</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.6581117592987051</v>
+        <v>0.3784327343869057</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>1.077083333685514</v>
+        <v>0.7275039797523738</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>23.83873304039425</v>
+        <v>24.54900890003837</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -10738,23 +10738,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>1.160108507703101</v>
+        <v>0.5292620405555424</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.496963580078682</v>
+        <v>0.5124919974482469</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>0.6581117592987051</v>
+        <v>0.3784327343869057</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>1.077083333685514</v>
+        <v>0.7275039797523738</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>23.83873304039425</v>
+        <v>24.54900890003837</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -10918,19 +10918,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.252248883247375</v>
+        <v>0.572528064250946</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5240055322647095</v>
+        <v>0.4688726365566254</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6873463988304138</v>
+        <v>0.4138287901878357</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.11903926796488</v>
+        <v>0.7566558426728403</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>24.63926076889038</v>
+        <v>21.34682685136795</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10948,19 +10948,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>1.230047106742859</v>
+        <v>0.5911644101142883</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5377675294876099</v>
+        <v>0.430078536272049</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6522778272628784</v>
+        <v>0.4115040004253387</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.10907488779742</v>
+        <v>0.7688721676028392</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>25.37218928337097</v>
+        <v>20.11169791221619</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10980,19 +10980,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8685243725776672</v>
+        <v>0.336731344461441</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5693554878234863</v>
+        <v>0.4825486838817596</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5957600474357605</v>
+        <v>0.2137705087661743</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9319465502793962</v>
+        <v>0.5802855714744604</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>27.36578583717346</v>
+        <v>19.57370787858963</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -11010,19 +11010,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.9483057260513306</v>
+        <v>0.4047147631645203</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.5624681711196899</v>
+        <v>0.4990077316761017</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.7089503407478333</v>
+        <v>0.2328356951475143</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.9738099024200414</v>
+        <v>0.6361719603727598</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>26.25008523464203</v>
+        <v>22.01493978500366</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -11042,19 +11042,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.621212005615234</v>
+        <v>6.675225257873535</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8396464586257935</v>
+        <v>2.075773239135742</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7616519927978516</v>
+        <v>1.268747687339783</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.273268237888323</v>
+        <v>2.583645729947033</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>39.28545117378235</v>
+        <v>57.59212970733643</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11072,19 +11072,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>17.42129325866699</v>
+        <v>1.878781318664551</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>4.011362552642822</v>
+        <v>1.176427602767944</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.781623601913452</v>
+        <v>0.6763708591461182</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>4.173882276570219</v>
+        <v>1.370686440680198</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>193.8372254371643</v>
+        <v>55.2933394908905</v>
       </c>
     </row>
   </sheetData>
@@ -11258,19 +11258,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.170302851160496</v>
+        <v>0.4459286421572436</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5117226195561818</v>
+        <v>0.5384013601295492</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6539371048474657</v>
+        <v>0.3471992520196367</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.081805366579634</v>
+        <v>0.667778887175421</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>25.32652290599005</v>
+        <v>25.92552977516788</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -11288,19 +11288,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.168457632068149</v>
+        <v>0.4459286421572436</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.5126929849446341</v>
+        <v>0.5384013601295492</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.6566186901019258</v>
+        <v>0.3471992520196367</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.080952187688313</v>
+        <v>0.667778887175421</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>25.37512745281346</v>
+        <v>25.92552977516788</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -11316,23 +11316,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.277734307088867</v>
+        <v>0.4698286226978474</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4829833131537885</v>
+        <v>0.4901773491756016</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6882303135382284</v>
+        <v>0.401924035723799</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.130369102147112</v>
+        <v>0.6854404589005871</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>23.27093379412644</v>
+        <v>23.19098465985794</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -11346,23 +11346,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>1.27792380278841</v>
+        <v>0.4698286226978474</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.4844588732956673</v>
+        <v>0.4901773491756016</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.6884155934033347</v>
+        <v>0.401924035723799</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>1.130452919315267</v>
+        <v>0.6854404589005871</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>23.32005809862053</v>
+        <v>23.19098465985794</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -11444,19 +11444,19 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.23452606664143</v>
+        <v>0.7707839641991747</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5476955088867753</v>
+        <v>0.6389638949889065</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6668612862287973</v>
+        <v>0.4224380984323045</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>1.111092285384715</v>
+        <v>0.8779430301558152</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>26.17968472226126</v>
+        <v>31.58282259116219</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -11470,23 +11470,23 @@
       </c>
       <c r="K10" s="8" t="inlineStr">
         <is>
-          <t>{'weights': 'distance', 'n_neighbors': 8}</t>
+          <t>{'weights': 'uniform', 'n_neighbors': 9}</t>
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>1.252283021163433</v>
+        <v>0.7707839641991747</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.5563881897004018</v>
+        <v>0.6389638949889065</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.6735570704102642</v>
+        <v>0.4224380984323045</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>1.119054521086186</v>
+        <v>0.8779430301558152</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>26.47401316224486</v>
+        <v>31.58282259116219</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -11646,23 +11646,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.20320487565497</v>
+        <v>0.5086297660059179</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5051049207830204</v>
+        <v>0.5423480690797973</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6636293652522179</v>
+        <v>0.3606149316898508</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.096906958522449</v>
+        <v>0.7131828419177777</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>24.66468782080935</v>
+        <v>26.17492386774156</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -11680,19 +11680,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>1.209218221801842</v>
+        <v>0.5086297660059179</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.5091987048862776</v>
+        <v>0.5423480690797973</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.6624588540509964</v>
+        <v>0.3606149316898508</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>1.09964458885671</v>
+        <v>0.7131828419177777</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>24.78771091373585</v>
+        <v>26.17492386774156</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -11712,19 +11712,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.276207618601263</v>
+        <v>0.6162114054553146</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5198507896575599</v>
+        <v>0.5126957265916341</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6884735350972045</v>
+        <v>0.4515983010816364</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.12969359500763</v>
+        <v>0.7849913410065837</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>24.82590848942228</v>
+        <v>23.70825242969857</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -11742,19 +11742,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>1.320277396972619</v>
+        <v>0.6162114054553146</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.53254526943087</v>
+        <v>0.5126957265916341</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.7090157436657114</v>
+        <v>0.4515983010816364</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>1.149033244502795</v>
+        <v>0.7849913410065837</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>25.1419011891164</v>
+        <v>23.70825242969857</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -11770,23 +11770,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.42178467702302</v>
+        <v>0.4296952996434693</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6155783981561549</v>
+        <v>0.5159421806527215</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6587263686679131</v>
+        <v>0.3648383027747515</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.192386127486822</v>
+        <v>0.6555114794139529</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>30.19747370377893</v>
+        <v>24.6157241543809</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -11800,23 +11800,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>1.310980013053065</v>
+        <v>0.4296952996434693</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.5841775686867169</v>
+        <v>0.5159421806527215</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.6756699723309771</v>
+        <v>0.3648383027747515</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>1.144980354876478</v>
+        <v>0.6555114794139529</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>28.02865950166105</v>
+        <v>24.6157241543809</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -11832,23 +11832,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.397941465616753</v>
+        <v>0.554133523104444</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.5944746833055166</v>
+        <v>0.5599052332680698</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7312335306357686</v>
+        <v>0.3632326250883288</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.182345747070946</v>
+        <v>0.7444014529166665</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>28.18591768720559</v>
+        <v>27.22150634551225</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -11862,23 +11862,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.384188348425349</v>
+        <v>0.554133523104444</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.5850066041658896</v>
+        <v>0.5599052332680698</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.7187501980497542</v>
+        <v>0.3632326250883288</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.176515341347213</v>
+        <v>0.7444014529166665</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>27.86792376767595</v>
+        <v>27.22150634551225</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -11894,23 +11894,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'loss': 'linear', 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.341324088348133</v>
+        <v>0.8038572736350595</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.562218690441446</v>
+        <v>0.6374103199399181</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6859766338594778</v>
+        <v>0.3949070668188487</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.158155468125127</v>
+        <v>0.8965808795836879</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>27.60408160244773</v>
+        <v>32.24950206227901</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -11924,23 +11924,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'loss': 'square', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>1.333204358235207</v>
+        <v>0.8038572736350595</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.5636505289575366</v>
+        <v>0.6374103199399181</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.6964372636027766</v>
+        <v>0.3949070668188487</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>1.154644689172911</v>
+        <v>0.8965808795836879</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>27.19265846940623</v>
+        <v>32.24950206227901</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -11956,23 +11956,23 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+          <t>{'n_estimators': 80, 'max_samples': 0.7000000000000001, 'max_features': 0.1}</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.163957494742664</v>
+        <v>0.5677886034517735</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5355224112706274</v>
+        <v>0.6064007525857359</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6487234017273866</v>
+        <v>0.4249846875542502</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.078868617924659</v>
+        <v>0.7535174871572481</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>25.90983360595698</v>
+        <v>28.51111781705135</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -11986,23 +11986,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+          <t>{'n_estimators': 80, 'max_samples': 0.7000000000000001, 'max_features': 0.1}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>1.182526609350932</v>
+        <v>0.5677886034517735</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.5447272838576456</v>
+        <v>0.6064007525857359</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.6580018301959777</v>
+        <v>0.4249846875542502</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.087440393470342</v>
+        <v>0.7535174871572481</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>26.18548134417376</v>
+        <v>28.51111781705135</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -12022,19 +12022,19 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>1.164367974578654</v>
+        <v>0.635719523566018</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.5299585377984608</v>
+        <v>0.5829353967387301</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.6880352797366418</v>
+        <v>0.3855969131138671</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>1.079058837403528</v>
+        <v>0.7973202139454499</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>25.72713880458385</v>
+        <v>28.57200217552641</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -12048,23 +12048,23 @@
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>1.176418847223331</v>
+        <v>0.635719523566018</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.5085786122279325</v>
+        <v>0.5829353967387301</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>0.6682022743187107</v>
+        <v>0.3855969131138671</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>1.084628437403026</v>
+        <v>0.7973202139454499</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>24.71657940468933</v>
+        <v>28.57200217552641</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -12224,23 +12224,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.342041492462158</v>
+        <v>0.5241379737854004</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5842834711074829</v>
+        <v>0.4457156658172607</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7186616659164429</v>
+        <v>0.420566201210022</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.158465145121837</v>
+        <v>0.7239737383257768</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>27.13451981544495</v>
+        <v>21.17154449224472</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -12258,19 +12258,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>1.278247714042664</v>
+        <v>0.5693719983100891</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5398067235946655</v>
+        <v>0.4350911974906921</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6770869493484497</v>
+        <v>0.4358192682266235</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.130596176378933</v>
+        <v>0.7545674246282363</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>25.73497891426086</v>
+        <v>20.44051438570023</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12286,23 +12286,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9466094970703125</v>
+        <v>0.3835672438144684</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5656729340553284</v>
+        <v>0.4472494125366211</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6677644848823547</v>
+        <v>0.2719215452671051</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.972938588540054</v>
+        <v>0.6193280583135794</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>27.33683586120605</v>
+        <v>19.66027766466141</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -12320,19 +12320,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>1.179216861724854</v>
+        <v>0.5549178719520569</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.6664842367172241</v>
+        <v>0.5460773110389709</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.7933570742607117</v>
+        <v>0.2897777259349823</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>1.085917520682328</v>
+        <v>0.7449280985115657</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>30.4016649723053</v>
+        <v>24.37082231044769</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12352,19 +12352,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.655925989151001</v>
+        <v>20.740234375</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7034623026847839</v>
+        <v>3.375642061233521</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8490654826164246</v>
+        <v>1.767722368240356</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.286827878603429</v>
+        <v>4.554144746821295</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>30.39398193359375</v>
+        <v>126.3055562973022</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12382,19 +12382,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.466658353805542</v>
+        <v>120.196174621582</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.8475853800773621</v>
+        <v>8.411396026611328</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.745070219039917</v>
+        <v>3.972293615341187</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.211056709574553</v>
+        <v>10.96340159902856</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>41.21822118759155</v>
+        <v>143.0937886238098</v>
       </c>
     </row>
   </sheetData>
@@ -12568,19 +12568,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.244421111594682</v>
+        <v>0.5109620943182367</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.529470611847634</v>
+        <v>0.5721902835181092</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3891683375740828</v>
+        <v>0.7551994252290665</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.115536243962823</v>
+        <v>0.7148161262298415</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>25.67006820162018</v>
+        <v>28.26734778164888</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -12598,19 +12598,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.244466590718253</v>
+        <v>0.5109642703398388</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.5294042648094806</v>
+        <v>0.5721923571994699</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.3890749657780617</v>
+        <v>0.7552029666775437</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.11555662819879</v>
+        <v>0.7148176483130777</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>25.66824478660668</v>
+        <v>28.2674074630256</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -12626,23 +12626,23 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.390989511503964</v>
+        <v>0.5090343959807784</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4897273737180308</v>
+        <v>0.5034110400541237</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4176245584597363</v>
+        <v>0.8432421242053234</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.179402183949124</v>
+        <v>0.7134664645102659</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>23.16552634694097</v>
+        <v>24.52082272952853</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -12656,23 +12656,23 @@
       </c>
       <c r="K8" s="8" t="inlineStr">
         <is>
-          <t>{'kernel': 'rbf', 'gamma': 0.0001, 'C': 1}</t>
+          <t>{'kernel': 'rbf', 'gamma': 0.1, 'C': 1}</t>
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>1.388952006623972</v>
+        <v>0.5090343959807784</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.4891996241405465</v>
+        <v>0.5034110400541237</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.4169336718707397</v>
+        <v>0.8432421242053234</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>1.178538080260444</v>
+        <v>0.7134664645102659</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>23.15097277055676</v>
+        <v>24.52082272952853</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -12754,19 +12754,19 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.344188428657509</v>
+        <v>0.7730269288213216</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5894071483131695</v>
+        <v>0.647416555127667</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4240311716000313</v>
+        <v>0.8865381677342146</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>1.159391404426266</v>
+        <v>0.8792194997958824</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>27.75334366524268</v>
+        <v>32.33205065582965</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -12784,19 +12784,19 @@
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>1.332113398918709</v>
+        <v>0.7730269288213216</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.5863536110954857</v>
+        <v>0.647416555127667</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.4213409206027654</v>
+        <v>0.8865381677342146</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>1.154172170396908</v>
+        <v>0.8792194997958824</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>27.69549809068212</v>
+        <v>32.33205065582965</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -12956,23 +12956,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.216944518624705</v>
+        <v>0.5432107764269298</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5044329421364772</v>
+        <v>0.5438620882186772</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3747919978047702</v>
+        <v>0.7719266278630547</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.10315208318015</v>
+        <v>0.7370283416714244</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>24.75272995190215</v>
+        <v>27.31214149985946</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -12986,23 +12986,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>1.224358390524649</v>
+        <v>0.5431431322629674</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.5000609974902314</v>
+        <v>0.5437433000452941</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3767226876302787</v>
+        <v>0.7718737669089626</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>1.106507293480097</v>
+        <v>0.7369824504443558</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>24.4073821538699</v>
+        <v>27.30603946008348</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -13022,19 +13022,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.430301487979047</v>
+        <v>0.6540649482195227</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5707285984164455</v>
+        <v>0.551600133768791</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4487117234834039</v>
+        <v>0.9417963544794385</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.195952126123386</v>
+        <v>0.8087428195783395</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>26.24599942847428</v>
+        <v>25.86643754450569</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -13052,19 +13052,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>1.481056993959939</v>
+        <v>0.6625667969958675</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.5666255928056952</v>
+        <v>0.5505925813441744</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.4581032980719418</v>
+        <v>0.9474813811639358</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>1.216986850364431</v>
+        <v>0.8139820618391216</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>25.88377183908326</v>
+        <v>25.80603972375367</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -13080,23 +13080,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': None, 'max_depth': 15, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.245477134960557</v>
+        <v>0.5511759288277068</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5426892591028309</v>
+        <v>0.5806164235481904</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4014016010082881</v>
+        <v>0.8041103742816801</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.116009469028179</v>
+        <v>0.7424122364479904</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>25.85966692944805</v>
+        <v>28.53626989449445</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -13110,23 +13110,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': None, 'max_depth': 15, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>1.231890386141574</v>
+        <v>0.5511759288277068</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.5451128734169839</v>
+        <v>0.5806164235481904</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.3985569238888221</v>
+        <v>0.8041103742816801</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>1.109905575326827</v>
+        <v>0.7424122364479904</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>26.0609844490812</v>
+        <v>28.53626989449445</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -13142,23 +13142,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.247712734365529</v>
+        <v>0.6538188772770553</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.5154256013832959</v>
+        <v>0.5878900668051097</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3770197076833602</v>
+        <v>0.7958661969583476</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.117010624105934</v>
+        <v>0.8085906735036309</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>25.16241898750238</v>
+        <v>30.16466976071201</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -13172,23 +13172,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.254385585328028</v>
+        <v>0.6538914749864574</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.5195427425713488</v>
+        <v>0.5879332916194617</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.3811025939264971</v>
+        <v>0.7958806334320574</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.119993564860097</v>
+        <v>0.8086355637655677</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>25.34362386091479</v>
+        <v>30.16659473229465</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -13208,19 +13208,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.33829227728696</v>
+        <v>0.5138977972072321</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5326125980153574</v>
+        <v>0.4648438341260757</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3880640974893837</v>
+        <v>0.8149073127884937</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.156845831252791</v>
+        <v>0.7168666523191269</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>26.09324707135404</v>
+        <v>23.61321173214812</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -13238,19 +13238,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>1.38455861502256</v>
+        <v>0.4840525059042287</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.5364274650456622</v>
+        <v>0.4629849849802506</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.4130114861788086</v>
+        <v>0.8054533054197008</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>1.176672688143377</v>
+        <v>0.6957388201791163</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>25.68037118521401</v>
+        <v>23.33903610104894</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -13266,23 +13266,23 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+          <t>{'n_estimators': 80, 'max_samples': 0.7000000000000001, 'max_features': 0.1}</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.255774464540965</v>
+        <v>0.5657902187042464</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5349382233808307</v>
+        <v>0.587662482393581</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3969120257418214</v>
+        <v>0.7871574197897029</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.120613432250821</v>
+        <v>0.7521902809158374</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>25.58988327948184</v>
+        <v>28.9660377142837</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -13296,23 +13296,23 @@
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 150, 'max_samples': 0.1, 'max_features': 1.0}</t>
+          <t>{'n_estimators': 80, 'max_samples': 0.7000000000000001, 'max_features': 0.1}</t>
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>1.249717070702399</v>
+        <v>0.5654015829557827</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.5329741642676606</v>
+        <v>0.5870726292366105</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.3966225197275414</v>
+        <v>0.7835802877373882</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.117907451760833</v>
+        <v>0.7519319004775517</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>25.51476065009464</v>
+        <v>28.93789687980205</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -13328,23 +13328,23 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>1.247487199973593</v>
+        <v>0.547299566078528</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.5277608421919033</v>
+        <v>0.5686734710851954</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.3814286688597929</v>
+        <v>0.7696975118044648</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>1.116909665090957</v>
+        <v>0.7397969762566808</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>25.79915063916419</v>
+        <v>28.27824771390356</v>
       </c>
       <c r="I19" s="9" t="inlineStr">
         <is>
@@ -13362,19 +13362,19 @@
         </is>
       </c>
       <c r="L19" s="8" t="n">
-        <v>1.248356447679965</v>
+        <v>0.5500824495086275</v>
       </c>
       <c r="M19" s="8" t="n">
-        <v>0.5246586618076736</v>
+        <v>0.5715027820085001</v>
       </c>
       <c r="N19" s="8" t="n">
-        <v>0.3904116157942635</v>
+        <v>0.7724897202517529</v>
       </c>
       <c r="O19" s="8" t="n">
-        <v>1.117298728040073</v>
+        <v>0.7416754340738457</v>
       </c>
       <c r="P19" s="8" t="n">
-        <v>25.36425738998575</v>
+        <v>28.39613922884238</v>
       </c>
     </row>
     <row r="20" ht="128.25" customHeight="1">
@@ -13534,23 +13534,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.504690527915955</v>
+        <v>0.6927375197410583</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6529583930969238</v>
+        <v>0.4836142361164093</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4813026487827301</v>
+        <v>0.9848828315734863</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.226658276748645</v>
+        <v>0.8323085484008069</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>29.07472550868988</v>
+        <v>22.93896973133087</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -13564,23 +13564,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>1.441718578338623</v>
+        <v>0.6199750304222107</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.6005595326423645</v>
+        <v>0.4511887431144714</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4607038199901581</v>
+        <v>0.9705622792243958</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.20071586078415</v>
+        <v>0.7873849315437849</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>27.4233341217041</v>
+        <v>21.99003398418427</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -13600,19 +13600,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.957770049571991</v>
+        <v>0.6953768730163574</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5391629934310913</v>
+        <v>0.6453312039375305</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.429533451795578</v>
+        <v>0.3743591010570526</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9786572686962433</v>
+        <v>0.8338926028070746</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>24.92750138044357</v>
+        <v>29.91039752960205</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -13630,19 +13630,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.8648152947425842</v>
+        <v>0.5792432427406311</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.5086666941642761</v>
+        <v>0.5572556853294373</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.4092481434345245</v>
+        <v>0.3448445796966553</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.9299544584239511</v>
+        <v>0.7610803129372294</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>24.46250766515732</v>
+        <v>24.83050674200058</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13662,19 +13662,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.069187164306641</v>
+        <v>3101.53466796875</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8863558173179626</v>
+        <v>42.25261688232422</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.600926399230957</v>
+        <v>24.62029647827148</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.438466949327179</v>
+        <v>55.69142364824902</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>37.29378283023834</v>
+        <v>173.3905792236328</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13692,19 +13692,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.83448338508606</v>
+        <v>8531.521484375</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.7520769834518433</v>
+        <v>67.38506317138672</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5540953278541565</v>
+        <v>48.22725677490234</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.354431018947093</v>
+        <v>92.36623562955783</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>31.80624842643738</v>
+        <v>184.4051122665405</v>
       </c>
     </row>
   </sheetData>

--- a/data/performance_sheets/Full Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets/Full Overall Model Peformance Results.xlsx
@@ -6138,23 +6138,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07696971277033711</v>
+        <v>0.06909376831309415</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2157278712467079</v>
+        <v>0.2076592871879438</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>25194897611581.46</v>
+        <v>0.8733132469670067</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2774341593429639</v>
+        <v>0.2628569350675271</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>42.47761688926744</v>
+        <v>38.26588314370247</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -6172,19 +6172,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.07696971277033711</v>
+        <v>0.06909376831309415</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2157278712467079</v>
+        <v>0.2076592871879438</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>25194897611581.46</v>
+        <v>0.8733132469670067</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2774341593429639</v>
+        <v>0.2628569350675271</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>42.47761688926744</v>
+        <v>38.26588314370247</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -6262,23 +6262,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3816121913487556</v>
+        <v>0.05413762867712387</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5671094007043672</v>
+        <v>0.1701347625669053</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8375877724274.301</v>
+        <v>0.5561459153517146</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6177476761176489</v>
+        <v>0.2326749420911583</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>153.9713622519195</v>
+        <v>31.73075791629839</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -6292,23 +6292,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.4266706132862284</v>
+        <v>0.4761898811310885</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.6088080376473665</v>
+        <v>0.6442456611498789</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>3692448120292.716</v>
+        <v>1.39220095340766</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.6532002857364871</v>
+        <v>0.6900651281807308</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>180.9265001901362</v>
+        <v>157.9321070300778</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -6840,23 +6840,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07189688061018172</v>
+        <v>0.05048870743568894</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2091634047970357</v>
+        <v>0.1781592920318389</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24279962285662.78</v>
+        <v>0.6368967249465362</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2681359368122477</v>
+        <v>0.2246969235118473</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>41.88516644990603</v>
+        <v>34.57860636537988</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -6870,23 +6870,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.07205585494416498</v>
+        <v>0.05667039760837656</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.209474469413232</v>
+        <v>0.1815167560449195</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>23814710851852.29</v>
+        <v>0.6897183311598736</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2684322166658931</v>
+        <v>0.2380554507008326</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>41.98812457686741</v>
+        <v>33.63731776283132</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -7452,19 +7452,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07738568110643973</v>
+        <v>0.06836997508507714</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2159912581497641</v>
+        <v>0.2080751436730939</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28774042945103.17</v>
+        <v>0.8924472199170855</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2781828195745376</v>
+        <v>0.2614765287460371</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>42.9422302701527</v>
+        <v>38.62896271899861</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -7482,19 +7482,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.07738568110643973</v>
+        <v>0.06836997508507714</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2159912581497641</v>
+        <v>0.2080751436730939</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>28774042945103.17</v>
+        <v>0.8924472199170855</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2781828195745376</v>
+        <v>0.2614765287460371</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>42.9422302701527</v>
+        <v>38.62896271899861</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -7572,23 +7572,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0557846144200503</v>
+        <v>0.5241240318197071</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1603249225839407</v>
+        <v>0.6632408962797511</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28452992313006.18</v>
+        <v>1.224253507052632</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2361876677984062</v>
+        <v>0.7239641094831339</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>36.18315204936907</v>
+        <v>171.3746758368922</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -7602,23 +7602,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.05713925112367867</v>
+        <v>0.5241240318197071</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1836213714491429</v>
+        <v>0.6632408962797511</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>25110343247242.33</v>
+        <v>1.224253507052632</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2390381792176277</v>
+        <v>0.7239641094831339</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>42.98306559831666</v>
+        <v>171.3746758368922</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -8150,23 +8150,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05873768317698885</v>
+        <v>0.04915095280237462</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1686471871588727</v>
+        <v>0.1678763359375507</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>30850676525531.44</v>
+        <v>0.6088988310969139</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2423585838731297</v>
+        <v>0.2217001416381474</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>35.77563295807791</v>
+        <v>32.93248863030125</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -8180,23 +8180,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05736513850166559</v>
+        <v>0.04915095280237462</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.165804276427113</v>
+        <v>0.1678763359375507</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>31873162664096.33</v>
+        <v>0.6088988310969139</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2395102054227869</v>
+        <v>0.2217001416381474</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>35.41040453507348</v>
+        <v>32.93248863030125</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -8762,19 +8762,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07918237860719184</v>
+        <v>0.0708215793490518</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2186581150216025</v>
+        <v>0.2116710821125182</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>33459378262980.71</v>
+        <v>0.9884978037716073</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2813936364013796</v>
+        <v>0.2661232409036306</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>43.33694056223331</v>
+        <v>39.21310174927157</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -8792,19 +8792,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.07918237860719184</v>
+        <v>0.0708215793490518</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2186581150216025</v>
+        <v>0.2116710821125182</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>33459378262980.71</v>
+        <v>0.9884978037716073</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2813936364013796</v>
+        <v>0.2661232409036306</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>43.33694056223331</v>
+        <v>39.21310174927157</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -8882,23 +8882,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05459303582825174</v>
+        <v>0.5438537319667697</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1566444690248641</v>
+        <v>0.6053894802800303</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34588308884328.02</v>
+        <v>1.360083989267368</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2336515264838895</v>
+        <v>0.7374643936942106</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>35.09329633753622</v>
+        <v>129.8854807519225</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -8912,23 +8912,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.05462722945459337</v>
+        <v>0.6913528567866606</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1567124723652404</v>
+        <v>0.6863005746365973</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>34654368396263.95</v>
+        <v>1.775590858528104</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2337246873023758</v>
+        <v>0.8314763116208786</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>35.08852384070262</v>
+        <v>134.0231942216878</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -9460,23 +9460,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05522218175653344</v>
+        <v>0.06322971683502121</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.162429185870661</v>
+        <v>0.2008777713681246</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>37536406536923.19</v>
+        <v>0.8845957720757992</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2349940036608029</v>
+        <v>0.2514551984648979</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>35.24203944677495</v>
+        <v>38.07308353053708</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -9490,23 +9490,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05376266230526566</v>
+        <v>0.0632100867364578</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1619828956092945</v>
+        <v>0.2006730153365992</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>37113869742173.99</v>
+        <v>0.8806601295945559</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2318677690091179</v>
+        <v>0.2514161624407981</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>35.32807549746138</v>
+        <v>38.06283538779673</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -10072,19 +10072,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.237849369106494</v>
+        <v>0.4867763644923185</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5668539995642533</v>
+        <v>0.4317176122233018</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6863099095390642</v>
+        <v>0.383757842495929</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.112586791718513</v>
+        <v>0.6976936035913749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>26.39783966890182</v>
+        <v>20.54057201310868</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -10102,19 +10102,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>1.237849369106494</v>
+        <v>0.4867763644923185</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.5668539995642533</v>
+        <v>0.4317176122233018</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6863099095390642</v>
+        <v>0.383757842495929</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>1.112586791718513</v>
+        <v>0.6976936035913749</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>26.39783966890182</v>
+        <v>20.54057201310868</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -10196,19 +10196,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.586330476056443</v>
+        <v>6.755259735393123</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.48997602782608</v>
+        <v>2.517377941303166</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.06050414635069</v>
+        <v>1.009002623877448</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.566384709285894</v>
+        <v>2.599088250789712</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>175.2359154584235</v>
+        <v>184.7522133260984</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -10226,19 +10226,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>6.586378198672669</v>
+        <v>6.755259735393123</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.489984549054313</v>
+        <v>2.517377941303166</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.060503981386416</v>
+        <v>1.009002623877448</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.566394006903981</v>
+        <v>2.599088250789712</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>175.2362763769295</v>
+        <v>184.7522133260984</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -10770,23 +10770,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.148438395346091</v>
+        <v>0.6070261394274867</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5269890116729011</v>
+        <v>0.5293886940471428</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.668544138376981</v>
+        <v>0.3712048166280827</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.071652180208715</v>
+        <v>0.7791188224061121</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>25.3584203334365</v>
+        <v>26.84909924106436</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -10800,23 +10800,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.1484448413298</v>
+        <v>0.6070261394274867</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.5270539632782789</v>
+        <v>0.5293886940471428</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.668567265707369</v>
+        <v>0.3712048166280827</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.071655187702556</v>
+        <v>0.7791188224061121</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>25.36077448201627</v>
+        <v>26.84909924106436</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -11382,19 +11382,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.3379361604258</v>
+        <v>0.4908658011265332</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5838214925894707</v>
+        <v>0.4358101953853054</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7170156178595006</v>
+        <v>0.4097778255120139</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.156691903847261</v>
+        <v>0.7006181564351106</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.13591327452508</v>
+        <v>20.82631720090059</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -11412,19 +11412,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>1.3379361604258</v>
+        <v>0.4908658011265332</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.5838214925894707</v>
+        <v>0.4358101953853054</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.7170156178595006</v>
+        <v>0.4097778255120139</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>1.156691903847261</v>
+        <v>0.7006181564351106</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>27.13591327452508</v>
+        <v>20.82631720090059</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -11502,23 +11502,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.159846698062265</v>
+        <v>7.094635469454165</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5178985585884918</v>
+        <v>2.449115338779055</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.650662003603714</v>
+        <v>1.042264884632189</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.076961790437463</v>
+        <v>2.663575692458197</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>25.70101038184446</v>
+        <v>155.5106466910254</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -11532,23 +11532,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>1.136312377981002</v>
+        <v>7.094635469454165</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5965576646602645</v>
+        <v>2.449115338779055</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.6524012552448073</v>
+        <v>1.042264884632189</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>1.065979539194352</v>
+        <v>2.663575692458197</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>29.64935994658757</v>
+        <v>155.5106466910254</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -12080,23 +12080,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.159245233601062</v>
+        <v>0.5392010873546105</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.52324779979558</v>
+        <v>0.5344263386240526</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6386546588086752</v>
+        <v>0.3597105537641478</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.076682512907618</v>
+        <v>0.7343031304268085</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>25.66118410470334</v>
+        <v>25.9850570470783</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -12110,23 +12110,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.170895176414213</v>
+        <v>0.5392010873546105</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.5239406462446869</v>
+        <v>0.5344263386240526</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6400969684848957</v>
+        <v>0.3597105537641478</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.082079098963755</v>
+        <v>0.7343031304268085</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>25.64961756662231</v>
+        <v>25.9850570470783</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -12692,19 +12692,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.432661526308358</v>
+        <v>0.5332670952068923</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5989410797249856</v>
+        <v>0.447486862139495</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4587105291292444</v>
+        <v>0.8845050500578514</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.196938397039864</v>
+        <v>0.7302513917870286</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.39749042316213</v>
+        <v>22.02467847747726</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -12722,19 +12722,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>1.432661526308358</v>
+        <v>0.5332670952068923</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.5989410797249856</v>
+        <v>0.447486862139495</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.4587105291292444</v>
+        <v>0.8845050500578514</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>1.196938397039864</v>
+        <v>0.7302513917870286</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>27.39749042316213</v>
+        <v>22.02467847747726</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -12812,23 +12812,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.223567856073173</v>
+        <v>14.39543610847111</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5464285413028936</v>
+        <v>3.207483274980911</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3897414592368508</v>
+        <v>2.292647154635849</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.106150015175687</v>
+        <v>3.794131799037971</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>26.66905776572555</v>
+        <v>134.9890858325447</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -12842,23 +12842,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>1.224511660899385</v>
+        <v>28.12895752481465</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5453278824175362</v>
+        <v>3.662474907531789</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.3895523034582554</v>
+        <v>1.8712021440463</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>1.106576549950063</v>
+        <v>5.303673964792203</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>26.60565209582245</v>
+        <v>107.6972808290955</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -13390,23 +13390,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.244859330864133</v>
+        <v>0.5644801857399269</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5397711144505686</v>
+        <v>0.5449349590535226</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3870235446933208</v>
+        <v>0.6881646889723593</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.115732643093377</v>
+        <v>0.7513189640491759</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>26.25613828093086</v>
+        <v>28.76259536743121</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -13420,23 +13420,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.246736511186857</v>
+        <v>0.5643334776742343</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.5505677114832247</v>
+        <v>0.5448393571946853</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3853391808689952</v>
+        <v>0.688131045217841</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.116573558341257</v>
+        <v>0.7512213240279021</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>26.91320502577797</v>
+        <v>28.75831446361174</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
